--- a/src/schema/tools/controlledFromGooglesheet/ECRR Controlled Vocabularies.xlsx
+++ b/src/schema/tools/controlledFromGooglesheet/ECRR Controlled Vocabularies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentin/development/dev_earthcube/ecrr_ui_vue2/src/schema/tools/controlledFromGooglesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF189DD8-1459-6D4D-95B5-4362AA0E64C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EDE6EE-DCB8-2744-8CD4-F1E0D5B419EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32940" yWindow="-540" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44560" yWindow="-540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Licenses" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="874">
   <si>
     <t>From ontology</t>
   </si>
@@ -3564,7 +3564,9 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3579,7 +3581,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3612,6 +3616,9 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="49" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3623,6 +3630,9 @@
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="49" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3634,6 +3644,9 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="49" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
@@ -3645,6 +3658,9 @@
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="49" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
@@ -3656,6 +3672,9 @@
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="49" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
@@ -3667,6 +3686,9 @@
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="B8" s="49" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
@@ -3678,6 +3700,9 @@
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="B9" s="49" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
@@ -3689,6 +3714,9 @@
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="B10" s="49" t="s">
+        <v>4</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
@@ -3714,6 +3742,9 @@
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B12" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
@@ -3725,6 +3756,9 @@
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="B13" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
@@ -3736,6 +3770,9 @@
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="B14" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
@@ -3750,6 +3787,9 @@
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="B15" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
@@ -3761,6 +3801,9 @@
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="B16" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
@@ -3772,6 +3815,9 @@
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="B17" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>43</v>
       </c>
@@ -3786,6 +3832,9 @@
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="B18" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="C18" s="5" t="s">
         <v>47</v>
       </c>
@@ -3797,6 +3846,9 @@
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B19" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="5" t="s">
         <v>49</v>
       </c>
@@ -3808,6 +3860,9 @@
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="B20" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="C20" s="5" t="s">
         <v>51</v>
       </c>
@@ -3819,12 +3874,18 @@
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="B21" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="13">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="B22" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="13">
@@ -3839,15 +3900,24 @@
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="B24" s="49" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="13">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="B25" s="49" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="13">
       <c r="A26" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -42256,7 +42326,7 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>

--- a/src/schema/tools/controlledFromGooglesheet/ECRR Controlled Vocabularies.xlsx
+++ b/src/schema/tools/controlledFromGooglesheet/ECRR Controlled Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentin/development/dev_earthcube/ecrr_ui_vue2/src/schema/tools/controlledFromGooglesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EDE6EE-DCB8-2744-8CD4-F1E0D5B419EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4A432D-599A-3D40-817D-6D4782908119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44560" yWindow="-540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Licenses" sheetId="1" r:id="rId1"/>
@@ -3564,7 +3564,7 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -6044,7 +6044,7 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>

--- a/src/schema/tools/controlledFromGooglesheet/ECRR Controlled Vocabularies.xlsx
+++ b/src/schema/tools/controlledFromGooglesheet/ECRR Controlled Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\GithubC\earthcube\jsonld_forms\src\schema\tools\controlledFromGooglesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E39F47D-D3F9-4F1F-9E2E-15BD0C4D758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B82B326-A5F5-461E-A0E8-03A974A4475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1815" windowWidth="26820" windowHeight="13620" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="2355" windowWidth="26820" windowHeight="13620" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Licenses" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <definedName name="Usage">Usage!$A$2:$A$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="883">
   <si>
     <t>From ontology</t>
   </si>
@@ -1262,9 +1263,6 @@
     <t>Interface/API</t>
   </si>
   <si>
-    <t xml:space="preserve">A set of operations, messages used to invoke the operations, and inputs necessary to execute the operations, along with an expected output content and format. An Interface/API should have an associated specification document.  </t>
-  </si>
-  <si>
     <t>http://cor.esipfed.org/ont/earthcube/ECRRO_0000207</t>
   </si>
   <si>
@@ -2709,13 +2707,43 @@
   </si>
   <si>
     <t>http://dx.doi.org/10.13039/100000203</t>
+  </si>
+  <si>
+    <t>has steward</t>
+  </si>
+  <si>
+    <t>has creator, stewar</t>
+  </si>
+  <si>
+    <t>has creator, editor, steward</t>
+  </si>
+  <si>
+    <t>has steward, provider</t>
+  </si>
+  <si>
+    <t>has developers, steward</t>
+  </si>
+  <si>
+    <t>has provider, creator</t>
+  </si>
+  <si>
+    <t>has provider, steward</t>
+  </si>
+  <si>
+    <t>has creator, editor, steward, provider</t>
+  </si>
+  <si>
+    <t>has creator, steward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(deprecated, use specification/webAPI or specification/interface). A set of operations, messages used to invoke the operations, and inputs necessary to execute the operations, along with an expected output content and format. An Interface/API should have an associated specification document.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2854,12 +2882,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF38761D"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -3089,7 +3111,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3269,17 +3291,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3292,7 +3308,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3302,8 +3318,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3313,7 +3329,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3323,36 +3339,36 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3362,6 +3378,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3987,8 +4009,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A1" s="78" t="s">
-        <v>486</v>
+      <c r="A1" s="76" t="s">
+        <v>485</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3999,827 +4021,827 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="80" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="77" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="F3" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="77" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="79" t="s">
+      <c r="B4" s="78" t="s">
         <v>492</v>
       </c>
-      <c r="B4" s="80" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="77" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="80" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="77" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="79" t="s">
+      <c r="B6" s="78" t="s">
         <v>496</v>
       </c>
-      <c r="B6" s="80" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="77" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="79" t="s">
+      <c r="B7" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="B7" s="80" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="77" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>500</v>
       </c>
-      <c r="B8" s="80" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="77" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="79" t="s">
+      <c r="B9" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="B9" s="80" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="77" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="79" t="s">
+      <c r="B10" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="B10" s="80" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="77" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="79" t="s">
+      <c r="B11" s="78" t="s">
         <v>506</v>
       </c>
-      <c r="B11" s="80" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="77" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="79" t="s">
+      <c r="B12" s="78" t="s">
         <v>508</v>
       </c>
-      <c r="B12" s="80" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="77" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>510</v>
       </c>
-      <c r="B13" s="80" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="77" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="79" t="s">
+      <c r="B14" s="78" t="s">
         <v>512</v>
       </c>
-      <c r="B14" s="80" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="77" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="79" t="s">
+      <c r="B15" s="78" t="s">
         <v>514</v>
       </c>
-      <c r="B15" s="80" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="77" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="79" t="s">
+      <c r="B16" s="78" t="s">
         <v>516</v>
       </c>
-      <c r="B16" s="80" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="77" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="79" t="s">
+      <c r="B17" s="78" t="s">
         <v>518</v>
       </c>
-      <c r="B17" s="80" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="77" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="79" t="s">
+      <c r="B18" s="78" t="s">
         <v>520</v>
       </c>
-      <c r="B18" s="80" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="77" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="79" t="s">
+      <c r="B19" s="78" t="s">
         <v>522</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B20" s="78" t="s">
         <v>524</v>
       </c>
-      <c r="B20" s="80" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="77" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
-      <c r="A21" s="79" t="s">
+      <c r="B21" s="78" t="s">
         <v>526</v>
       </c>
-      <c r="B21" s="80" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="77" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>528</v>
       </c>
-      <c r="B22" s="80" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="77" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="79" t="s">
+      <c r="B23" s="78" t="s">
         <v>530</v>
       </c>
-      <c r="B23" s="80" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="77" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="79" t="s">
+      <c r="B24" s="78" t="s">
         <v>532</v>
       </c>
-      <c r="B24" s="80" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="77" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="79" t="s">
+      <c r="B25" s="78" t="s">
         <v>534</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B26" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B26" s="80" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="77" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="79" t="s">
+      <c r="B27" s="78" t="s">
         <v>538</v>
       </c>
-      <c r="B27" s="80" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="77" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="79" t="s">
+      <c r="B28" s="78" t="s">
         <v>540</v>
       </c>
-      <c r="B28" s="80" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="77" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="79" t="s">
+      <c r="B29" s="78" t="s">
         <v>542</v>
       </c>
-      <c r="B29" s="80" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="77" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="79" t="s">
+      <c r="B30" s="78" t="s">
         <v>544</v>
       </c>
-      <c r="B30" s="80" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="77" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
-      <c r="A31" s="79" t="s">
+      <c r="B31" s="78" t="s">
         <v>546</v>
       </c>
-      <c r="B31" s="80" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="77" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="79" t="s">
+      <c r="B32" s="78" t="s">
         <v>548</v>
       </c>
-      <c r="B32" s="80" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="77" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="79" t="s">
+      <c r="B33" s="78" t="s">
         <v>550</v>
       </c>
-      <c r="B33" s="80" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="77" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="79" t="s">
+      <c r="B34" s="78" t="s">
         <v>552</v>
       </c>
-      <c r="B34" s="80" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="77" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="79" t="s">
+      <c r="B35" s="78" t="s">
         <v>554</v>
       </c>
-      <c r="B35" s="80" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="77" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="79" t="s">
+      <c r="B36" s="78" t="s">
         <v>556</v>
       </c>
-      <c r="B36" s="80" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="77" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>558</v>
       </c>
-      <c r="B37" s="80" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38" s="77" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="79" t="s">
+      <c r="B38" s="78" t="s">
         <v>560</v>
       </c>
-      <c r="B38" s="80" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="77" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15">
-      <c r="A39" s="79" t="s">
+      <c r="B39" s="78" t="s">
         <v>562</v>
       </c>
-      <c r="B39" s="80" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="77" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="79" t="s">
+      <c r="B40" s="78" t="s">
         <v>564</v>
       </c>
-      <c r="B40" s="80" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="77" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="79" t="s">
+      <c r="B41" s="78" t="s">
         <v>566</v>
       </c>
-      <c r="B41" s="80" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="15">
+      <c r="A42" s="77" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15">
-      <c r="A42" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>568</v>
       </c>
-      <c r="B42" s="80" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="15">
+      <c r="A43" s="77" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15">
-      <c r="A43" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>570</v>
       </c>
-      <c r="B43" s="80" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44" s="77" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="79" t="s">
+      <c r="B44" s="78" t="s">
         <v>572</v>
       </c>
-      <c r="B44" s="80" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="77" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="79" t="s">
+      <c r="B45" s="78" t="s">
         <v>574</v>
       </c>
-      <c r="B45" s="80" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="15">
+      <c r="A46" s="77" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15">
-      <c r="A46" s="79" t="s">
+      <c r="B46" s="78" t="s">
         <v>576</v>
       </c>
-      <c r="B46" s="80" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="15">
+      <c r="A47" s="77" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15">
-      <c r="A47" s="79" t="s">
+      <c r="B47" s="78" t="s">
         <v>578</v>
       </c>
-      <c r="B47" s="80" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="15">
+      <c r="A48" s="77" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15">
-      <c r="A48" s="79" t="s">
+      <c r="B48" s="78" t="s">
         <v>580</v>
       </c>
-      <c r="B48" s="80" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="15">
+      <c r="A49" s="77" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15">
-      <c r="A49" s="79" t="s">
+      <c r="B49" s="78" t="s">
         <v>582</v>
       </c>
-      <c r="B49" s="80" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="15">
+      <c r="A50" s="77" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15">
-      <c r="A50" s="79" t="s">
+      <c r="B50" s="78" t="s">
         <v>584</v>
       </c>
-      <c r="B50" s="80" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="15">
+      <c r="A51" s="77" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15">
-      <c r="A51" s="79" t="s">
+      <c r="B51" s="78" t="s">
         <v>586</v>
       </c>
-      <c r="B51" s="80" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="15">
+      <c r="A52" s="77" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15">
-      <c r="A52" s="79" t="s">
+      <c r="B52" s="78" t="s">
         <v>588</v>
       </c>
-      <c r="B52" s="80" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="15">
+      <c r="A53" s="77" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15">
-      <c r="A53" s="79" t="s">
+      <c r="B53" s="78" t="s">
         <v>590</v>
       </c>
-      <c r="B53" s="80" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="15">
+      <c r="A54" s="77" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15">
-      <c r="A54" s="79" t="s">
+      <c r="B54" s="78" t="s">
         <v>592</v>
       </c>
-      <c r="B54" s="80" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="15">
+      <c r="A55" s="77" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15">
-      <c r="A55" s="79" t="s">
+      <c r="B55" s="78" t="s">
         <v>594</v>
       </c>
-      <c r="B55" s="80" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="15">
+      <c r="A56" s="77" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="15">
-      <c r="A56" s="79" t="s">
+      <c r="B56" s="78" t="s">
         <v>596</v>
       </c>
-      <c r="B56" s="80" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="15">
+      <c r="A57" s="77" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="15">
-      <c r="A57" s="79" t="s">
+      <c r="B57" s="78" t="s">
         <v>598</v>
       </c>
-      <c r="B57" s="80" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="15">
+      <c r="A58" s="77" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="15">
-      <c r="A58" s="79" t="s">
+      <c r="B58" s="78" t="s">
         <v>600</v>
       </c>
-      <c r="B58" s="80" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="15">
+      <c r="A59" s="77" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="15">
-      <c r="A59" s="79" t="s">
+      <c r="B59" s="78" t="s">
         <v>602</v>
       </c>
-      <c r="B59" s="80" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="15">
+      <c r="A60" s="77" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="15">
-      <c r="A60" s="79" t="s">
+      <c r="B60" s="78" t="s">
         <v>604</v>
       </c>
-      <c r="B60" s="80" t="s">
+    </row>
+    <row r="61" spans="1:2" ht="15">
+      <c r="A61" s="77" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="15">
-      <c r="A61" s="79" t="s">
+      <c r="B61" s="78" t="s">
         <v>606</v>
       </c>
-      <c r="B61" s="80" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="15">
+      <c r="A62" s="77" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="15">
-      <c r="A62" s="79" t="s">
+      <c r="B62" s="78" t="s">
         <v>608</v>
       </c>
-      <c r="B62" s="80" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="15">
+      <c r="A63" s="77" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="15">
-      <c r="A63" s="79" t="s">
+      <c r="B63" s="78" t="s">
         <v>610</v>
       </c>
-      <c r="B63" s="80" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="15">
+      <c r="A64" s="77" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="15">
-      <c r="A64" s="79" t="s">
+      <c r="B64" s="78" t="s">
         <v>612</v>
       </c>
-      <c r="B64" s="80" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="15">
+      <c r="A65" s="77" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="15">
-      <c r="A65" s="79" t="s">
+      <c r="B65" s="78" t="s">
         <v>614</v>
       </c>
-      <c r="B65" s="80" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="15">
+      <c r="A66" s="77" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="15">
-      <c r="A66" s="79" t="s">
+      <c r="B66" s="78" t="s">
         <v>616</v>
       </c>
-      <c r="B66" s="80" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="15">
+      <c r="A67" s="77" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="15">
-      <c r="A67" s="79" t="s">
+      <c r="B67" s="78" t="s">
         <v>618</v>
       </c>
-      <c r="B67" s="80" t="s">
+    </row>
+    <row r="68" spans="1:2" ht="15">
+      <c r="A68" s="77" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="15">
-      <c r="A68" s="79" t="s">
+      <c r="B68" s="78" t="s">
         <v>620</v>
       </c>
-      <c r="B68" s="80" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="15">
+      <c r="A69" s="77" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="15">
-      <c r="A69" s="79" t="s">
+      <c r="B69" s="78" t="s">
         <v>622</v>
       </c>
-      <c r="B69" s="80" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="15">
+      <c r="A70" s="77" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="15">
-      <c r="A70" s="79" t="s">
+      <c r="B70" s="78" t="s">
         <v>624</v>
       </c>
-      <c r="B70" s="80" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="15">
+      <c r="A71" s="77" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="15">
-      <c r="A71" s="79" t="s">
+      <c r="B71" s="78" t="s">
         <v>626</v>
       </c>
-      <c r="B71" s="80" t="s">
+    </row>
+    <row r="72" spans="1:2" ht="15">
+      <c r="A72" s="77" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="15">
-      <c r="A72" s="79" t="s">
+      <c r="B72" s="78" t="s">
         <v>628</v>
       </c>
-      <c r="B72" s="80" t="s">
+    </row>
+    <row r="73" spans="1:2" ht="15">
+      <c r="A73" s="77" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="15">
-      <c r="A73" s="79" t="s">
+      <c r="B73" s="78" t="s">
         <v>630</v>
       </c>
-      <c r="B73" s="80" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="15">
+      <c r="A74" s="77" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="15">
-      <c r="A74" s="79" t="s">
+      <c r="B74" s="78" t="s">
         <v>632</v>
       </c>
-      <c r="B74" s="80" t="s">
+    </row>
+    <row r="75" spans="1:2" ht="15">
+      <c r="A75" s="77" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="15">
-      <c r="A75" s="79" t="s">
+      <c r="B75" s="78" t="s">
         <v>634</v>
       </c>
-      <c r="B75" s="80" t="s">
+    </row>
+    <row r="76" spans="1:2" ht="15">
+      <c r="A76" s="77" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="15">
-      <c r="A76" s="79" t="s">
+      <c r="B76" s="78" t="s">
         <v>636</v>
       </c>
-      <c r="B76" s="80" t="s">
+    </row>
+    <row r="77" spans="1:2" ht="15">
+      <c r="A77" s="77" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="15">
-      <c r="A77" s="79" t="s">
+      <c r="B77" s="78" t="s">
         <v>638</v>
       </c>
-      <c r="B77" s="80" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="15">
+      <c r="A78" s="77" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="15">
-      <c r="A78" s="79" t="s">
+      <c r="B78" s="78" t="s">
         <v>640</v>
       </c>
-      <c r="B78" s="80" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="15">
+      <c r="A79" s="77" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="15">
-      <c r="A79" s="79" t="s">
+      <c r="B79" s="78" t="s">
         <v>642</v>
       </c>
-      <c r="B79" s="80" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="15">
+      <c r="A80" s="77" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="15">
-      <c r="A80" s="79" t="s">
+      <c r="B80" s="78" t="s">
         <v>644</v>
       </c>
-      <c r="B80" s="80" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="15">
+      <c r="A81" s="77" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="15">
-      <c r="A81" s="79" t="s">
+      <c r="B81" s="78" t="s">
         <v>646</v>
       </c>
-      <c r="B81" s="80" t="s">
+    </row>
+    <row r="82" spans="1:2" ht="15">
+      <c r="A82" s="77" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="15">
-      <c r="A82" s="79" t="s">
+      <c r="B82" s="78" t="s">
         <v>648</v>
       </c>
-      <c r="B82" s="80" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="15">
+      <c r="A83" s="77" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="15">
-      <c r="A83" s="79" t="s">
+      <c r="B83" s="78" t="s">
         <v>650</v>
       </c>
-      <c r="B83" s="80" t="s">
+    </row>
+    <row r="84" spans="1:2" ht="15">
+      <c r="A84" s="77" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="15">
-      <c r="A84" s="79" t="s">
+      <c r="B84" s="78" t="s">
         <v>652</v>
       </c>
-      <c r="B84" s="80" t="s">
+    </row>
+    <row r="85" spans="1:2" ht="15">
+      <c r="A85" s="77" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="15">
-      <c r="A85" s="79" t="s">
+      <c r="B85" s="78" t="s">
         <v>654</v>
       </c>
-      <c r="B85" s="80" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="15">
+      <c r="A86" s="77" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="15">
-      <c r="A86" s="79" t="s">
+      <c r="B86" s="78" t="s">
         <v>656</v>
       </c>
-      <c r="B86" s="80" t="s">
+    </row>
+    <row r="87" spans="1:2" ht="15">
+      <c r="A87" s="77" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="15">
-      <c r="A87" s="79" t="s">
+      <c r="B87" s="78" t="s">
         <v>658</v>
       </c>
-      <c r="B87" s="80" t="s">
+    </row>
+    <row r="88" spans="1:2" ht="15">
+      <c r="A88" s="77" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="15">
-      <c r="A88" s="79" t="s">
+      <c r="B88" s="78" t="s">
         <v>660</v>
       </c>
-      <c r="B88" s="80" t="s">
+    </row>
+    <row r="89" spans="1:2" ht="15">
+      <c r="A89" s="77" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="15">
-      <c r="A89" s="79" t="s">
+      <c r="B89" s="78" t="s">
         <v>662</v>
-      </c>
-      <c r="B89" s="80" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15">
       <c r="A90" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B90" s="78" t="s">
         <v>664</v>
       </c>
-      <c r="B90" s="80" t="s">
+    </row>
+    <row r="91" spans="1:2" ht="15">
+      <c r="A91" s="77" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="15">
-      <c r="A91" s="79" t="s">
+      <c r="B91" s="78" t="s">
         <v>666</v>
       </c>
-      <c r="B91" s="80" t="s">
+    </row>
+    <row r="92" spans="1:2" ht="15">
+      <c r="A92" s="77" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="15">
-      <c r="A92" s="79" t="s">
+      <c r="B92" s="78" t="s">
         <v>668</v>
       </c>
-      <c r="B92" s="80" t="s">
+    </row>
+    <row r="93" spans="1:2" ht="15">
+      <c r="A93" s="77" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="15">
-      <c r="A93" s="79" t="s">
+      <c r="B93" s="78" t="s">
         <v>670</v>
       </c>
-      <c r="B93" s="80" t="s">
+    </row>
+    <row r="94" spans="1:2" ht="15">
+      <c r="A94" s="77" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="15">
-      <c r="A94" s="79" t="s">
+      <c r="B94" s="78" t="s">
         <v>672</v>
       </c>
-      <c r="B94" s="80" t="s">
+    </row>
+    <row r="95" spans="1:2" ht="15">
+      <c r="A95" s="77" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="15">
-      <c r="A95" s="79" t="s">
+      <c r="B95" s="78" t="s">
         <v>674</v>
       </c>
-      <c r="B95" s="80" t="s">
+    </row>
+    <row r="96" spans="1:2" ht="15">
+      <c r="A96" s="77" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="15">
-      <c r="A96" s="79" t="s">
+      <c r="B96" s="78" t="s">
         <v>676</v>
       </c>
-      <c r="B96" s="80" t="s">
+    </row>
+    <row r="97" spans="1:2" ht="15">
+      <c r="A97" s="77" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="15">
-      <c r="A97" s="79" t="s">
+      <c r="B97" s="78" t="s">
         <v>678</v>
       </c>
-      <c r="B97" s="80" t="s">
+    </row>
+    <row r="98" spans="1:2" ht="15">
+      <c r="A98" s="77" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="15">
-      <c r="A98" s="79" t="s">
+      <c r="B98" s="78" t="s">
         <v>680</v>
       </c>
-      <c r="B98" s="80" t="s">
-        <v>681</v>
-      </c>
     </row>
     <row r="99" spans="1:2" ht="15">
-      <c r="A99" s="81"/>
-      <c r="B99" s="81"/>
+      <c r="A99" s="79"/>
+      <c r="B99" s="79"/>
     </row>
     <row r="100" spans="1:2" ht="15">
-      <c r="A100" s="81"/>
-      <c r="B100" s="81"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="79"/>
     </row>
     <row r="101" spans="1:2" ht="15">
-      <c r="A101" s="81"/>
-      <c r="B101" s="81"/>
+      <c r="A101" s="79"/>
+      <c r="B101" s="79"/>
     </row>
     <row r="102" spans="1:2" ht="15">
-      <c r="A102" s="81"/>
-      <c r="B102" s="81"/>
+      <c r="A102" s="79"/>
+      <c r="B102" s="79"/>
     </row>
     <row r="103" spans="1:2" ht="15">
-      <c r="A103" s="81"/>
-      <c r="B103" s="81"/>
+      <c r="A103" s="79"/>
+      <c r="B103" s="79"/>
     </row>
     <row r="104" spans="1:2" ht="15">
-      <c r="A104" s="81"/>
-      <c r="B104" s="81"/>
+      <c r="A104" s="79"/>
+      <c r="B104" s="79"/>
     </row>
     <row r="105" spans="1:2" ht="15">
-      <c r="A105" s="81"/>
-      <c r="B105" s="81"/>
+      <c r="A105" s="79"/>
+      <c r="B105" s="79"/>
     </row>
     <row r="106" spans="1:2" ht="15">
-      <c r="A106" s="81"/>
-      <c r="B106" s="81"/>
+      <c r="A106" s="79"/>
+      <c r="B106" s="79"/>
     </row>
     <row r="107" spans="1:2" ht="15">
-      <c r="A107" s="81"/>
-      <c r="B107" s="81"/>
+      <c r="A107" s="79"/>
+      <c r="B107" s="79"/>
     </row>
     <row r="108" spans="1:2" ht="15">
-      <c r="A108" s="81"/>
-      <c r="B108" s="81"/>
+      <c r="A108" s="79"/>
+      <c r="B108" s="79"/>
     </row>
     <row r="109" spans="1:2" ht="15">
-      <c r="A109" s="81"/>
-      <c r="B109" s="81"/>
+      <c r="A109" s="79"/>
+      <c r="B109" s="79"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4942,10 +4964,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>682</v>
-      </c>
-      <c r="B1" s="83" t="s">
+      <c r="A1" s="80" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="e">
@@ -4954,91 +4976,91 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2" s="83" t="s">
         <v>683</v>
       </c>
-      <c r="B2" s="85" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="82" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="84" t="s">
+      <c r="B3" s="83" t="s">
         <v>685</v>
       </c>
-      <c r="B3" s="85" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="82" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>687</v>
       </c>
-      <c r="B4" s="85" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
+      <c r="A5" s="82" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" s="84" t="s">
+      <c r="B5" s="83" t="s">
         <v>689</v>
       </c>
-      <c r="B5" s="85" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
+      <c r="A6" s="82" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="84" t="s">
+      <c r="B6" s="83" t="s">
         <v>691</v>
       </c>
-      <c r="B6" s="85" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="14.25">
+      <c r="A7" s="82" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25">
-      <c r="A7" s="84" t="s">
+      <c r="B7" s="83" t="s">
         <v>693</v>
       </c>
-      <c r="B7" s="85" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="82" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>695</v>
       </c>
-      <c r="B8" s="85" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="14.25">
+      <c r="A9" s="82" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25">
-      <c r="A9" s="84" t="s">
+      <c r="B9" s="83" t="s">
         <v>697</v>
       </c>
-      <c r="B9" s="85" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="14.25">
+      <c r="A10" s="84" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25">
-      <c r="A10" s="86" t="s">
+      <c r="B10" s="83" t="s">
         <v>699</v>
       </c>
-      <c r="B10" s="85" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="14.25">
+      <c r="A11" s="84" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25">
-      <c r="A11" s="86" t="s">
+      <c r="B11" s="83" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="85" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="14.25">
+      <c r="A12" s="82" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25">
-      <c r="A12" s="84" t="s">
+      <c r="B12" s="83" t="s">
         <v>703</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -5077,7 +5099,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -5089,42 +5111,42 @@
     </row>
     <row r="2" spans="1:3" ht="12.75">
       <c r="A2" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>706</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>708</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75">
       <c r="A4" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>710</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
       <c r="A6" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>713</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -5158,65 +5180,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="87" t="s">
-        <v>715</v>
-      </c>
-      <c r="B1" s="88" t="s">
+      <c r="A1" s="85" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="e">
         <f ca="1">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSeZfJ9sFzYYpmLVSHCwl-v77N0hso00VxegN7OlKXBejyy3fw/viewform?usp=sf_link",image("https://docs.google.com/uc?export=download&amp;id=1IfwL2BtsIvquM61nd0g8mba96nyD4GUI",2))</f>
         <v>#NAME?</v>
       </c>
-      <c r="G1" s="89"/>
+      <c r="G1" s="87"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="88" t="s">
+        <v>715</v>
+      </c>
+      <c r="B2" s="89" t="s">
         <v>716</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="G2" s="90"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="88" t="s">
         <v>717</v>
       </c>
-      <c r="G2" s="92"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>718</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="G3" s="91"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="88" t="s">
         <v>719</v>
       </c>
-      <c r="G3" s="93"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="90" t="s">
+      <c r="B4" s="95" t="s">
         <v>720</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="G4" s="91"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="91" t="s">
+        <v>702</v>
+      </c>
+      <c r="B5" s="89" t="s">
         <v>721</v>
       </c>
-      <c r="G4" s="93"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="93" t="s">
-        <v>703</v>
-      </c>
-      <c r="B5" s="91" t="s">
+      <c r="G5" s="91"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="88" t="s">
+        <v>712</v>
+      </c>
+      <c r="B6" s="89" t="s">
         <v>722</v>
       </c>
-      <c r="G5" s="93"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="90" t="s">
-        <v>713</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>723</v>
-      </c>
-      <c r="G6" s="93"/>
+      <c r="G6" s="91"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="G7" s="90"/>
+      <c r="G7" s="88"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5250,7 +5272,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -5285,50 +5307,50 @@
     </row>
     <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>725</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>727</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>731</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75">
       <c r="A6" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>735</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -5363,7 +5385,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -5375,36 +5397,36 @@
     </row>
     <row r="2" spans="1:4" ht="12.75">
       <c r="A2" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>738</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75">
       <c r="A3" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>740</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75">
       <c r="A4" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>742</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25">
       <c r="A5" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>744</v>
       </c>
-      <c r="B5" s="71" t="s">
-        <v>745</v>
-      </c>
-      <c r="D5" s="94"/>
+      <c r="D5" s="92"/>
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1"/>
   </sheetData>
@@ -5439,19 +5461,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="93" t="s">
         <v>749</v>
-      </c>
-      <c r="E1" s="95" t="s">
-        <v>750</v>
       </c>
       <c r="F1" s="4" t="e">
         <f ca="1">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSeZfJ9sFzYYpmLVSHCwl-v77N0hso00VxegN7OlKXBejyy3fw/viewform?usp=sf_link",image("https://docs.google.com/uc?export=download&amp;id=1IfwL2BtsIvquM61nd0g8mba96nyD4GUI",2))</f>
@@ -5460,512 +5482,512 @@
     </row>
     <row r="2" spans="1:6" ht="12.75">
       <c r="A2" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>754</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>758</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
       <c r="A4" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>763</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75">
       <c r="A5" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>767</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75">
       <c r="A6" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>775</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>779</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75">
       <c r="A9" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>783</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75">
       <c r="A10" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>787</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75">
       <c r="A11" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>791</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75">
       <c r="A12" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>795</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75">
       <c r="A13" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>799</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75">
       <c r="A14" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>803</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75">
       <c r="A15" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>807</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75">
       <c r="A16" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>815</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>819</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>823</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>827</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>831</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="12.75">
+      <c r="A23" s="5" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="94" t="s">
         <v>837</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="C23" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>840</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75">
       <c r="A24" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>844</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75">
       <c r="A25" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>848</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75">
       <c r="A26" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>852</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75">
       <c r="A27" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>856</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75">
       <c r="A28" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>860</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75">
       <c r="A29" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>864</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75">
       <c r="A30" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>868</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75">
       <c r="A31" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>872</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -6373,7 +6395,7 @@
         <v>115</v>
       </c>
       <c r="C2" s="18" t="str">
-        <f t="shared" ref="C2:C5" si="0">A$2 &amp; ": " &amp;B2</f>
+        <f>A$2 &amp; ": " &amp;B2</f>
         <v>Research Planning: Mental Modeling</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -6413,7 +6435,7 @@
         <v>119</v>
       </c>
       <c r="C3" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>A$2 &amp; ": " &amp;B3</f>
         <v>Research Planning: Project Planning</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -6453,7 +6475,7 @@
         <v>123</v>
       </c>
       <c r="C4" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>A$2 &amp; ": " &amp;B4</f>
         <v>Research Planning: Logistics Planning</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -6493,7 +6515,7 @@
         <v>127</v>
       </c>
       <c r="C5" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>A$2 &amp; ": " &amp;B5</f>
         <v>Research Planning: Data Management Planning</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -6535,7 +6557,7 @@
         <v>131</v>
       </c>
       <c r="C6" s="18" t="str">
-        <f t="shared" ref="C6:C10" si="1">A$6 &amp; ": " &amp;B6</f>
+        <f>A$6 &amp; ": " &amp;B6</f>
         <v>User Interaction: Authentication &amp; Access Control</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -6575,7 +6597,7 @@
         <v>135</v>
       </c>
       <c r="C7" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f>A$6 &amp; ": " &amp;B7</f>
         <v>User Interaction: User Interface</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -6615,7 +6637,7 @@
         <v>139</v>
       </c>
       <c r="C8" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f>A$6 &amp; ": " &amp;B8</f>
         <v>User Interaction: Community Support / Social Networking</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -6655,7 +6677,7 @@
         <v>143</v>
       </c>
       <c r="C9" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f>A$6 &amp; ": " &amp;B9</f>
         <v>User Interaction: Notification</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -6695,7 +6717,7 @@
         <v>147</v>
       </c>
       <c r="C10" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f>A$6 &amp; ": " &amp;B10</f>
         <v>User Interaction: User Management</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -6735,7 +6757,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="18" t="str">
-        <f t="shared" ref="C11:C14" si="2">A$11 &amp; ": " &amp;B11</f>
+        <f>A$11 &amp; ": " &amp;B11</f>
         <v>Data Acquisition: Instrument Control</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -6775,7 +6797,7 @@
         <v>154</v>
       </c>
       <c r="C12" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f>A$11 &amp; ": " &amp;B12</f>
         <v>Data Acquisition: Instrument Calibration</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -6815,7 +6837,7 @@
         <v>158</v>
       </c>
       <c r="C13" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f>A$11 &amp; ": " &amp;B13</f>
         <v>Data Acquisition: Streaming Data Handling</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -6855,7 +6877,7 @@
         <v>162</v>
       </c>
       <c r="C14" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f>A$11 &amp; ": " &amp;B14</f>
         <v>Data Acquisition: Data Ingest</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -6897,7 +6919,7 @@
         <v>166</v>
       </c>
       <c r="C15" s="18" t="str">
-        <f t="shared" ref="C15:C18" si="3">A$15 &amp; ": " &amp;B15</f>
+        <f>A$15 &amp; ": " &amp;B15</f>
         <v>Data Discovery &amp; Access: Data Query</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -6937,7 +6959,7 @@
         <v>170</v>
       </c>
       <c r="C16" s="25" t="str">
-        <f t="shared" si="3"/>
+        <f>A$15 &amp; ": " &amp;B16</f>
         <v>Data Discovery &amp; Access: Data Harvesting</v>
       </c>
       <c r="D16" s="20" t="s">
@@ -6977,7 +6999,7 @@
         <v>174</v>
       </c>
       <c r="C17" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f>A$15 &amp; ": " &amp;B17</f>
         <v>Data Discovery &amp; Access: Web Crawling</v>
       </c>
       <c r="D17" s="20" t="s">
@@ -7017,7 +7039,7 @@
         <v>178</v>
       </c>
       <c r="C18" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>A$15 &amp; ": " &amp;B18</f>
         <v>Data Discovery &amp; Access: Data Access/Order</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -7059,7 +7081,7 @@
         <v>182</v>
       </c>
       <c r="C19" s="18" t="str">
-        <f t="shared" ref="C19:C20" si="4">A$19 &amp; ": " &amp;B19</f>
+        <f>A$19 &amp; ": " &amp;B19</f>
         <v>Data Exploration: Data Mining</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -7099,7 +7121,7 @@
         <v>186</v>
       </c>
       <c r="C20" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f>A$19 &amp; ": " &amp;B20</f>
         <v>Data Exploration: Exploratory Data Analysis</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -7141,7 +7163,7 @@
         <v>190</v>
       </c>
       <c r="C21" s="18" t="str">
-        <f t="shared" ref="C21:C26" si="5">A$21 &amp; ": " &amp;B21</f>
+        <f t="shared" ref="C21:C26" si="0">A$21 &amp; ": " &amp;B21</f>
         <v>Data Preparation: QA/QC</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -7181,7 +7203,7 @@
         <v>194</v>
       </c>
       <c r="C22" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Data Preparation: Subsetting</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -7221,7 +7243,7 @@
         <v>198</v>
       </c>
       <c r="C23" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Data Preparation: Metadata Assistance</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -7261,7 +7283,7 @@
         <v>202</v>
       </c>
       <c r="C24" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Data Preparation: Data Cleaning</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -7301,7 +7323,7 @@
         <v>206</v>
       </c>
       <c r="C25" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Data Preparation: Data Transformation </v>
       </c>
       <c r="D25" s="31" t="s">
@@ -7341,7 +7363,7 @@
         <v>210</v>
       </c>
       <c r="C26" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Data Preparation: Data Desensitization </v>
       </c>
       <c r="D26" s="20" t="s">
@@ -7383,7 +7405,7 @@
         <v>214</v>
       </c>
       <c r="C27" s="18" t="str">
-        <f t="shared" ref="C27:C35" si="6">A$27 &amp; ": " &amp;B27</f>
+        <f t="shared" ref="C27:C35" si="1">A$27 &amp; ": " &amp;B27</f>
         <v>Data Processing / Modeling: Grid or Mesh Generation</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -7421,7 +7443,7 @@
         <v>217</v>
       </c>
       <c r="C28" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Data Processing / Modeling: Test Data Generation</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -7459,7 +7481,7 @@
         <v>220</v>
       </c>
       <c r="C29" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Data Processing / Modeling: Output Validation</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -7497,7 +7519,7 @@
         <v>223</v>
       </c>
       <c r="C30" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Data Processing / Modeling: Model Coupling</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -7535,7 +7557,7 @@
         <v>226</v>
       </c>
       <c r="C31" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Data Processing / Modeling: Data Processing</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -7573,7 +7595,7 @@
         <v>229</v>
       </c>
       <c r="C32" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Data Processing / Modeling: Computational Model</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -7611,7 +7633,7 @@
         <v>232</v>
       </c>
       <c r="C33" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Data Processing / Modeling: Model Calibration</v>
       </c>
       <c r="D33" s="20" t="s">
@@ -7649,7 +7671,7 @@
         <v>235</v>
       </c>
       <c r="C34" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Data Processing / Modeling: Inversion / Data assimilation</v>
       </c>
       <c r="D34" s="20" t="s">
@@ -7687,7 +7709,7 @@
         <v>238</v>
       </c>
       <c r="C35" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Data Processing / Modeling: Data Integration</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -7727,7 +7749,7 @@
         <v>241</v>
       </c>
       <c r="C36" s="18" t="str">
-        <f t="shared" ref="C36:C40" si="7">A$36 &amp; ": " &amp;B36</f>
+        <f>A$36 &amp; ": " &amp;B36</f>
         <v>Workflow Management: Reproducibility Support</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -7765,7 +7787,7 @@
         <v>244</v>
       </c>
       <c r="C37" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f>A$36 &amp; ": " &amp;B37</f>
         <v>Workflow Management: Provenance Management</v>
       </c>
       <c r="D37" s="20" t="s">
@@ -7803,7 +7825,7 @@
         <v>247</v>
       </c>
       <c r="C38" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f>A$36 &amp; ": " &amp;B38</f>
         <v>Workflow Management: Workflow Design</v>
       </c>
       <c r="D38" s="20" t="s">
@@ -7841,7 +7863,7 @@
         <v>250</v>
       </c>
       <c r="C39" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f>A$36 &amp; ": " &amp;B39</f>
         <v>Workflow Management: Workflow Orchestration</v>
       </c>
       <c r="D39" s="20" t="s">
@@ -7879,7 +7901,7 @@
         <v>253</v>
       </c>
       <c r="C40" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f>A$36 &amp; ": " &amp;B40</f>
         <v>Workflow Management: Workflow Execution</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -7917,7 +7939,7 @@
         <v>255</v>
       </c>
       <c r="C41" s="18" t="str">
-        <f t="shared" ref="C41:C48" si="8">A$41 &amp; ": " &amp;B41</f>
+        <f t="shared" ref="C41:C48" si="2">A$41 &amp; ": " &amp;B41</f>
         <v>Data Analysis: TIme Series Analysis</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -7955,7 +7977,7 @@
         <v>258</v>
       </c>
       <c r="C42" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Data Analysis: Spatial Analysis</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -7993,7 +8015,7 @@
         <v>261</v>
       </c>
       <c r="C43" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Data Analysis: Statistical Analysis</v>
       </c>
       <c r="D43" s="20" t="s">
@@ -8031,7 +8053,7 @@
         <v>264</v>
       </c>
       <c r="C44" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Data Analysis: Image Processing</v>
       </c>
       <c r="D44" s="20" t="s">
@@ -8069,7 +8091,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Data Analysis: Text Analysis</v>
       </c>
       <c r="D45" s="20" t="s">
@@ -8107,7 +8129,7 @@
         <v>270</v>
       </c>
       <c r="C46" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Data Analysis: Graph/Network Analysis</v>
       </c>
       <c r="D46" s="20" t="s">
@@ -8145,7 +8167,7 @@
         <v>273</v>
       </c>
       <c r="C47" s="37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Data Analysis: Moving Object Analysis</v>
       </c>
       <c r="D47" s="37"/>
@@ -8181,7 +8203,7 @@
         <v>275</v>
       </c>
       <c r="C48" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Data Analysis: Machine Learning</v>
       </c>
       <c r="D48" s="20" t="s">
@@ -8221,7 +8243,7 @@
         <v>278</v>
       </c>
       <c r="C49" s="18" t="str">
-        <f t="shared" ref="C49:C51" si="9">A$49 &amp; ": " &amp;B49</f>
+        <f>A$49 &amp; ": " &amp;B49</f>
         <v>Visualization: Display</v>
       </c>
       <c r="D49" s="20" t="s">
@@ -8259,7 +8281,7 @@
         <v>281</v>
       </c>
       <c r="C50" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f>A$49 &amp; ": " &amp;B50</f>
         <v>Visualization: Animation</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -8297,7 +8319,7 @@
         <v>284</v>
       </c>
       <c r="C51" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f>A$49 &amp; ": " &amp;B51</f>
         <v>Visualization: Rendering</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -8337,7 +8359,7 @@
         <v>287</v>
       </c>
       <c r="C52" s="18" t="str">
-        <f t="shared" ref="C52:C56" si="10">A$52 &amp; ": " &amp;B52</f>
+        <f>A$52 &amp; ": " &amp;B52</f>
         <v>Reporting : Document generation</v>
       </c>
       <c r="D52" s="20" t="s">
@@ -8375,7 +8397,7 @@
         <v>290</v>
       </c>
       <c r="C53" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f>A$52 &amp; ": " &amp;B53</f>
         <v>Reporting : Report Rendering</v>
       </c>
       <c r="D53" s="20" t="s">
@@ -8413,7 +8435,7 @@
         <v>293</v>
       </c>
       <c r="C54" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f>A$52 &amp; ": " &amp;B54</f>
         <v>Reporting : Data Reporting</v>
       </c>
       <c r="D54" s="20" t="s">
@@ -8451,7 +8473,7 @@
         <v>296</v>
       </c>
       <c r="C55" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f>A$52 &amp; ": " &amp;B55</f>
         <v>Reporting : Usage Monitoring</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -8489,7 +8511,7 @@
         <v>299</v>
       </c>
       <c r="C56" s="37" t="str">
-        <f t="shared" si="10"/>
+        <f>A$52 &amp; ": " &amp;B56</f>
         <v>Reporting : User provided annotation</v>
       </c>
       <c r="D56" s="37"/>
@@ -8527,7 +8549,7 @@
         <v>301</v>
       </c>
       <c r="C57" s="18" t="str">
-        <f t="shared" ref="C57:C59" si="11">A$57 &amp; ": " &amp;B57</f>
+        <f>A$57 &amp; ": " &amp;B57</f>
         <v>Data Preservation: Long-term Archiving</v>
       </c>
       <c r="D57" s="20" t="s">
@@ -8565,7 +8587,7 @@
         <v>304</v>
       </c>
       <c r="C58" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>A$57 &amp; ": " &amp;B58</f>
         <v>Data Preservation: Backup</v>
       </c>
       <c r="D58" s="20" t="s">
@@ -8603,7 +8625,7 @@
         <v>307</v>
       </c>
       <c r="C59" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>A$57 &amp; ": " &amp;B59</f>
         <v>Data Preservation: Data Migration</v>
       </c>
       <c r="D59" s="20" t="s">
@@ -8643,7 +8665,7 @@
         <v>310</v>
       </c>
       <c r="C60" s="18" t="str">
-        <f t="shared" ref="C60:C62" si="12">A$60 &amp; ": " &amp;B60</f>
+        <f>A$60 &amp; ": " &amp;B60</f>
         <v>Programmer Assistance: Version Control</v>
       </c>
       <c r="D60" s="20" t="s">
@@ -8681,7 +8703,7 @@
         <v>313</v>
       </c>
       <c r="C61" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f>A$60 &amp; ": " &amp;B61</f>
         <v>Programmer Assistance: Code Optimization</v>
       </c>
       <c r="D61" s="20" t="s">
@@ -8719,7 +8741,7 @@
         <v>316</v>
       </c>
       <c r="C62" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f>A$60 &amp; ": " &amp;B62</f>
         <v>Programmer Assistance: Code Validation &amp; Testing</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -42355,20 +42377,20 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="105" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="103" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22" style="103" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="101" t="s">
         <v>376</v>
       </c>
       <c r="B1" s="53" t="s">
@@ -42377,7 +42399,7 @@
       <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="e">
+      <c r="D1" s="104" t="e">
         <f ca="1">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSeZfJ9sFzYYpmLVSHCwl-v77N0hso00VxegN7OlKXBejyy3fw/viewform?usp=sf_link",image("https://docs.google.com/uc?export=download&amp;id=1IfwL2BtsIvquM61nd0g8mba96nyD4GUI",2))</f>
         <v>#NAME?</v>
       </c>
@@ -42392,6 +42414,9 @@
       <c r="C2" s="56" t="s">
         <v>380</v>
       </c>
+      <c r="D2" s="103" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="85.5">
       <c r="A3" s="61" t="s">
@@ -42403,16 +42428,22 @@
       <c r="C3" s="58" t="s">
         <v>383</v>
       </c>
+      <c r="D3" s="103" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="25.5">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="102" t="s">
         <v>384</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="100" t="s">
         <v>386</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="285">
@@ -42425,118 +42456,140 @@
       <c r="C5" s="58" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="42.75">
+      <c r="D5" s="103" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="57">
       <c r="A6" s="61" t="s">
         <v>390</v>
       </c>
       <c r="B6" s="57" t="s">
+        <v>882</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>391</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="57">
       <c r="A7" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="C7" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>395</v>
+      <c r="D7" s="103" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="42.75">
       <c r="A8" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="C8" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>398</v>
+      <c r="D8" s="103" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="99.75">
       <c r="A9" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>399</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="C9" s="64" t="s">
         <v>400</v>
       </c>
-      <c r="C9" s="64" t="s">
-        <v>401</v>
+      <c r="D9" s="103" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="85.5">
       <c r="A10" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="62" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="C10" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>404</v>
+      <c r="D10" s="103" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="42.75">
       <c r="A11" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="C11" s="58" t="s">
         <v>406</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>407</v>
+      <c r="D11" s="103" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="114">
       <c r="A12" s="66" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="C12" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="C12" s="58" t="s">
-        <v>410</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
+      <c r="D12" s="105" t="s">
+        <v>875</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
     </row>
     <row r="13" spans="1:26" ht="25.5">
       <c r="A13" s="66" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="66" t="s">
         <v>411</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="C13" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>413</v>
-      </c>
-      <c r="D13" s="70"/>
+      <c r="D13" s="75" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="12.75">
       <c r="C14" s="47"/>
@@ -45508,9 +45561,8 @@
     <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
     <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
     <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45536,7 +45588,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -45548,74 +45600,74 @@
     </row>
     <row r="2" spans="1:3" ht="12.75">
       <c r="A2" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>415</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>417</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75">
       <c r="A4" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>419</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>421</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
       <c r="A6" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>423</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75">
       <c r="A7" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="69" t="s">
         <v>425</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75">
       <c r="A8" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="69" t="s">
         <v>427</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75">
       <c r="A9" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="69" t="s">
         <v>429</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75">
       <c r="A10" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="69" t="s">
         <v>431</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -45655,7 +45707,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -45689,110 +45741,110 @@
       <c r="Z1" s="41"/>
     </row>
     <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="96" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="97" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="99" t="s">
+    </row>
+    <row r="3" spans="1:26" ht="12.75">
+      <c r="A3" s="96" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="12.75">
-      <c r="A3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="99" t="s">
+    </row>
+    <row r="4" spans="1:26" ht="12.75">
+      <c r="A4" s="96" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="98" t="s">
+      <c r="B4" s="97" t="s">
         <v>438</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>440</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="G5" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="G5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="12.75">
+      <c r="A6" s="96" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="98" t="s">
+      <c r="B6" s="97" t="s">
         <v>443</v>
       </c>
-      <c r="B6" s="99" t="s">
+    </row>
+    <row r="7" spans="1:26" ht="12.75">
+      <c r="A7" s="96" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="98" t="s">
+      <c r="B7" s="97" t="s">
         <v>445</v>
       </c>
-      <c r="B7" s="99" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="12.75">
+      <c r="A8" s="96" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="98" t="s">
+      <c r="B8" s="97" t="s">
         <v>447</v>
-      </c>
-      <c r="B8" s="99" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75">
       <c r="A9" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="97" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="99" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="12.75">
+      <c r="A10" s="96" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="12.75">
-      <c r="A10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>451</v>
       </c>
-      <c r="B10" s="99" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="12.75">
+      <c r="A11" s="96" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="12.75">
-      <c r="A11" s="98" t="s">
+      <c r="B11" s="97" t="s">
         <v>453</v>
       </c>
-      <c r="B11" s="99" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="12.75">
+      <c r="A12" s="96" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="12.75">
-      <c r="A12" s="98" t="s">
+      <c r="B12" s="97" t="s">
         <v>455</v>
       </c>
-      <c r="B12" s="99" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="12.75">
+      <c r="A13" s="96" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="12.75">
-      <c r="A13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>457</v>
       </c>
-      <c r="B13" s="99" t="s">
+    </row>
+    <row r="14" spans="1:26" ht="12.75">
+      <c r="A14" s="96" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="12.75">
-      <c r="A14" s="98" t="s">
+      <c r="B14" s="97" t="s">
         <v>459</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -45836,9 +45888,9 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="72" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -45851,5045 +45903,5045 @@
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1">
       <c r="A2" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>463</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1">
       <c r="A3" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="71" t="s">
         <v>465</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>466</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1">
       <c r="A4" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>468</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>469</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1">
       <c r="A5" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" s="71" t="s">
         <v>471</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="C5" s="72" t="s">
         <v>472</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1">
       <c r="A6" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" s="71" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="C6" s="98" t="s">
         <v>475</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1">
       <c r="A7" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="C7" s="98" t="s">
         <v>478</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1">
       <c r="A8" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" s="73" t="s">
         <v>480</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="C8" s="21" t="s">
         <v>481</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1">
       <c r="A9" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="B9" s="99" t="s">
         <v>483</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="C9" s="21" t="s">
         <v>484</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75">
       <c r="A10" s="46"/>
-      <c r="B10" s="76"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="12.75">
       <c r="A11" s="46"/>
-      <c r="B11" s="77"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="12.75">
       <c r="A12" s="46"/>
-      <c r="B12" s="77"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:4" ht="12.75">
       <c r="A13" s="46"/>
-      <c r="B13" s="77"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="12.75">
       <c r="A14" s="46"/>
-      <c r="B14" s="77"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="12.75">
       <c r="A15" s="46"/>
-      <c r="B15" s="77"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="12.75">
       <c r="A16" s="46"/>
-      <c r="B16" s="77"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="12.75">
       <c r="A17" s="46"/>
-      <c r="B17" s="77"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="12.75">
       <c r="A18" s="46"/>
-      <c r="B18" s="77"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" ht="12.75">
       <c r="A19" s="46"/>
-      <c r="B19" s="77"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" ht="12.75">
       <c r="A20" s="46"/>
-      <c r="B20" s="77"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" ht="12.75">
       <c r="A21" s="46"/>
-      <c r="B21" s="77"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="12.75">
       <c r="A22" s="46"/>
-      <c r="B22" s="77"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="12.75">
       <c r="A23" s="46"/>
-      <c r="B23" s="77"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="12.75">
       <c r="A24" s="46"/>
-      <c r="B24" s="77"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" ht="12.75">
       <c r="A25" s="46"/>
-      <c r="B25" s="77"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" ht="12.75">
       <c r="A26" s="46"/>
-      <c r="B26" s="77"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" ht="12.75">
       <c r="A27" s="46"/>
-      <c r="B27" s="77"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" ht="12.75">
       <c r="A28" s="46"/>
-      <c r="B28" s="77"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="12.75">
       <c r="A29" s="46"/>
-      <c r="B29" s="77"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" ht="12.75">
       <c r="A30" s="46"/>
-      <c r="B30" s="77"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" ht="12.75">
       <c r="A31" s="46"/>
-      <c r="B31" s="77"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="12.75">
       <c r="A32" s="46"/>
-      <c r="B32" s="77"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" ht="12.75">
       <c r="A33" s="46"/>
-      <c r="B33" s="77"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="12.75">
       <c r="A34" s="46"/>
-      <c r="B34" s="77"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="12.75">
       <c r="A35" s="46"/>
-      <c r="B35" s="77"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:3" ht="12.75">
       <c r="A36" s="46"/>
-      <c r="B36" s="77"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="18"/>
     </row>
     <row r="37" spans="1:3" ht="12.75">
       <c r="A37" s="46"/>
-      <c r="B37" s="77"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="18"/>
     </row>
     <row r="38" spans="1:3" ht="12.75">
       <c r="A38" s="46"/>
-      <c r="B38" s="77"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:3" ht="12.75">
       <c r="A39" s="46"/>
-      <c r="B39" s="77"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="18"/>
     </row>
     <row r="40" spans="1:3" ht="12.75">
       <c r="A40" s="46"/>
-      <c r="B40" s="77"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="18"/>
     </row>
     <row r="41" spans="1:3" ht="12.75">
       <c r="A41" s="46"/>
-      <c r="B41" s="77"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="18"/>
     </row>
     <row r="42" spans="1:3" ht="12.75">
       <c r="A42" s="46"/>
-      <c r="B42" s="77"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="18"/>
     </row>
     <row r="43" spans="1:3" ht="12.75">
       <c r="A43" s="46"/>
-      <c r="B43" s="77"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="18"/>
     </row>
     <row r="44" spans="1:3" ht="12.75">
       <c r="A44" s="46"/>
-      <c r="B44" s="77"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:3" ht="12.75">
       <c r="A45" s="46"/>
-      <c r="B45" s="77"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:3" ht="12.75">
       <c r="A46" s="46"/>
-      <c r="B46" s="77"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="18"/>
     </row>
     <row r="47" spans="1:3" ht="12.75">
       <c r="A47" s="46"/>
-      <c r="B47" s="77"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="18"/>
     </row>
     <row r="48" spans="1:3" ht="12.75">
       <c r="A48" s="46"/>
-      <c r="B48" s="77"/>
+      <c r="B48" s="75"/>
       <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3" ht="12.75">
       <c r="A49" s="46"/>
-      <c r="B49" s="77"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3" ht="12.75">
       <c r="A50" s="46"/>
-      <c r="B50" s="77"/>
+      <c r="B50" s="75"/>
       <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3" ht="12.75">
       <c r="A51" s="46"/>
-      <c r="B51" s="77"/>
+      <c r="B51" s="75"/>
       <c r="C51" s="18"/>
     </row>
     <row r="52" spans="1:3" ht="12.75">
       <c r="A52" s="46"/>
-      <c r="B52" s="77"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="18"/>
     </row>
     <row r="53" spans="1:3" ht="12.75">
       <c r="A53" s="46"/>
-      <c r="B53" s="77"/>
+      <c r="B53" s="75"/>
       <c r="C53" s="18"/>
     </row>
     <row r="54" spans="1:3" ht="12.75">
       <c r="A54" s="46"/>
-      <c r="B54" s="77"/>
+      <c r="B54" s="75"/>
       <c r="C54" s="18"/>
     </row>
     <row r="55" spans="1:3" ht="12.75">
       <c r="A55" s="46"/>
-      <c r="B55" s="77"/>
+      <c r="B55" s="75"/>
       <c r="C55" s="18"/>
     </row>
     <row r="56" spans="1:3" ht="12.75">
       <c r="A56" s="46"/>
-      <c r="B56" s="77"/>
+      <c r="B56" s="75"/>
       <c r="C56" s="18"/>
     </row>
     <row r="57" spans="1:3" ht="12.75">
       <c r="A57" s="46"/>
-      <c r="B57" s="77"/>
+      <c r="B57" s="75"/>
       <c r="C57" s="18"/>
     </row>
     <row r="58" spans="1:3" ht="12.75">
       <c r="A58" s="46"/>
-      <c r="B58" s="77"/>
+      <c r="B58" s="75"/>
       <c r="C58" s="18"/>
     </row>
     <row r="59" spans="1:3" ht="12.75">
       <c r="A59" s="46"/>
-      <c r="B59" s="77"/>
+      <c r="B59" s="75"/>
       <c r="C59" s="18"/>
     </row>
     <row r="60" spans="1:3" ht="12.75">
       <c r="A60" s="46"/>
-      <c r="B60" s="77"/>
+      <c r="B60" s="75"/>
       <c r="C60" s="18"/>
     </row>
     <row r="61" spans="1:3" ht="12.75">
       <c r="A61" s="46"/>
-      <c r="B61" s="77"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:3" ht="12.75">
       <c r="A62" s="46"/>
-      <c r="B62" s="77"/>
+      <c r="B62" s="75"/>
       <c r="C62" s="18"/>
     </row>
     <row r="63" spans="1:3" ht="12.75">
       <c r="A63" s="46"/>
-      <c r="B63" s="77"/>
+      <c r="B63" s="75"/>
       <c r="C63" s="18"/>
     </row>
     <row r="64" spans="1:3" ht="12.75">
       <c r="A64" s="46"/>
-      <c r="B64" s="77"/>
+      <c r="B64" s="75"/>
       <c r="C64" s="18"/>
     </row>
     <row r="65" spans="1:3" ht="12.75">
       <c r="A65" s="46"/>
-      <c r="B65" s="77"/>
+      <c r="B65" s="75"/>
       <c r="C65" s="18"/>
     </row>
     <row r="66" spans="1:3" ht="12.75">
       <c r="A66" s="46"/>
-      <c r="B66" s="77"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="18"/>
     </row>
     <row r="67" spans="1:3" ht="12.75">
       <c r="A67" s="46"/>
-      <c r="B67" s="77"/>
+      <c r="B67" s="75"/>
       <c r="C67" s="18"/>
     </row>
     <row r="68" spans="1:3" ht="12.75">
       <c r="A68" s="46"/>
-      <c r="B68" s="77"/>
+      <c r="B68" s="75"/>
       <c r="C68" s="18"/>
     </row>
     <row r="69" spans="1:3" ht="12.75">
       <c r="A69" s="46"/>
-      <c r="B69" s="77"/>
+      <c r="B69" s="75"/>
       <c r="C69" s="18"/>
     </row>
     <row r="70" spans="1:3" ht="12.75">
       <c r="A70" s="46"/>
-      <c r="B70" s="77"/>
+      <c r="B70" s="75"/>
       <c r="C70" s="18"/>
     </row>
     <row r="71" spans="1:3" ht="12.75">
       <c r="A71" s="46"/>
-      <c r="B71" s="77"/>
+      <c r="B71" s="75"/>
       <c r="C71" s="18"/>
     </row>
     <row r="72" spans="1:3" ht="12.75">
       <c r="A72" s="46"/>
-      <c r="B72" s="77"/>
+      <c r="B72" s="75"/>
       <c r="C72" s="18"/>
     </row>
     <row r="73" spans="1:3" ht="12.75">
       <c r="A73" s="46"/>
-      <c r="B73" s="77"/>
+      <c r="B73" s="75"/>
       <c r="C73" s="18"/>
     </row>
     <row r="74" spans="1:3" ht="12.75">
       <c r="A74" s="46"/>
-      <c r="B74" s="77"/>
+      <c r="B74" s="75"/>
       <c r="C74" s="18"/>
     </row>
     <row r="75" spans="1:3" ht="12.75">
       <c r="A75" s="46"/>
-      <c r="B75" s="77"/>
+      <c r="B75" s="75"/>
       <c r="C75" s="18"/>
     </row>
     <row r="76" spans="1:3" ht="12.75">
       <c r="A76" s="46"/>
-      <c r="B76" s="77"/>
+      <c r="B76" s="75"/>
       <c r="C76" s="18"/>
     </row>
     <row r="77" spans="1:3" ht="12.75">
       <c r="A77" s="46"/>
-      <c r="B77" s="77"/>
+      <c r="B77" s="75"/>
       <c r="C77" s="18"/>
     </row>
     <row r="78" spans="1:3" ht="12.75">
       <c r="A78" s="46"/>
-      <c r="B78" s="77"/>
+      <c r="B78" s="75"/>
       <c r="C78" s="18"/>
     </row>
     <row r="79" spans="1:3" ht="12.75">
       <c r="A79" s="46"/>
-      <c r="B79" s="77"/>
+      <c r="B79" s="75"/>
       <c r="C79" s="18"/>
     </row>
     <row r="80" spans="1:3" ht="12.75">
       <c r="A80" s="46"/>
-      <c r="B80" s="77"/>
+      <c r="B80" s="75"/>
       <c r="C80" s="18"/>
     </row>
     <row r="81" spans="1:3" ht="12.75">
       <c r="A81" s="46"/>
-      <c r="B81" s="77"/>
+      <c r="B81" s="75"/>
       <c r="C81" s="18"/>
     </row>
     <row r="82" spans="1:3" ht="12.75">
       <c r="A82" s="46"/>
-      <c r="B82" s="77"/>
+      <c r="B82" s="75"/>
       <c r="C82" s="18"/>
     </row>
     <row r="83" spans="1:3" ht="12.75">
       <c r="A83" s="46"/>
-      <c r="B83" s="77"/>
+      <c r="B83" s="75"/>
       <c r="C83" s="18"/>
     </row>
     <row r="84" spans="1:3" ht="12.75">
       <c r="A84" s="46"/>
-      <c r="B84" s="77"/>
+      <c r="B84" s="75"/>
       <c r="C84" s="18"/>
     </row>
     <row r="85" spans="1:3" ht="12.75">
       <c r="A85" s="46"/>
-      <c r="B85" s="77"/>
+      <c r="B85" s="75"/>
       <c r="C85" s="18"/>
     </row>
     <row r="86" spans="1:3" ht="12.75">
       <c r="A86" s="46"/>
-      <c r="B86" s="77"/>
+      <c r="B86" s="75"/>
       <c r="C86" s="18"/>
     </row>
     <row r="87" spans="1:3" ht="12.75">
       <c r="A87" s="46"/>
-      <c r="B87" s="77"/>
+      <c r="B87" s="75"/>
       <c r="C87" s="18"/>
     </row>
     <row r="88" spans="1:3" ht="12.75">
       <c r="A88" s="46"/>
-      <c r="B88" s="77"/>
+      <c r="B88" s="75"/>
       <c r="C88" s="18"/>
     </row>
     <row r="89" spans="1:3" ht="12.75">
       <c r="A89" s="46"/>
-      <c r="B89" s="77"/>
+      <c r="B89" s="75"/>
       <c r="C89" s="18"/>
     </row>
     <row r="90" spans="1:3" ht="12.75">
       <c r="A90" s="46"/>
-      <c r="B90" s="77"/>
+      <c r="B90" s="75"/>
       <c r="C90" s="18"/>
     </row>
     <row r="91" spans="1:3" ht="12.75">
       <c r="A91" s="46"/>
-      <c r="B91" s="77"/>
+      <c r="B91" s="75"/>
       <c r="C91" s="18"/>
     </row>
     <row r="92" spans="1:3" ht="12.75">
       <c r="A92" s="46"/>
-      <c r="B92" s="77"/>
+      <c r="B92" s="75"/>
       <c r="C92" s="18"/>
     </row>
     <row r="93" spans="1:3" ht="12.75">
       <c r="A93" s="46"/>
-      <c r="B93" s="77"/>
+      <c r="B93" s="75"/>
       <c r="C93" s="18"/>
     </row>
     <row r="94" spans="1:3" ht="12.75">
       <c r="A94" s="46"/>
-      <c r="B94" s="77"/>
+      <c r="B94" s="75"/>
       <c r="C94" s="18"/>
     </row>
     <row r="95" spans="1:3" ht="12.75">
       <c r="A95" s="46"/>
-      <c r="B95" s="77"/>
+      <c r="B95" s="75"/>
       <c r="C95" s="18"/>
     </row>
     <row r="96" spans="1:3" ht="12.75">
       <c r="A96" s="46"/>
-      <c r="B96" s="77"/>
+      <c r="B96" s="75"/>
       <c r="C96" s="18"/>
     </row>
     <row r="97" spans="1:3" ht="12.75">
       <c r="A97" s="46"/>
-      <c r="B97" s="77"/>
+      <c r="B97" s="75"/>
       <c r="C97" s="18"/>
     </row>
     <row r="98" spans="1:3" ht="12.75">
       <c r="A98" s="46"/>
-      <c r="B98" s="77"/>
+      <c r="B98" s="75"/>
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3" ht="12.75">
       <c r="A99" s="46"/>
-      <c r="B99" s="77"/>
+      <c r="B99" s="75"/>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3" ht="12.75">
       <c r="A100" s="46"/>
-      <c r="B100" s="77"/>
+      <c r="B100" s="75"/>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3" ht="12.75">
       <c r="A101" s="46"/>
-      <c r="B101" s="77"/>
+      <c r="B101" s="75"/>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3" ht="12.75">
       <c r="A102" s="46"/>
-      <c r="B102" s="77"/>
+      <c r="B102" s="75"/>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3" ht="12.75">
       <c r="A103" s="46"/>
-      <c r="B103" s="77"/>
+      <c r="B103" s="75"/>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3" ht="12.75">
       <c r="A104" s="46"/>
-      <c r="B104" s="77"/>
+      <c r="B104" s="75"/>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3" ht="12.75">
       <c r="A105" s="46"/>
-      <c r="B105" s="77"/>
+      <c r="B105" s="75"/>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3" ht="12.75">
       <c r="A106" s="46"/>
-      <c r="B106" s="77"/>
+      <c r="B106" s="75"/>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3" ht="12.75">
       <c r="A107" s="46"/>
-      <c r="B107" s="77"/>
+      <c r="B107" s="75"/>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3" ht="12.75">
       <c r="A108" s="46"/>
-      <c r="B108" s="77"/>
+      <c r="B108" s="75"/>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3" ht="12.75">
       <c r="A109" s="46"/>
-      <c r="B109" s="77"/>
+      <c r="B109" s="75"/>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3" ht="12.75">
       <c r="A110" s="46"/>
-      <c r="B110" s="77"/>
+      <c r="B110" s="75"/>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3" ht="12.75">
       <c r="A111" s="46"/>
-      <c r="B111" s="77"/>
+      <c r="B111" s="75"/>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3" ht="12.75">
       <c r="A112" s="46"/>
-      <c r="B112" s="77"/>
+      <c r="B112" s="75"/>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3" ht="12.75">
       <c r="A113" s="46"/>
-      <c r="B113" s="77"/>
+      <c r="B113" s="75"/>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3" ht="12.75">
       <c r="A114" s="46"/>
-      <c r="B114" s="77"/>
+      <c r="B114" s="75"/>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3" ht="12.75">
       <c r="A115" s="46"/>
-      <c r="B115" s="77"/>
+      <c r="B115" s="75"/>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3" ht="12.75">
       <c r="A116" s="46"/>
-      <c r="B116" s="77"/>
+      <c r="B116" s="75"/>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3" ht="12.75">
       <c r="A117" s="46"/>
-      <c r="B117" s="77"/>
+      <c r="B117" s="75"/>
       <c r="C117" s="18"/>
     </row>
     <row r="118" spans="1:3" ht="12.75">
       <c r="A118" s="46"/>
-      <c r="B118" s="77"/>
+      <c r="B118" s="75"/>
       <c r="C118" s="18"/>
     </row>
     <row r="119" spans="1:3" ht="12.75">
       <c r="A119" s="46"/>
-      <c r="B119" s="77"/>
+      <c r="B119" s="75"/>
       <c r="C119" s="18"/>
     </row>
     <row r="120" spans="1:3" ht="12.75">
       <c r="A120" s="46"/>
-      <c r="B120" s="77"/>
+      <c r="B120" s="75"/>
       <c r="C120" s="18"/>
     </row>
     <row r="121" spans="1:3" ht="12.75">
       <c r="A121" s="46"/>
-      <c r="B121" s="77"/>
+      <c r="B121" s="75"/>
       <c r="C121" s="18"/>
     </row>
     <row r="122" spans="1:3" ht="12.75">
       <c r="A122" s="46"/>
-      <c r="B122" s="77"/>
+      <c r="B122" s="75"/>
       <c r="C122" s="18"/>
     </row>
     <row r="123" spans="1:3" ht="12.75">
       <c r="A123" s="46"/>
-      <c r="B123" s="77"/>
+      <c r="B123" s="75"/>
       <c r="C123" s="18"/>
     </row>
     <row r="124" spans="1:3" ht="12.75">
       <c r="A124" s="46"/>
-      <c r="B124" s="77"/>
+      <c r="B124" s="75"/>
       <c r="C124" s="18"/>
     </row>
     <row r="125" spans="1:3" ht="12.75">
       <c r="A125" s="46"/>
-      <c r="B125" s="77"/>
+      <c r="B125" s="75"/>
       <c r="C125" s="18"/>
     </row>
     <row r="126" spans="1:3" ht="12.75">
       <c r="A126" s="46"/>
-      <c r="B126" s="77"/>
+      <c r="B126" s="75"/>
       <c r="C126" s="18"/>
     </row>
     <row r="127" spans="1:3" ht="12.75">
       <c r="A127" s="46"/>
-      <c r="B127" s="77"/>
+      <c r="B127" s="75"/>
       <c r="C127" s="18"/>
     </row>
     <row r="128" spans="1:3" ht="12.75">
       <c r="A128" s="46"/>
-      <c r="B128" s="77"/>
+      <c r="B128" s="75"/>
       <c r="C128" s="18"/>
     </row>
     <row r="129" spans="1:3" ht="12.75">
       <c r="A129" s="46"/>
-      <c r="B129" s="77"/>
+      <c r="B129" s="75"/>
       <c r="C129" s="18"/>
     </row>
     <row r="130" spans="1:3" ht="12.75">
       <c r="A130" s="46"/>
-      <c r="B130" s="77"/>
+      <c r="B130" s="75"/>
       <c r="C130" s="18"/>
     </row>
     <row r="131" spans="1:3" ht="12.75">
       <c r="A131" s="46"/>
-      <c r="B131" s="77"/>
+      <c r="B131" s="75"/>
       <c r="C131" s="18"/>
     </row>
     <row r="132" spans="1:3" ht="12.75">
       <c r="A132" s="46"/>
-      <c r="B132" s="77"/>
+      <c r="B132" s="75"/>
       <c r="C132" s="18"/>
     </row>
     <row r="133" spans="1:3" ht="12.75">
       <c r="A133" s="46"/>
-      <c r="B133" s="77"/>
+      <c r="B133" s="75"/>
       <c r="C133" s="18"/>
     </row>
     <row r="134" spans="1:3" ht="12.75">
       <c r="A134" s="46"/>
-      <c r="B134" s="77"/>
+      <c r="B134" s="75"/>
       <c r="C134" s="18"/>
     </row>
     <row r="135" spans="1:3" ht="12.75">
       <c r="A135" s="46"/>
-      <c r="B135" s="77"/>
+      <c r="B135" s="75"/>
       <c r="C135" s="18"/>
     </row>
     <row r="136" spans="1:3" ht="12.75">
       <c r="A136" s="46"/>
-      <c r="B136" s="77"/>
+      <c r="B136" s="75"/>
       <c r="C136" s="18"/>
     </row>
     <row r="137" spans="1:3" ht="12.75">
       <c r="A137" s="46"/>
-      <c r="B137" s="77"/>
+      <c r="B137" s="75"/>
       <c r="C137" s="18"/>
     </row>
     <row r="138" spans="1:3" ht="12.75">
       <c r="A138" s="46"/>
-      <c r="B138" s="77"/>
+      <c r="B138" s="75"/>
       <c r="C138" s="18"/>
     </row>
     <row r="139" spans="1:3" ht="12.75">
       <c r="A139" s="46"/>
-      <c r="B139" s="77"/>
+      <c r="B139" s="75"/>
       <c r="C139" s="18"/>
     </row>
     <row r="140" spans="1:3" ht="12.75">
       <c r="A140" s="46"/>
-      <c r="B140" s="77"/>
+      <c r="B140" s="75"/>
       <c r="C140" s="18"/>
     </row>
     <row r="141" spans="1:3" ht="12.75">
       <c r="A141" s="46"/>
-      <c r="B141" s="77"/>
+      <c r="B141" s="75"/>
       <c r="C141" s="18"/>
     </row>
     <row r="142" spans="1:3" ht="12.75">
       <c r="A142" s="46"/>
-      <c r="B142" s="77"/>
+      <c r="B142" s="75"/>
       <c r="C142" s="18"/>
     </row>
     <row r="143" spans="1:3" ht="12.75">
       <c r="A143" s="46"/>
-      <c r="B143" s="77"/>
+      <c r="B143" s="75"/>
       <c r="C143" s="18"/>
     </row>
     <row r="144" spans="1:3" ht="12.75">
       <c r="A144" s="46"/>
-      <c r="B144" s="77"/>
+      <c r="B144" s="75"/>
       <c r="C144" s="18"/>
     </row>
     <row r="145" spans="1:3" ht="12.75">
       <c r="A145" s="46"/>
-      <c r="B145" s="77"/>
+      <c r="B145" s="75"/>
       <c r="C145" s="18"/>
     </row>
     <row r="146" spans="1:3" ht="12.75">
       <c r="A146" s="46"/>
-      <c r="B146" s="77"/>
+      <c r="B146" s="75"/>
       <c r="C146" s="18"/>
     </row>
     <row r="147" spans="1:3" ht="12.75">
       <c r="A147" s="46"/>
-      <c r="B147" s="77"/>
+      <c r="B147" s="75"/>
       <c r="C147" s="18"/>
     </row>
     <row r="148" spans="1:3" ht="12.75">
       <c r="A148" s="46"/>
-      <c r="B148" s="77"/>
+      <c r="B148" s="75"/>
       <c r="C148" s="18"/>
     </row>
     <row r="149" spans="1:3" ht="12.75">
       <c r="A149" s="46"/>
-      <c r="B149" s="77"/>
+      <c r="B149" s="75"/>
       <c r="C149" s="18"/>
     </row>
     <row r="150" spans="1:3" ht="12.75">
       <c r="A150" s="46"/>
-      <c r="B150" s="77"/>
+      <c r="B150" s="75"/>
       <c r="C150" s="18"/>
     </row>
     <row r="151" spans="1:3" ht="12.75">
       <c r="A151" s="46"/>
-      <c r="B151" s="77"/>
+      <c r="B151" s="75"/>
       <c r="C151" s="18"/>
     </row>
     <row r="152" spans="1:3" ht="12.75">
       <c r="A152" s="46"/>
-      <c r="B152" s="77"/>
+      <c r="B152" s="75"/>
       <c r="C152" s="18"/>
     </row>
     <row r="153" spans="1:3" ht="12.75">
       <c r="A153" s="46"/>
-      <c r="B153" s="77"/>
+      <c r="B153" s="75"/>
       <c r="C153" s="18"/>
     </row>
     <row r="154" spans="1:3" ht="12.75">
       <c r="A154" s="46"/>
-      <c r="B154" s="77"/>
+      <c r="B154" s="75"/>
       <c r="C154" s="18"/>
     </row>
     <row r="155" spans="1:3" ht="12.75">
       <c r="A155" s="46"/>
-      <c r="B155" s="77"/>
+      <c r="B155" s="75"/>
       <c r="C155" s="18"/>
     </row>
     <row r="156" spans="1:3" ht="12.75">
       <c r="A156" s="46"/>
-      <c r="B156" s="77"/>
+      <c r="B156" s="75"/>
       <c r="C156" s="18"/>
     </row>
     <row r="157" spans="1:3" ht="12.75">
       <c r="A157" s="46"/>
-      <c r="B157" s="77"/>
+      <c r="B157" s="75"/>
       <c r="C157" s="18"/>
     </row>
     <row r="158" spans="1:3" ht="12.75">
       <c r="A158" s="46"/>
-      <c r="B158" s="77"/>
+      <c r="B158" s="75"/>
       <c r="C158" s="18"/>
     </row>
     <row r="159" spans="1:3" ht="12.75">
       <c r="A159" s="46"/>
-      <c r="B159" s="77"/>
+      <c r="B159" s="75"/>
       <c r="C159" s="18"/>
     </row>
     <row r="160" spans="1:3" ht="12.75">
       <c r="A160" s="46"/>
-      <c r="B160" s="77"/>
+      <c r="B160" s="75"/>
       <c r="C160" s="18"/>
     </row>
     <row r="161" spans="1:3" ht="12.75">
       <c r="A161" s="46"/>
-      <c r="B161" s="77"/>
+      <c r="B161" s="75"/>
       <c r="C161" s="18"/>
     </row>
     <row r="162" spans="1:3" ht="12.75">
       <c r="A162" s="46"/>
-      <c r="B162" s="77"/>
+      <c r="B162" s="75"/>
       <c r="C162" s="18"/>
     </row>
     <row r="163" spans="1:3" ht="12.75">
       <c r="A163" s="46"/>
-      <c r="B163" s="77"/>
+      <c r="B163" s="75"/>
       <c r="C163" s="18"/>
     </row>
     <row r="164" spans="1:3" ht="12.75">
       <c r="A164" s="46"/>
-      <c r="B164" s="77"/>
+      <c r="B164" s="75"/>
       <c r="C164" s="18"/>
     </row>
     <row r="165" spans="1:3" ht="12.75">
       <c r="A165" s="46"/>
-      <c r="B165" s="77"/>
+      <c r="B165" s="75"/>
       <c r="C165" s="18"/>
     </row>
     <row r="166" spans="1:3" ht="12.75">
       <c r="A166" s="46"/>
-      <c r="B166" s="77"/>
+      <c r="B166" s="75"/>
       <c r="C166" s="18"/>
     </row>
     <row r="167" spans="1:3" ht="12.75">
       <c r="A167" s="46"/>
-      <c r="B167" s="77"/>
+      <c r="B167" s="75"/>
       <c r="C167" s="18"/>
     </row>
     <row r="168" spans="1:3" ht="12.75">
       <c r="A168" s="46"/>
-      <c r="B168" s="77"/>
+      <c r="B168" s="75"/>
       <c r="C168" s="18"/>
     </row>
     <row r="169" spans="1:3" ht="12.75">
       <c r="A169" s="46"/>
-      <c r="B169" s="77"/>
+      <c r="B169" s="75"/>
       <c r="C169" s="18"/>
     </row>
     <row r="170" spans="1:3" ht="12.75">
       <c r="A170" s="46"/>
-      <c r="B170" s="77"/>
+      <c r="B170" s="75"/>
       <c r="C170" s="18"/>
     </row>
     <row r="171" spans="1:3" ht="12.75">
       <c r="A171" s="46"/>
-      <c r="B171" s="77"/>
+      <c r="B171" s="75"/>
       <c r="C171" s="18"/>
     </row>
     <row r="172" spans="1:3" ht="12.75">
       <c r="A172" s="46"/>
-      <c r="B172" s="77"/>
+      <c r="B172" s="75"/>
       <c r="C172" s="18"/>
     </row>
     <row r="173" spans="1:3" ht="12.75">
       <c r="A173" s="46"/>
-      <c r="B173" s="77"/>
+      <c r="B173" s="75"/>
       <c r="C173" s="18"/>
     </row>
     <row r="174" spans="1:3" ht="12.75">
       <c r="A174" s="46"/>
-      <c r="B174" s="77"/>
+      <c r="B174" s="75"/>
       <c r="C174" s="18"/>
     </row>
     <row r="175" spans="1:3" ht="12.75">
       <c r="A175" s="46"/>
-      <c r="B175" s="77"/>
+      <c r="B175" s="75"/>
       <c r="C175" s="18"/>
     </row>
     <row r="176" spans="1:3" ht="12.75">
       <c r="A176" s="46"/>
-      <c r="B176" s="77"/>
+      <c r="B176" s="75"/>
       <c r="C176" s="18"/>
     </row>
     <row r="177" spans="1:3" ht="12.75">
       <c r="A177" s="46"/>
-      <c r="B177" s="77"/>
+      <c r="B177" s="75"/>
       <c r="C177" s="18"/>
     </row>
     <row r="178" spans="1:3" ht="12.75">
       <c r="A178" s="46"/>
-      <c r="B178" s="77"/>
+      <c r="B178" s="75"/>
       <c r="C178" s="18"/>
     </row>
     <row r="179" spans="1:3" ht="12.75">
       <c r="A179" s="46"/>
-      <c r="B179" s="77"/>
+      <c r="B179" s="75"/>
       <c r="C179" s="18"/>
     </row>
     <row r="180" spans="1:3" ht="12.75">
       <c r="A180" s="46"/>
-      <c r="B180" s="77"/>
+      <c r="B180" s="75"/>
       <c r="C180" s="18"/>
     </row>
     <row r="181" spans="1:3" ht="12.75">
       <c r="A181" s="46"/>
-      <c r="B181" s="77"/>
+      <c r="B181" s="75"/>
       <c r="C181" s="18"/>
     </row>
     <row r="182" spans="1:3" ht="12.75">
       <c r="A182" s="46"/>
-      <c r="B182" s="77"/>
+      <c r="B182" s="75"/>
       <c r="C182" s="18"/>
     </row>
     <row r="183" spans="1:3" ht="12.75">
       <c r="A183" s="46"/>
-      <c r="B183" s="77"/>
+      <c r="B183" s="75"/>
       <c r="C183" s="18"/>
     </row>
     <row r="184" spans="1:3" ht="12.75">
       <c r="A184" s="46"/>
-      <c r="B184" s="77"/>
+      <c r="B184" s="75"/>
       <c r="C184" s="18"/>
     </row>
     <row r="185" spans="1:3" ht="12.75">
       <c r="A185" s="46"/>
-      <c r="B185" s="77"/>
+      <c r="B185" s="75"/>
       <c r="C185" s="18"/>
     </row>
     <row r="186" spans="1:3" ht="12.75">
       <c r="A186" s="46"/>
-      <c r="B186" s="77"/>
+      <c r="B186" s="75"/>
       <c r="C186" s="18"/>
     </row>
     <row r="187" spans="1:3" ht="12.75">
       <c r="A187" s="46"/>
-      <c r="B187" s="77"/>
+      <c r="B187" s="75"/>
       <c r="C187" s="18"/>
     </row>
     <row r="188" spans="1:3" ht="12.75">
       <c r="A188" s="46"/>
-      <c r="B188" s="77"/>
+      <c r="B188" s="75"/>
       <c r="C188" s="18"/>
     </row>
     <row r="189" spans="1:3" ht="12.75">
       <c r="A189" s="46"/>
-      <c r="B189" s="77"/>
+      <c r="B189" s="75"/>
       <c r="C189" s="18"/>
     </row>
     <row r="190" spans="1:3" ht="12.75">
       <c r="A190" s="46"/>
-      <c r="B190" s="77"/>
+      <c r="B190" s="75"/>
       <c r="C190" s="18"/>
     </row>
     <row r="191" spans="1:3" ht="12.75">
       <c r="A191" s="46"/>
-      <c r="B191" s="77"/>
+      <c r="B191" s="75"/>
       <c r="C191" s="18"/>
     </row>
     <row r="192" spans="1:3" ht="12.75">
       <c r="A192" s="46"/>
-      <c r="B192" s="77"/>
+      <c r="B192" s="75"/>
       <c r="C192" s="18"/>
     </row>
     <row r="193" spans="1:3" ht="12.75">
       <c r="A193" s="46"/>
-      <c r="B193" s="77"/>
+      <c r="B193" s="75"/>
       <c r="C193" s="18"/>
     </row>
     <row r="194" spans="1:3" ht="12.75">
       <c r="A194" s="46"/>
-      <c r="B194" s="77"/>
+      <c r="B194" s="75"/>
       <c r="C194" s="18"/>
     </row>
     <row r="195" spans="1:3" ht="12.75">
       <c r="A195" s="46"/>
-      <c r="B195" s="77"/>
+      <c r="B195" s="75"/>
       <c r="C195" s="18"/>
     </row>
     <row r="196" spans="1:3" ht="12.75">
       <c r="A196" s="46"/>
-      <c r="B196" s="77"/>
+      <c r="B196" s="75"/>
       <c r="C196" s="18"/>
     </row>
     <row r="197" spans="1:3" ht="12.75">
       <c r="A197" s="46"/>
-      <c r="B197" s="77"/>
+      <c r="B197" s="75"/>
       <c r="C197" s="18"/>
     </row>
     <row r="198" spans="1:3" ht="12.75">
       <c r="A198" s="46"/>
-      <c r="B198" s="77"/>
+      <c r="B198" s="75"/>
       <c r="C198" s="18"/>
     </row>
     <row r="199" spans="1:3" ht="12.75">
       <c r="A199" s="46"/>
-      <c r="B199" s="77"/>
+      <c r="B199" s="75"/>
       <c r="C199" s="18"/>
     </row>
     <row r="200" spans="1:3" ht="12.75">
       <c r="A200" s="46"/>
-      <c r="B200" s="77"/>
+      <c r="B200" s="75"/>
       <c r="C200" s="18"/>
     </row>
     <row r="201" spans="1:3" ht="12.75">
       <c r="A201" s="46"/>
-      <c r="B201" s="77"/>
+      <c r="B201" s="75"/>
       <c r="C201" s="18"/>
     </row>
     <row r="202" spans="1:3" ht="12.75">
       <c r="A202" s="46"/>
-      <c r="B202" s="77"/>
+      <c r="B202" s="75"/>
       <c r="C202" s="18"/>
     </row>
     <row r="203" spans="1:3" ht="12.75">
       <c r="A203" s="46"/>
-      <c r="B203" s="77"/>
+      <c r="B203" s="75"/>
       <c r="C203" s="18"/>
     </row>
     <row r="204" spans="1:3" ht="12.75">
       <c r="A204" s="46"/>
-      <c r="B204" s="77"/>
+      <c r="B204" s="75"/>
       <c r="C204" s="18"/>
     </row>
     <row r="205" spans="1:3" ht="12.75">
       <c r="A205" s="46"/>
-      <c r="B205" s="77"/>
+      <c r="B205" s="75"/>
       <c r="C205" s="18"/>
     </row>
     <row r="206" spans="1:3" ht="12.75">
       <c r="A206" s="46"/>
-      <c r="B206" s="77"/>
+      <c r="B206" s="75"/>
       <c r="C206" s="18"/>
     </row>
     <row r="207" spans="1:3" ht="12.75">
       <c r="A207" s="46"/>
-      <c r="B207" s="77"/>
+      <c r="B207" s="75"/>
       <c r="C207" s="18"/>
     </row>
     <row r="208" spans="1:3" ht="12.75">
       <c r="A208" s="46"/>
-      <c r="B208" s="77"/>
+      <c r="B208" s="75"/>
       <c r="C208" s="18"/>
     </row>
     <row r="209" spans="1:3" ht="12.75">
       <c r="A209" s="46"/>
-      <c r="B209" s="77"/>
+      <c r="B209" s="75"/>
       <c r="C209" s="18"/>
     </row>
     <row r="210" spans="1:3" ht="12.75">
       <c r="A210" s="46"/>
-      <c r="B210" s="77"/>
+      <c r="B210" s="75"/>
       <c r="C210" s="18"/>
     </row>
     <row r="211" spans="1:3" ht="12.75">
       <c r="A211" s="46"/>
-      <c r="B211" s="77"/>
+      <c r="B211" s="75"/>
       <c r="C211" s="18"/>
     </row>
     <row r="212" spans="1:3" ht="12.75">
       <c r="A212" s="46"/>
-      <c r="B212" s="77"/>
+      <c r="B212" s="75"/>
       <c r="C212" s="18"/>
     </row>
     <row r="213" spans="1:3" ht="12.75">
       <c r="A213" s="46"/>
-      <c r="B213" s="77"/>
+      <c r="B213" s="75"/>
       <c r="C213" s="18"/>
     </row>
     <row r="214" spans="1:3" ht="12.75">
       <c r="A214" s="46"/>
-      <c r="B214" s="77"/>
+      <c r="B214" s="75"/>
       <c r="C214" s="18"/>
     </row>
     <row r="215" spans="1:3" ht="12.75">
       <c r="A215" s="46"/>
-      <c r="B215" s="77"/>
+      <c r="B215" s="75"/>
       <c r="C215" s="18"/>
     </row>
     <row r="216" spans="1:3" ht="12.75">
       <c r="A216" s="46"/>
-      <c r="B216" s="77"/>
+      <c r="B216" s="75"/>
       <c r="C216" s="18"/>
     </row>
     <row r="217" spans="1:3" ht="12.75">
       <c r="A217" s="46"/>
-      <c r="B217" s="77"/>
+      <c r="B217" s="75"/>
       <c r="C217" s="18"/>
     </row>
     <row r="218" spans="1:3" ht="12.75">
       <c r="A218" s="46"/>
-      <c r="B218" s="77"/>
+      <c r="B218" s="75"/>
       <c r="C218" s="18"/>
     </row>
     <row r="219" spans="1:3" ht="12.75">
       <c r="A219" s="46"/>
-      <c r="B219" s="77"/>
+      <c r="B219" s="75"/>
       <c r="C219" s="18"/>
     </row>
     <row r="220" spans="1:3" ht="12.75">
       <c r="A220" s="46"/>
-      <c r="B220" s="77"/>
+      <c r="B220" s="75"/>
       <c r="C220" s="18"/>
     </row>
     <row r="221" spans="1:3" ht="12.75">
       <c r="A221" s="46"/>
-      <c r="B221" s="77"/>
+      <c r="B221" s="75"/>
       <c r="C221" s="18"/>
     </row>
     <row r="222" spans="1:3" ht="12.75">
       <c r="A222" s="46"/>
-      <c r="B222" s="77"/>
+      <c r="B222" s="75"/>
       <c r="C222" s="18"/>
     </row>
     <row r="223" spans="1:3" ht="12.75">
       <c r="A223" s="46"/>
-      <c r="B223" s="77"/>
+      <c r="B223" s="75"/>
       <c r="C223" s="18"/>
     </row>
     <row r="224" spans="1:3" ht="12.75">
       <c r="A224" s="46"/>
-      <c r="B224" s="77"/>
+      <c r="B224" s="75"/>
       <c r="C224" s="18"/>
     </row>
     <row r="225" spans="1:3" ht="12.75">
       <c r="A225" s="46"/>
-      <c r="B225" s="77"/>
+      <c r="B225" s="75"/>
       <c r="C225" s="18"/>
     </row>
     <row r="226" spans="1:3" ht="12.75">
       <c r="A226" s="46"/>
-      <c r="B226" s="77"/>
+      <c r="B226" s="75"/>
       <c r="C226" s="18"/>
     </row>
     <row r="227" spans="1:3" ht="12.75">
       <c r="A227" s="46"/>
-      <c r="B227" s="77"/>
+      <c r="B227" s="75"/>
       <c r="C227" s="18"/>
     </row>
     <row r="228" spans="1:3" ht="12.75">
       <c r="A228" s="46"/>
-      <c r="B228" s="77"/>
+      <c r="B228" s="75"/>
       <c r="C228" s="18"/>
     </row>
     <row r="229" spans="1:3" ht="12.75">
       <c r="A229" s="46"/>
-      <c r="B229" s="77"/>
+      <c r="B229" s="75"/>
       <c r="C229" s="18"/>
     </row>
     <row r="230" spans="1:3" ht="12.75">
       <c r="A230" s="46"/>
-      <c r="B230" s="77"/>
+      <c r="B230" s="75"/>
       <c r="C230" s="18"/>
     </row>
     <row r="231" spans="1:3" ht="12.75">
       <c r="A231" s="46"/>
-      <c r="B231" s="77"/>
+      <c r="B231" s="75"/>
       <c r="C231" s="18"/>
     </row>
     <row r="232" spans="1:3" ht="12.75">
       <c r="A232" s="46"/>
-      <c r="B232" s="77"/>
+      <c r="B232" s="75"/>
       <c r="C232" s="18"/>
     </row>
     <row r="233" spans="1:3" ht="12.75">
       <c r="A233" s="46"/>
-      <c r="B233" s="77"/>
+      <c r="B233" s="75"/>
       <c r="C233" s="18"/>
     </row>
     <row r="234" spans="1:3" ht="12.75">
       <c r="A234" s="46"/>
-      <c r="B234" s="77"/>
+      <c r="B234" s="75"/>
       <c r="C234" s="18"/>
     </row>
     <row r="235" spans="1:3" ht="12.75">
       <c r="A235" s="46"/>
-      <c r="B235" s="77"/>
+      <c r="B235" s="75"/>
       <c r="C235" s="18"/>
     </row>
     <row r="236" spans="1:3" ht="12.75">
       <c r="A236" s="46"/>
-      <c r="B236" s="77"/>
+      <c r="B236" s="75"/>
       <c r="C236" s="18"/>
     </row>
     <row r="237" spans="1:3" ht="12.75">
       <c r="A237" s="46"/>
-      <c r="B237" s="77"/>
+      <c r="B237" s="75"/>
       <c r="C237" s="18"/>
     </row>
     <row r="238" spans="1:3" ht="12.75">
       <c r="A238" s="46"/>
-      <c r="B238" s="77"/>
+      <c r="B238" s="75"/>
       <c r="C238" s="18"/>
     </row>
     <row r="239" spans="1:3" ht="12.75">
       <c r="A239" s="46"/>
-      <c r="B239" s="77"/>
+      <c r="B239" s="75"/>
       <c r="C239" s="18"/>
     </row>
     <row r="240" spans="1:3" ht="12.75">
       <c r="A240" s="46"/>
-      <c r="B240" s="77"/>
+      <c r="B240" s="75"/>
       <c r="C240" s="18"/>
     </row>
     <row r="241" spans="1:3" ht="12.75">
       <c r="A241" s="46"/>
-      <c r="B241" s="77"/>
+      <c r="B241" s="75"/>
       <c r="C241" s="18"/>
     </row>
     <row r="242" spans="1:3" ht="12.75">
       <c r="A242" s="46"/>
-      <c r="B242" s="77"/>
+      <c r="B242" s="75"/>
       <c r="C242" s="18"/>
     </row>
     <row r="243" spans="1:3" ht="12.75">
       <c r="A243" s="46"/>
-      <c r="B243" s="77"/>
+      <c r="B243" s="75"/>
       <c r="C243" s="18"/>
     </row>
     <row r="244" spans="1:3" ht="12.75">
       <c r="A244" s="46"/>
-      <c r="B244" s="77"/>
+      <c r="B244" s="75"/>
       <c r="C244" s="18"/>
     </row>
     <row r="245" spans="1:3" ht="12.75">
       <c r="A245" s="46"/>
-      <c r="B245" s="77"/>
+      <c r="B245" s="75"/>
       <c r="C245" s="18"/>
     </row>
     <row r="246" spans="1:3" ht="12.75">
       <c r="A246" s="46"/>
-      <c r="B246" s="77"/>
+      <c r="B246" s="75"/>
       <c r="C246" s="18"/>
     </row>
     <row r="247" spans="1:3" ht="12.75">
       <c r="A247" s="46"/>
-      <c r="B247" s="77"/>
+      <c r="B247" s="75"/>
       <c r="C247" s="18"/>
     </row>
     <row r="248" spans="1:3" ht="12.75">
       <c r="A248" s="46"/>
-      <c r="B248" s="77"/>
+      <c r="B248" s="75"/>
       <c r="C248" s="18"/>
     </row>
     <row r="249" spans="1:3" ht="12.75">
       <c r="A249" s="46"/>
-      <c r="B249" s="77"/>
+      <c r="B249" s="75"/>
       <c r="C249" s="18"/>
     </row>
     <row r="250" spans="1:3" ht="12.75">
       <c r="A250" s="46"/>
-      <c r="B250" s="77"/>
+      <c r="B250" s="75"/>
       <c r="C250" s="18"/>
     </row>
     <row r="251" spans="1:3" ht="12.75">
       <c r="A251" s="46"/>
-      <c r="B251" s="77"/>
+      <c r="B251" s="75"/>
       <c r="C251" s="18"/>
     </row>
     <row r="252" spans="1:3" ht="12.75">
       <c r="A252" s="46"/>
-      <c r="B252" s="77"/>
+      <c r="B252" s="75"/>
       <c r="C252" s="18"/>
     </row>
     <row r="253" spans="1:3" ht="12.75">
       <c r="A253" s="46"/>
-      <c r="B253" s="77"/>
+      <c r="B253" s="75"/>
       <c r="C253" s="18"/>
     </row>
     <row r="254" spans="1:3" ht="12.75">
       <c r="A254" s="46"/>
-      <c r="B254" s="77"/>
+      <c r="B254" s="75"/>
       <c r="C254" s="18"/>
     </row>
     <row r="255" spans="1:3" ht="12.75">
       <c r="A255" s="46"/>
-      <c r="B255" s="77"/>
+      <c r="B255" s="75"/>
       <c r="C255" s="18"/>
     </row>
     <row r="256" spans="1:3" ht="12.75">
       <c r="A256" s="46"/>
-      <c r="B256" s="77"/>
+      <c r="B256" s="75"/>
       <c r="C256" s="18"/>
     </row>
     <row r="257" spans="1:3" ht="12.75">
       <c r="A257" s="46"/>
-      <c r="B257" s="77"/>
+      <c r="B257" s="75"/>
       <c r="C257" s="18"/>
     </row>
     <row r="258" spans="1:3" ht="12.75">
       <c r="A258" s="46"/>
-      <c r="B258" s="77"/>
+      <c r="B258" s="75"/>
       <c r="C258" s="18"/>
     </row>
     <row r="259" spans="1:3" ht="12.75">
       <c r="A259" s="46"/>
-      <c r="B259" s="77"/>
+      <c r="B259" s="75"/>
       <c r="C259" s="18"/>
     </row>
     <row r="260" spans="1:3" ht="12.75">
       <c r="A260" s="46"/>
-      <c r="B260" s="77"/>
+      <c r="B260" s="75"/>
       <c r="C260" s="18"/>
     </row>
     <row r="261" spans="1:3" ht="12.75">
       <c r="A261" s="46"/>
-      <c r="B261" s="77"/>
+      <c r="B261" s="75"/>
       <c r="C261" s="18"/>
     </row>
     <row r="262" spans="1:3" ht="12.75">
       <c r="A262" s="46"/>
-      <c r="B262" s="77"/>
+      <c r="B262" s="75"/>
       <c r="C262" s="18"/>
     </row>
     <row r="263" spans="1:3" ht="12.75">
       <c r="A263" s="46"/>
-      <c r="B263" s="77"/>
+      <c r="B263" s="75"/>
       <c r="C263" s="18"/>
     </row>
     <row r="264" spans="1:3" ht="12.75">
       <c r="A264" s="46"/>
-      <c r="B264" s="77"/>
+      <c r="B264" s="75"/>
       <c r="C264" s="18"/>
     </row>
     <row r="265" spans="1:3" ht="12.75">
       <c r="A265" s="46"/>
-      <c r="B265" s="77"/>
+      <c r="B265" s="75"/>
       <c r="C265" s="18"/>
     </row>
     <row r="266" spans="1:3" ht="12.75">
       <c r="A266" s="46"/>
-      <c r="B266" s="77"/>
+      <c r="B266" s="75"/>
       <c r="C266" s="18"/>
     </row>
     <row r="267" spans="1:3" ht="12.75">
       <c r="A267" s="46"/>
-      <c r="B267" s="77"/>
+      <c r="B267" s="75"/>
       <c r="C267" s="18"/>
     </row>
     <row r="268" spans="1:3" ht="12.75">
       <c r="A268" s="46"/>
-      <c r="B268" s="77"/>
+      <c r="B268" s="75"/>
       <c r="C268" s="18"/>
     </row>
     <row r="269" spans="1:3" ht="12.75">
       <c r="A269" s="46"/>
-      <c r="B269" s="77"/>
+      <c r="B269" s="75"/>
       <c r="C269" s="18"/>
     </row>
     <row r="270" spans="1:3" ht="12.75">
       <c r="A270" s="46"/>
-      <c r="B270" s="77"/>
+      <c r="B270" s="75"/>
       <c r="C270" s="18"/>
     </row>
     <row r="271" spans="1:3" ht="12.75">
       <c r="A271" s="46"/>
-      <c r="B271" s="77"/>
+      <c r="B271" s="75"/>
       <c r="C271" s="18"/>
     </row>
     <row r="272" spans="1:3" ht="12.75">
       <c r="A272" s="46"/>
-      <c r="B272" s="77"/>
+      <c r="B272" s="75"/>
       <c r="C272" s="18"/>
     </row>
     <row r="273" spans="1:3" ht="12.75">
       <c r="A273" s="46"/>
-      <c r="B273" s="77"/>
+      <c r="B273" s="75"/>
       <c r="C273" s="18"/>
     </row>
     <row r="274" spans="1:3" ht="12.75">
       <c r="A274" s="46"/>
-      <c r="B274" s="77"/>
+      <c r="B274" s="75"/>
       <c r="C274" s="18"/>
     </row>
     <row r="275" spans="1:3" ht="12.75">
       <c r="A275" s="46"/>
-      <c r="B275" s="77"/>
+      <c r="B275" s="75"/>
       <c r="C275" s="18"/>
     </row>
     <row r="276" spans="1:3" ht="12.75">
       <c r="A276" s="46"/>
-      <c r="B276" s="77"/>
+      <c r="B276" s="75"/>
       <c r="C276" s="18"/>
     </row>
     <row r="277" spans="1:3" ht="12.75">
       <c r="A277" s="46"/>
-      <c r="B277" s="77"/>
+      <c r="B277" s="75"/>
       <c r="C277" s="18"/>
     </row>
     <row r="278" spans="1:3" ht="12.75">
       <c r="A278" s="46"/>
-      <c r="B278" s="77"/>
+      <c r="B278" s="75"/>
       <c r="C278" s="18"/>
     </row>
     <row r="279" spans="1:3" ht="12.75">
       <c r="A279" s="46"/>
-      <c r="B279" s="77"/>
+      <c r="B279" s="75"/>
       <c r="C279" s="18"/>
     </row>
     <row r="280" spans="1:3" ht="12.75">
       <c r="A280" s="46"/>
-      <c r="B280" s="77"/>
+      <c r="B280" s="75"/>
       <c r="C280" s="18"/>
     </row>
     <row r="281" spans="1:3" ht="12.75">
       <c r="A281" s="46"/>
-      <c r="B281" s="77"/>
+      <c r="B281" s="75"/>
       <c r="C281" s="18"/>
     </row>
     <row r="282" spans="1:3" ht="12.75">
       <c r="A282" s="46"/>
-      <c r="B282" s="77"/>
+      <c r="B282" s="75"/>
       <c r="C282" s="18"/>
     </row>
     <row r="283" spans="1:3" ht="12.75">
       <c r="A283" s="46"/>
-      <c r="B283" s="77"/>
+      <c r="B283" s="75"/>
       <c r="C283" s="18"/>
     </row>
     <row r="284" spans="1:3" ht="12.75">
       <c r="A284" s="46"/>
-      <c r="B284" s="77"/>
+      <c r="B284" s="75"/>
       <c r="C284" s="18"/>
     </row>
     <row r="285" spans="1:3" ht="12.75">
       <c r="A285" s="46"/>
-      <c r="B285" s="77"/>
+      <c r="B285" s="75"/>
       <c r="C285" s="18"/>
     </row>
     <row r="286" spans="1:3" ht="12.75">
       <c r="A286" s="46"/>
-      <c r="B286" s="77"/>
+      <c r="B286" s="75"/>
       <c r="C286" s="18"/>
     </row>
     <row r="287" spans="1:3" ht="12.75">
       <c r="A287" s="46"/>
-      <c r="B287" s="77"/>
+      <c r="B287" s="75"/>
       <c r="C287" s="18"/>
     </row>
     <row r="288" spans="1:3" ht="12.75">
       <c r="A288" s="46"/>
-      <c r="B288" s="77"/>
+      <c r="B288" s="75"/>
       <c r="C288" s="18"/>
     </row>
     <row r="289" spans="1:3" ht="12.75">
       <c r="A289" s="46"/>
-      <c r="B289" s="77"/>
+      <c r="B289" s="75"/>
       <c r="C289" s="18"/>
     </row>
     <row r="290" spans="1:3" ht="12.75">
       <c r="A290" s="46"/>
-      <c r="B290" s="77"/>
+      <c r="B290" s="75"/>
       <c r="C290" s="18"/>
     </row>
     <row r="291" spans="1:3" ht="12.75">
       <c r="A291" s="46"/>
-      <c r="B291" s="77"/>
+      <c r="B291" s="75"/>
       <c r="C291" s="18"/>
     </row>
     <row r="292" spans="1:3" ht="12.75">
       <c r="A292" s="46"/>
-      <c r="B292" s="77"/>
+      <c r="B292" s="75"/>
       <c r="C292" s="18"/>
     </row>
     <row r="293" spans="1:3" ht="12.75">
       <c r="A293" s="46"/>
-      <c r="B293" s="77"/>
+      <c r="B293" s="75"/>
       <c r="C293" s="18"/>
     </row>
     <row r="294" spans="1:3" ht="12.75">
       <c r="A294" s="46"/>
-      <c r="B294" s="77"/>
+      <c r="B294" s="75"/>
       <c r="C294" s="18"/>
     </row>
     <row r="295" spans="1:3" ht="12.75">
       <c r="A295" s="46"/>
-      <c r="B295" s="77"/>
+      <c r="B295" s="75"/>
       <c r="C295" s="18"/>
     </row>
     <row r="296" spans="1:3" ht="12.75">
       <c r="A296" s="46"/>
-      <c r="B296" s="77"/>
+      <c r="B296" s="75"/>
       <c r="C296" s="18"/>
     </row>
     <row r="297" spans="1:3" ht="12.75">
       <c r="A297" s="46"/>
-      <c r="B297" s="77"/>
+      <c r="B297" s="75"/>
       <c r="C297" s="18"/>
     </row>
     <row r="298" spans="1:3" ht="12.75">
       <c r="A298" s="46"/>
-      <c r="B298" s="77"/>
+      <c r="B298" s="75"/>
       <c r="C298" s="18"/>
     </row>
     <row r="299" spans="1:3" ht="12.75">
       <c r="A299" s="46"/>
-      <c r="B299" s="77"/>
+      <c r="B299" s="75"/>
       <c r="C299" s="18"/>
     </row>
     <row r="300" spans="1:3" ht="12.75">
       <c r="A300" s="46"/>
-      <c r="B300" s="77"/>
+      <c r="B300" s="75"/>
       <c r="C300" s="18"/>
     </row>
     <row r="301" spans="1:3" ht="12.75">
       <c r="A301" s="46"/>
-      <c r="B301" s="77"/>
+      <c r="B301" s="75"/>
       <c r="C301" s="18"/>
     </row>
     <row r="302" spans="1:3" ht="12.75">
       <c r="A302" s="46"/>
-      <c r="B302" s="77"/>
+      <c r="B302" s="75"/>
       <c r="C302" s="18"/>
     </row>
     <row r="303" spans="1:3" ht="12.75">
       <c r="A303" s="46"/>
-      <c r="B303" s="77"/>
+      <c r="B303" s="75"/>
       <c r="C303" s="18"/>
     </row>
     <row r="304" spans="1:3" ht="12.75">
       <c r="A304" s="46"/>
-      <c r="B304" s="77"/>
+      <c r="B304" s="75"/>
       <c r="C304" s="18"/>
     </row>
     <row r="305" spans="1:3" ht="12.75">
       <c r="A305" s="46"/>
-      <c r="B305" s="77"/>
+      <c r="B305" s="75"/>
       <c r="C305" s="18"/>
     </row>
     <row r="306" spans="1:3" ht="12.75">
       <c r="A306" s="46"/>
-      <c r="B306" s="77"/>
+      <c r="B306" s="75"/>
       <c r="C306" s="18"/>
     </row>
     <row r="307" spans="1:3" ht="12.75">
       <c r="A307" s="46"/>
-      <c r="B307" s="77"/>
+      <c r="B307" s="75"/>
       <c r="C307" s="18"/>
     </row>
     <row r="308" spans="1:3" ht="12.75">
       <c r="A308" s="46"/>
-      <c r="B308" s="77"/>
+      <c r="B308" s="75"/>
       <c r="C308" s="18"/>
     </row>
     <row r="309" spans="1:3" ht="12.75">
       <c r="A309" s="46"/>
-      <c r="B309" s="77"/>
+      <c r="B309" s="75"/>
       <c r="C309" s="18"/>
     </row>
     <row r="310" spans="1:3" ht="12.75">
       <c r="A310" s="46"/>
-      <c r="B310" s="77"/>
+      <c r="B310" s="75"/>
       <c r="C310" s="18"/>
     </row>
     <row r="311" spans="1:3" ht="12.75">
       <c r="A311" s="46"/>
-      <c r="B311" s="77"/>
+      <c r="B311" s="75"/>
       <c r="C311" s="18"/>
     </row>
     <row r="312" spans="1:3" ht="12.75">
       <c r="A312" s="46"/>
-      <c r="B312" s="77"/>
+      <c r="B312" s="75"/>
       <c r="C312" s="18"/>
     </row>
     <row r="313" spans="1:3" ht="12.75">
       <c r="A313" s="46"/>
-      <c r="B313" s="77"/>
+      <c r="B313" s="75"/>
       <c r="C313" s="18"/>
     </row>
     <row r="314" spans="1:3" ht="12.75">
       <c r="A314" s="46"/>
-      <c r="B314" s="77"/>
+      <c r="B314" s="75"/>
       <c r="C314" s="18"/>
     </row>
     <row r="315" spans="1:3" ht="12.75">
       <c r="A315" s="46"/>
-      <c r="B315" s="77"/>
+      <c r="B315" s="75"/>
       <c r="C315" s="18"/>
     </row>
     <row r="316" spans="1:3" ht="12.75">
       <c r="A316" s="46"/>
-      <c r="B316" s="77"/>
+      <c r="B316" s="75"/>
       <c r="C316" s="18"/>
     </row>
     <row r="317" spans="1:3" ht="12.75">
       <c r="A317" s="46"/>
-      <c r="B317" s="77"/>
+      <c r="B317" s="75"/>
       <c r="C317" s="18"/>
     </row>
     <row r="318" spans="1:3" ht="12.75">
       <c r="A318" s="46"/>
-      <c r="B318" s="77"/>
+      <c r="B318" s="75"/>
       <c r="C318" s="18"/>
     </row>
     <row r="319" spans="1:3" ht="12.75">
       <c r="A319" s="46"/>
-      <c r="B319" s="77"/>
+      <c r="B319" s="75"/>
       <c r="C319" s="18"/>
     </row>
     <row r="320" spans="1:3" ht="12.75">
       <c r="A320" s="46"/>
-      <c r="B320" s="77"/>
+      <c r="B320" s="75"/>
       <c r="C320" s="18"/>
     </row>
     <row r="321" spans="1:3" ht="12.75">
       <c r="A321" s="46"/>
-      <c r="B321" s="77"/>
+      <c r="B321" s="75"/>
       <c r="C321" s="18"/>
     </row>
     <row r="322" spans="1:3" ht="12.75">
       <c r="A322" s="46"/>
-      <c r="B322" s="77"/>
+      <c r="B322" s="75"/>
       <c r="C322" s="18"/>
     </row>
     <row r="323" spans="1:3" ht="12.75">
       <c r="A323" s="46"/>
-      <c r="B323" s="77"/>
+      <c r="B323" s="75"/>
       <c r="C323" s="18"/>
     </row>
     <row r="324" spans="1:3" ht="12.75">
       <c r="A324" s="46"/>
-      <c r="B324" s="77"/>
+      <c r="B324" s="75"/>
       <c r="C324" s="18"/>
     </row>
     <row r="325" spans="1:3" ht="12.75">
       <c r="A325" s="46"/>
-      <c r="B325" s="77"/>
+      <c r="B325" s="75"/>
       <c r="C325" s="18"/>
     </row>
     <row r="326" spans="1:3" ht="12.75">
       <c r="A326" s="46"/>
-      <c r="B326" s="77"/>
+      <c r="B326" s="75"/>
       <c r="C326" s="18"/>
     </row>
     <row r="327" spans="1:3" ht="12.75">
       <c r="A327" s="46"/>
-      <c r="B327" s="77"/>
+      <c r="B327" s="75"/>
       <c r="C327" s="18"/>
     </row>
     <row r="328" spans="1:3" ht="12.75">
       <c r="A328" s="46"/>
-      <c r="B328" s="77"/>
+      <c r="B328" s="75"/>
       <c r="C328" s="18"/>
     </row>
     <row r="329" spans="1:3" ht="12.75">
       <c r="A329" s="46"/>
-      <c r="B329" s="77"/>
+      <c r="B329" s="75"/>
       <c r="C329" s="18"/>
     </row>
     <row r="330" spans="1:3" ht="12.75">
       <c r="A330" s="46"/>
-      <c r="B330" s="77"/>
+      <c r="B330" s="75"/>
       <c r="C330" s="18"/>
     </row>
     <row r="331" spans="1:3" ht="12.75">
       <c r="A331" s="46"/>
-      <c r="B331" s="77"/>
+      <c r="B331" s="75"/>
       <c r="C331" s="18"/>
     </row>
     <row r="332" spans="1:3" ht="12.75">
       <c r="A332" s="46"/>
-      <c r="B332" s="77"/>
+      <c r="B332" s="75"/>
       <c r="C332" s="18"/>
     </row>
     <row r="333" spans="1:3" ht="12.75">
       <c r="A333" s="46"/>
-      <c r="B333" s="77"/>
+      <c r="B333" s="75"/>
       <c r="C333" s="18"/>
     </row>
     <row r="334" spans="1:3" ht="12.75">
       <c r="A334" s="46"/>
-      <c r="B334" s="77"/>
+      <c r="B334" s="75"/>
       <c r="C334" s="18"/>
     </row>
     <row r="335" spans="1:3" ht="12.75">
       <c r="A335" s="46"/>
-      <c r="B335" s="77"/>
+      <c r="B335" s="75"/>
       <c r="C335" s="18"/>
     </row>
     <row r="336" spans="1:3" ht="12.75">
       <c r="A336" s="46"/>
-      <c r="B336" s="77"/>
+      <c r="B336" s="75"/>
       <c r="C336" s="18"/>
     </row>
     <row r="337" spans="1:3" ht="12.75">
       <c r="A337" s="46"/>
-      <c r="B337" s="77"/>
+      <c r="B337" s="75"/>
       <c r="C337" s="18"/>
     </row>
     <row r="338" spans="1:3" ht="12.75">
       <c r="A338" s="46"/>
-      <c r="B338" s="77"/>
+      <c r="B338" s="75"/>
       <c r="C338" s="18"/>
     </row>
     <row r="339" spans="1:3" ht="12.75">
       <c r="A339" s="46"/>
-      <c r="B339" s="77"/>
+      <c r="B339" s="75"/>
       <c r="C339" s="18"/>
     </row>
     <row r="340" spans="1:3" ht="12.75">
       <c r="A340" s="46"/>
-      <c r="B340" s="77"/>
+      <c r="B340" s="75"/>
       <c r="C340" s="18"/>
     </row>
     <row r="341" spans="1:3" ht="12.75">
       <c r="A341" s="46"/>
-      <c r="B341" s="77"/>
+      <c r="B341" s="75"/>
       <c r="C341" s="18"/>
     </row>
     <row r="342" spans="1:3" ht="12.75">
       <c r="A342" s="46"/>
-      <c r="B342" s="77"/>
+      <c r="B342" s="75"/>
       <c r="C342" s="18"/>
     </row>
     <row r="343" spans="1:3" ht="12.75">
       <c r="A343" s="46"/>
-      <c r="B343" s="77"/>
+      <c r="B343" s="75"/>
       <c r="C343" s="18"/>
     </row>
     <row r="344" spans="1:3" ht="12.75">
       <c r="A344" s="46"/>
-      <c r="B344" s="77"/>
+      <c r="B344" s="75"/>
       <c r="C344" s="18"/>
     </row>
     <row r="345" spans="1:3" ht="12.75">
       <c r="A345" s="46"/>
-      <c r="B345" s="77"/>
+      <c r="B345" s="75"/>
       <c r="C345" s="18"/>
     </row>
     <row r="346" spans="1:3" ht="12.75">
       <c r="A346" s="46"/>
-      <c r="B346" s="77"/>
+      <c r="B346" s="75"/>
       <c r="C346" s="18"/>
     </row>
     <row r="347" spans="1:3" ht="12.75">
       <c r="A347" s="46"/>
-      <c r="B347" s="77"/>
+      <c r="B347" s="75"/>
       <c r="C347" s="18"/>
     </row>
     <row r="348" spans="1:3" ht="12.75">
       <c r="A348" s="46"/>
-      <c r="B348" s="77"/>
+      <c r="B348" s="75"/>
       <c r="C348" s="18"/>
     </row>
     <row r="349" spans="1:3" ht="12.75">
       <c r="A349" s="46"/>
-      <c r="B349" s="77"/>
+      <c r="B349" s="75"/>
       <c r="C349" s="18"/>
     </row>
     <row r="350" spans="1:3" ht="12.75">
       <c r="A350" s="46"/>
-      <c r="B350" s="77"/>
+      <c r="B350" s="75"/>
       <c r="C350" s="18"/>
     </row>
     <row r="351" spans="1:3" ht="12.75">
       <c r="A351" s="46"/>
-      <c r="B351" s="77"/>
+      <c r="B351" s="75"/>
       <c r="C351" s="18"/>
     </row>
     <row r="352" spans="1:3" ht="12.75">
       <c r="A352" s="46"/>
-      <c r="B352" s="77"/>
+      <c r="B352" s="75"/>
       <c r="C352" s="18"/>
     </row>
     <row r="353" spans="1:3" ht="12.75">
       <c r="A353" s="46"/>
-      <c r="B353" s="77"/>
+      <c r="B353" s="75"/>
       <c r="C353" s="18"/>
     </row>
     <row r="354" spans="1:3" ht="12.75">
       <c r="A354" s="46"/>
-      <c r="B354" s="77"/>
+      <c r="B354" s="75"/>
       <c r="C354" s="18"/>
     </row>
     <row r="355" spans="1:3" ht="12.75">
       <c r="A355" s="46"/>
-      <c r="B355" s="77"/>
+      <c r="B355" s="75"/>
       <c r="C355" s="18"/>
     </row>
     <row r="356" spans="1:3" ht="12.75">
       <c r="A356" s="46"/>
-      <c r="B356" s="77"/>
+      <c r="B356" s="75"/>
       <c r="C356" s="18"/>
     </row>
     <row r="357" spans="1:3" ht="12.75">
       <c r="A357" s="46"/>
-      <c r="B357" s="77"/>
+      <c r="B357" s="75"/>
       <c r="C357" s="18"/>
     </row>
     <row r="358" spans="1:3" ht="12.75">
       <c r="A358" s="46"/>
-      <c r="B358" s="77"/>
+      <c r="B358" s="75"/>
       <c r="C358" s="18"/>
     </row>
     <row r="359" spans="1:3" ht="12.75">
       <c r="A359" s="46"/>
-      <c r="B359" s="77"/>
+      <c r="B359" s="75"/>
       <c r="C359" s="18"/>
     </row>
     <row r="360" spans="1:3" ht="12.75">
       <c r="A360" s="46"/>
-      <c r="B360" s="77"/>
+      <c r="B360" s="75"/>
       <c r="C360" s="18"/>
     </row>
     <row r="361" spans="1:3" ht="12.75">
       <c r="A361" s="46"/>
-      <c r="B361" s="77"/>
+      <c r="B361" s="75"/>
       <c r="C361" s="18"/>
     </row>
     <row r="362" spans="1:3" ht="12.75">
       <c r="A362" s="46"/>
-      <c r="B362" s="77"/>
+      <c r="B362" s="75"/>
       <c r="C362" s="18"/>
     </row>
     <row r="363" spans="1:3" ht="12.75">
       <c r="A363" s="46"/>
-      <c r="B363" s="77"/>
+      <c r="B363" s="75"/>
       <c r="C363" s="18"/>
     </row>
     <row r="364" spans="1:3" ht="12.75">
       <c r="A364" s="46"/>
-      <c r="B364" s="77"/>
+      <c r="B364" s="75"/>
       <c r="C364" s="18"/>
     </row>
     <row r="365" spans="1:3" ht="12.75">
       <c r="A365" s="46"/>
-      <c r="B365" s="77"/>
+      <c r="B365" s="75"/>
       <c r="C365" s="18"/>
     </row>
     <row r="366" spans="1:3" ht="12.75">
       <c r="A366" s="46"/>
-      <c r="B366" s="77"/>
+      <c r="B366" s="75"/>
       <c r="C366" s="18"/>
     </row>
     <row r="367" spans="1:3" ht="12.75">
       <c r="A367" s="46"/>
-      <c r="B367" s="77"/>
+      <c r="B367" s="75"/>
       <c r="C367" s="18"/>
     </row>
     <row r="368" spans="1:3" ht="12.75">
       <c r="A368" s="46"/>
-      <c r="B368" s="77"/>
+      <c r="B368" s="75"/>
       <c r="C368" s="18"/>
     </row>
     <row r="369" spans="1:3" ht="12.75">
       <c r="A369" s="46"/>
-      <c r="B369" s="77"/>
+      <c r="B369" s="75"/>
       <c r="C369" s="18"/>
     </row>
     <row r="370" spans="1:3" ht="12.75">
       <c r="A370" s="46"/>
-      <c r="B370" s="77"/>
+      <c r="B370" s="75"/>
       <c r="C370" s="18"/>
     </row>
     <row r="371" spans="1:3" ht="12.75">
       <c r="A371" s="46"/>
-      <c r="B371" s="77"/>
+      <c r="B371" s="75"/>
       <c r="C371" s="18"/>
     </row>
     <row r="372" spans="1:3" ht="12.75">
       <c r="A372" s="46"/>
-      <c r="B372" s="77"/>
+      <c r="B372" s="75"/>
       <c r="C372" s="18"/>
     </row>
     <row r="373" spans="1:3" ht="12.75">
       <c r="A373" s="46"/>
-      <c r="B373" s="77"/>
+      <c r="B373" s="75"/>
       <c r="C373" s="18"/>
     </row>
     <row r="374" spans="1:3" ht="12.75">
       <c r="A374" s="46"/>
-      <c r="B374" s="77"/>
+      <c r="B374" s="75"/>
       <c r="C374" s="18"/>
     </row>
     <row r="375" spans="1:3" ht="12.75">
       <c r="A375" s="46"/>
-      <c r="B375" s="77"/>
+      <c r="B375" s="75"/>
       <c r="C375" s="18"/>
     </row>
     <row r="376" spans="1:3" ht="12.75">
       <c r="A376" s="46"/>
-      <c r="B376" s="77"/>
+      <c r="B376" s="75"/>
       <c r="C376" s="18"/>
     </row>
     <row r="377" spans="1:3" ht="12.75">
       <c r="A377" s="46"/>
-      <c r="B377" s="77"/>
+      <c r="B377" s="75"/>
       <c r="C377" s="18"/>
     </row>
     <row r="378" spans="1:3" ht="12.75">
       <c r="A378" s="46"/>
-      <c r="B378" s="77"/>
+      <c r="B378" s="75"/>
       <c r="C378" s="18"/>
     </row>
     <row r="379" spans="1:3" ht="12.75">
       <c r="A379" s="46"/>
-      <c r="B379" s="77"/>
+      <c r="B379" s="75"/>
       <c r="C379" s="18"/>
     </row>
     <row r="380" spans="1:3" ht="12.75">
       <c r="A380" s="46"/>
-      <c r="B380" s="77"/>
+      <c r="B380" s="75"/>
       <c r="C380" s="18"/>
     </row>
     <row r="381" spans="1:3" ht="12.75">
       <c r="A381" s="46"/>
-      <c r="B381" s="77"/>
+      <c r="B381" s="75"/>
       <c r="C381" s="18"/>
     </row>
     <row r="382" spans="1:3" ht="12.75">
       <c r="A382" s="46"/>
-      <c r="B382" s="77"/>
+      <c r="B382" s="75"/>
       <c r="C382" s="18"/>
     </row>
     <row r="383" spans="1:3" ht="12.75">
       <c r="A383" s="46"/>
-      <c r="B383" s="77"/>
+      <c r="B383" s="75"/>
       <c r="C383" s="18"/>
     </row>
     <row r="384" spans="1:3" ht="12.75">
       <c r="A384" s="46"/>
-      <c r="B384" s="77"/>
+      <c r="B384" s="75"/>
       <c r="C384" s="18"/>
     </row>
     <row r="385" spans="1:3" ht="12.75">
       <c r="A385" s="46"/>
-      <c r="B385" s="77"/>
+      <c r="B385" s="75"/>
       <c r="C385" s="18"/>
     </row>
     <row r="386" spans="1:3" ht="12.75">
       <c r="A386" s="46"/>
-      <c r="B386" s="77"/>
+      <c r="B386" s="75"/>
       <c r="C386" s="18"/>
     </row>
     <row r="387" spans="1:3" ht="12.75">
       <c r="A387" s="46"/>
-      <c r="B387" s="77"/>
+      <c r="B387" s="75"/>
       <c r="C387" s="18"/>
     </row>
     <row r="388" spans="1:3" ht="12.75">
       <c r="A388" s="46"/>
-      <c r="B388" s="77"/>
+      <c r="B388" s="75"/>
       <c r="C388" s="18"/>
     </row>
     <row r="389" spans="1:3" ht="12.75">
       <c r="A389" s="46"/>
-      <c r="B389" s="77"/>
+      <c r="B389" s="75"/>
       <c r="C389" s="18"/>
     </row>
     <row r="390" spans="1:3" ht="12.75">
       <c r="A390" s="46"/>
-      <c r="B390" s="77"/>
+      <c r="B390" s="75"/>
       <c r="C390" s="18"/>
     </row>
     <row r="391" spans="1:3" ht="12.75">
       <c r="A391" s="46"/>
-      <c r="B391" s="77"/>
+      <c r="B391" s="75"/>
       <c r="C391" s="18"/>
     </row>
     <row r="392" spans="1:3" ht="12.75">
       <c r="A392" s="46"/>
-      <c r="B392" s="77"/>
+      <c r="B392" s="75"/>
       <c r="C392" s="18"/>
     </row>
     <row r="393" spans="1:3" ht="12.75">
       <c r="A393" s="46"/>
-      <c r="B393" s="77"/>
+      <c r="B393" s="75"/>
       <c r="C393" s="18"/>
     </row>
     <row r="394" spans="1:3" ht="12.75">
       <c r="A394" s="46"/>
-      <c r="B394" s="77"/>
+      <c r="B394" s="75"/>
       <c r="C394" s="18"/>
     </row>
     <row r="395" spans="1:3" ht="12.75">
       <c r="A395" s="46"/>
-      <c r="B395" s="77"/>
+      <c r="B395" s="75"/>
       <c r="C395" s="18"/>
     </row>
     <row r="396" spans="1:3" ht="12.75">
       <c r="A396" s="46"/>
-      <c r="B396" s="77"/>
+      <c r="B396" s="75"/>
       <c r="C396" s="18"/>
     </row>
     <row r="397" spans="1:3" ht="12.75">
       <c r="A397" s="46"/>
-      <c r="B397" s="77"/>
+      <c r="B397" s="75"/>
       <c r="C397" s="18"/>
     </row>
     <row r="398" spans="1:3" ht="12.75">
       <c r="A398" s="46"/>
-      <c r="B398" s="77"/>
+      <c r="B398" s="75"/>
       <c r="C398" s="18"/>
     </row>
     <row r="399" spans="1:3" ht="12.75">
       <c r="A399" s="46"/>
-      <c r="B399" s="77"/>
+      <c r="B399" s="75"/>
       <c r="C399" s="18"/>
     </row>
     <row r="400" spans="1:3" ht="12.75">
       <c r="A400" s="46"/>
-      <c r="B400" s="77"/>
+      <c r="B400" s="75"/>
       <c r="C400" s="18"/>
     </row>
     <row r="401" spans="1:3" ht="12.75">
       <c r="A401" s="46"/>
-      <c r="B401" s="77"/>
+      <c r="B401" s="75"/>
       <c r="C401" s="18"/>
     </row>
     <row r="402" spans="1:3" ht="12.75">
       <c r="A402" s="46"/>
-      <c r="B402" s="77"/>
+      <c r="B402" s="75"/>
       <c r="C402" s="18"/>
     </row>
     <row r="403" spans="1:3" ht="12.75">
       <c r="A403" s="46"/>
-      <c r="B403" s="77"/>
+      <c r="B403" s="75"/>
       <c r="C403" s="18"/>
     </row>
     <row r="404" spans="1:3" ht="12.75">
       <c r="A404" s="46"/>
-      <c r="B404" s="77"/>
+      <c r="B404" s="75"/>
       <c r="C404" s="18"/>
     </row>
     <row r="405" spans="1:3" ht="12.75">
       <c r="A405" s="46"/>
-      <c r="B405" s="77"/>
+      <c r="B405" s="75"/>
       <c r="C405" s="18"/>
     </row>
     <row r="406" spans="1:3" ht="12.75">
       <c r="A406" s="46"/>
-      <c r="B406" s="77"/>
+      <c r="B406" s="75"/>
       <c r="C406" s="18"/>
     </row>
     <row r="407" spans="1:3" ht="12.75">
       <c r="A407" s="46"/>
-      <c r="B407" s="77"/>
+      <c r="B407" s="75"/>
       <c r="C407" s="18"/>
     </row>
     <row r="408" spans="1:3" ht="12.75">
       <c r="A408" s="46"/>
-      <c r="B408" s="77"/>
+      <c r="B408" s="75"/>
       <c r="C408" s="18"/>
     </row>
     <row r="409" spans="1:3" ht="12.75">
       <c r="A409" s="46"/>
-      <c r="B409" s="77"/>
+      <c r="B409" s="75"/>
       <c r="C409" s="18"/>
     </row>
     <row r="410" spans="1:3" ht="12.75">
       <c r="A410" s="46"/>
-      <c r="B410" s="77"/>
+      <c r="B410" s="75"/>
       <c r="C410" s="18"/>
     </row>
     <row r="411" spans="1:3" ht="12.75">
       <c r="A411" s="46"/>
-      <c r="B411" s="77"/>
+      <c r="B411" s="75"/>
       <c r="C411" s="18"/>
     </row>
     <row r="412" spans="1:3" ht="12.75">
       <c r="A412" s="46"/>
-      <c r="B412" s="77"/>
+      <c r="B412" s="75"/>
       <c r="C412" s="18"/>
     </row>
     <row r="413" spans="1:3" ht="12.75">
       <c r="A413" s="46"/>
-      <c r="B413" s="77"/>
+      <c r="B413" s="75"/>
       <c r="C413" s="18"/>
     </row>
     <row r="414" spans="1:3" ht="12.75">
       <c r="A414" s="46"/>
-      <c r="B414" s="77"/>
+      <c r="B414" s="75"/>
       <c r="C414" s="18"/>
     </row>
     <row r="415" spans="1:3" ht="12.75">
       <c r="A415" s="46"/>
-      <c r="B415" s="77"/>
+      <c r="B415" s="75"/>
       <c r="C415" s="18"/>
     </row>
     <row r="416" spans="1:3" ht="12.75">
       <c r="A416" s="46"/>
-      <c r="B416" s="77"/>
+      <c r="B416" s="75"/>
       <c r="C416" s="18"/>
     </row>
     <row r="417" spans="1:3" ht="12.75">
       <c r="A417" s="46"/>
-      <c r="B417" s="77"/>
+      <c r="B417" s="75"/>
       <c r="C417" s="18"/>
     </row>
     <row r="418" spans="1:3" ht="12.75">
       <c r="A418" s="46"/>
-      <c r="B418" s="77"/>
+      <c r="B418" s="75"/>
       <c r="C418" s="18"/>
     </row>
     <row r="419" spans="1:3" ht="12.75">
       <c r="A419" s="46"/>
-      <c r="B419" s="77"/>
+      <c r="B419" s="75"/>
       <c r="C419" s="18"/>
     </row>
     <row r="420" spans="1:3" ht="12.75">
       <c r="A420" s="46"/>
-      <c r="B420" s="77"/>
+      <c r="B420" s="75"/>
       <c r="C420" s="18"/>
     </row>
     <row r="421" spans="1:3" ht="12.75">
       <c r="A421" s="46"/>
-      <c r="B421" s="77"/>
+      <c r="B421" s="75"/>
       <c r="C421" s="18"/>
     </row>
     <row r="422" spans="1:3" ht="12.75">
       <c r="A422" s="46"/>
-      <c r="B422" s="77"/>
+      <c r="B422" s="75"/>
       <c r="C422" s="18"/>
     </row>
     <row r="423" spans="1:3" ht="12.75">
       <c r="A423" s="46"/>
-      <c r="B423" s="77"/>
+      <c r="B423" s="75"/>
       <c r="C423" s="18"/>
     </row>
     <row r="424" spans="1:3" ht="12.75">
       <c r="A424" s="46"/>
-      <c r="B424" s="77"/>
+      <c r="B424" s="75"/>
       <c r="C424" s="18"/>
     </row>
     <row r="425" spans="1:3" ht="12.75">
       <c r="A425" s="46"/>
-      <c r="B425" s="77"/>
+      <c r="B425" s="75"/>
       <c r="C425" s="18"/>
     </row>
     <row r="426" spans="1:3" ht="12.75">
       <c r="A426" s="46"/>
-      <c r="B426" s="77"/>
+      <c r="B426" s="75"/>
       <c r="C426" s="18"/>
     </row>
     <row r="427" spans="1:3" ht="12.75">
       <c r="A427" s="46"/>
-      <c r="B427" s="77"/>
+      <c r="B427" s="75"/>
       <c r="C427" s="18"/>
     </row>
     <row r="428" spans="1:3" ht="12.75">
       <c r="A428" s="46"/>
-      <c r="B428" s="77"/>
+      <c r="B428" s="75"/>
       <c r="C428" s="18"/>
     </row>
     <row r="429" spans="1:3" ht="12.75">
       <c r="A429" s="46"/>
-      <c r="B429" s="77"/>
+      <c r="B429" s="75"/>
       <c r="C429" s="18"/>
     </row>
     <row r="430" spans="1:3" ht="12.75">
       <c r="A430" s="46"/>
-      <c r="B430" s="77"/>
+      <c r="B430" s="75"/>
       <c r="C430" s="18"/>
     </row>
     <row r="431" spans="1:3" ht="12.75">
       <c r="A431" s="46"/>
-      <c r="B431" s="77"/>
+      <c r="B431" s="75"/>
       <c r="C431" s="18"/>
     </row>
     <row r="432" spans="1:3" ht="12.75">
       <c r="A432" s="46"/>
-      <c r="B432" s="77"/>
+      <c r="B432" s="75"/>
       <c r="C432" s="18"/>
     </row>
     <row r="433" spans="1:3" ht="12.75">
       <c r="A433" s="46"/>
-      <c r="B433" s="77"/>
+      <c r="B433" s="75"/>
       <c r="C433" s="18"/>
     </row>
     <row r="434" spans="1:3" ht="12.75">
       <c r="A434" s="46"/>
-      <c r="B434" s="77"/>
+      <c r="B434" s="75"/>
       <c r="C434" s="18"/>
     </row>
     <row r="435" spans="1:3" ht="12.75">
       <c r="A435" s="46"/>
-      <c r="B435" s="77"/>
+      <c r="B435" s="75"/>
       <c r="C435" s="18"/>
     </row>
     <row r="436" spans="1:3" ht="12.75">
       <c r="A436" s="46"/>
-      <c r="B436" s="77"/>
+      <c r="B436" s="75"/>
       <c r="C436" s="18"/>
     </row>
     <row r="437" spans="1:3" ht="12.75">
       <c r="A437" s="46"/>
-      <c r="B437" s="77"/>
+      <c r="B437" s="75"/>
       <c r="C437" s="18"/>
     </row>
     <row r="438" spans="1:3" ht="12.75">
       <c r="A438" s="46"/>
-      <c r="B438" s="77"/>
+      <c r="B438" s="75"/>
       <c r="C438" s="18"/>
     </row>
     <row r="439" spans="1:3" ht="12.75">
       <c r="A439" s="46"/>
-      <c r="B439" s="77"/>
+      <c r="B439" s="75"/>
       <c r="C439" s="18"/>
     </row>
     <row r="440" spans="1:3" ht="12.75">
       <c r="A440" s="46"/>
-      <c r="B440" s="77"/>
+      <c r="B440" s="75"/>
       <c r="C440" s="18"/>
     </row>
     <row r="441" spans="1:3" ht="12.75">
       <c r="A441" s="46"/>
-      <c r="B441" s="77"/>
+      <c r="B441" s="75"/>
       <c r="C441" s="18"/>
     </row>
     <row r="442" spans="1:3" ht="12.75">
       <c r="A442" s="46"/>
-      <c r="B442" s="77"/>
+      <c r="B442" s="75"/>
       <c r="C442" s="18"/>
     </row>
     <row r="443" spans="1:3" ht="12.75">
       <c r="A443" s="46"/>
-      <c r="B443" s="77"/>
+      <c r="B443" s="75"/>
       <c r="C443" s="18"/>
     </row>
     <row r="444" spans="1:3" ht="12.75">
       <c r="A444" s="46"/>
-      <c r="B444" s="77"/>
+      <c r="B444" s="75"/>
       <c r="C444" s="18"/>
     </row>
     <row r="445" spans="1:3" ht="12.75">
       <c r="A445" s="46"/>
-      <c r="B445" s="77"/>
+      <c r="B445" s="75"/>
       <c r="C445" s="18"/>
     </row>
     <row r="446" spans="1:3" ht="12.75">
       <c r="A446" s="46"/>
-      <c r="B446" s="77"/>
+      <c r="B446" s="75"/>
       <c r="C446" s="18"/>
     </row>
     <row r="447" spans="1:3" ht="12.75">
       <c r="A447" s="46"/>
-      <c r="B447" s="77"/>
+      <c r="B447" s="75"/>
       <c r="C447" s="18"/>
     </row>
     <row r="448" spans="1:3" ht="12.75">
       <c r="A448" s="46"/>
-      <c r="B448" s="77"/>
+      <c r="B448" s="75"/>
       <c r="C448" s="18"/>
     </row>
     <row r="449" spans="1:3" ht="12.75">
       <c r="A449" s="46"/>
-      <c r="B449" s="77"/>
+      <c r="B449" s="75"/>
       <c r="C449" s="18"/>
     </row>
     <row r="450" spans="1:3" ht="12.75">
       <c r="A450" s="46"/>
-      <c r="B450" s="77"/>
+      <c r="B450" s="75"/>
       <c r="C450" s="18"/>
     </row>
     <row r="451" spans="1:3" ht="12.75">
       <c r="A451" s="46"/>
-      <c r="B451" s="77"/>
+      <c r="B451" s="75"/>
       <c r="C451" s="18"/>
     </row>
     <row r="452" spans="1:3" ht="12.75">
       <c r="A452" s="46"/>
-      <c r="B452" s="77"/>
+      <c r="B452" s="75"/>
       <c r="C452" s="18"/>
     </row>
     <row r="453" spans="1:3" ht="12.75">
       <c r="A453" s="46"/>
-      <c r="B453" s="77"/>
+      <c r="B453" s="75"/>
       <c r="C453" s="18"/>
     </row>
     <row r="454" spans="1:3" ht="12.75">
       <c r="A454" s="46"/>
-      <c r="B454" s="77"/>
+      <c r="B454" s="75"/>
       <c r="C454" s="18"/>
     </row>
     <row r="455" spans="1:3" ht="12.75">
       <c r="A455" s="46"/>
-      <c r="B455" s="77"/>
+      <c r="B455" s="75"/>
       <c r="C455" s="18"/>
     </row>
     <row r="456" spans="1:3" ht="12.75">
       <c r="A456" s="46"/>
-      <c r="B456" s="77"/>
+      <c r="B456" s="75"/>
       <c r="C456" s="18"/>
     </row>
     <row r="457" spans="1:3" ht="12.75">
       <c r="A457" s="46"/>
-      <c r="B457" s="77"/>
+      <c r="B457" s="75"/>
       <c r="C457" s="18"/>
     </row>
     <row r="458" spans="1:3" ht="12.75">
       <c r="A458" s="46"/>
-      <c r="B458" s="77"/>
+      <c r="B458" s="75"/>
       <c r="C458" s="18"/>
     </row>
     <row r="459" spans="1:3" ht="12.75">
       <c r="A459" s="46"/>
-      <c r="B459" s="77"/>
+      <c r="B459" s="75"/>
       <c r="C459" s="18"/>
     </row>
     <row r="460" spans="1:3" ht="12.75">
       <c r="A460" s="46"/>
-      <c r="B460" s="77"/>
+      <c r="B460" s="75"/>
       <c r="C460" s="18"/>
     </row>
     <row r="461" spans="1:3" ht="12.75">
       <c r="A461" s="46"/>
-      <c r="B461" s="77"/>
+      <c r="B461" s="75"/>
       <c r="C461" s="18"/>
     </row>
     <row r="462" spans="1:3" ht="12.75">
       <c r="A462" s="46"/>
-      <c r="B462" s="77"/>
+      <c r="B462" s="75"/>
       <c r="C462" s="18"/>
     </row>
     <row r="463" spans="1:3" ht="12.75">
       <c r="A463" s="46"/>
-      <c r="B463" s="77"/>
+      <c r="B463" s="75"/>
       <c r="C463" s="18"/>
     </row>
     <row r="464" spans="1:3" ht="12.75">
       <c r="A464" s="46"/>
-      <c r="B464" s="77"/>
+      <c r="B464" s="75"/>
       <c r="C464" s="18"/>
     </row>
     <row r="465" spans="1:3" ht="12.75">
       <c r="A465" s="46"/>
-      <c r="B465" s="77"/>
+      <c r="B465" s="75"/>
       <c r="C465" s="18"/>
     </row>
     <row r="466" spans="1:3" ht="12.75">
       <c r="A466" s="46"/>
-      <c r="B466" s="77"/>
+      <c r="B466" s="75"/>
       <c r="C466" s="18"/>
     </row>
     <row r="467" spans="1:3" ht="12.75">
       <c r="A467" s="46"/>
-      <c r="B467" s="77"/>
+      <c r="B467" s="75"/>
       <c r="C467" s="18"/>
     </row>
     <row r="468" spans="1:3" ht="12.75">
       <c r="A468" s="46"/>
-      <c r="B468" s="77"/>
+      <c r="B468" s="75"/>
       <c r="C468" s="18"/>
     </row>
     <row r="469" spans="1:3" ht="12.75">
       <c r="A469" s="46"/>
-      <c r="B469" s="77"/>
+      <c r="B469" s="75"/>
       <c r="C469" s="18"/>
     </row>
     <row r="470" spans="1:3" ht="12.75">
       <c r="A470" s="46"/>
-      <c r="B470" s="77"/>
+      <c r="B470" s="75"/>
       <c r="C470" s="18"/>
     </row>
     <row r="471" spans="1:3" ht="12.75">
       <c r="A471" s="46"/>
-      <c r="B471" s="77"/>
+      <c r="B471" s="75"/>
       <c r="C471" s="18"/>
     </row>
     <row r="472" spans="1:3" ht="12.75">
       <c r="A472" s="46"/>
-      <c r="B472" s="77"/>
+      <c r="B472" s="75"/>
       <c r="C472" s="18"/>
     </row>
     <row r="473" spans="1:3" ht="12.75">
       <c r="A473" s="46"/>
-      <c r="B473" s="77"/>
+      <c r="B473" s="75"/>
       <c r="C473" s="18"/>
     </row>
     <row r="474" spans="1:3" ht="12.75">
       <c r="A474" s="46"/>
-      <c r="B474" s="77"/>
+      <c r="B474" s="75"/>
       <c r="C474" s="18"/>
     </row>
     <row r="475" spans="1:3" ht="12.75">
       <c r="A475" s="46"/>
-      <c r="B475" s="77"/>
+      <c r="B475" s="75"/>
       <c r="C475" s="18"/>
     </row>
     <row r="476" spans="1:3" ht="12.75">
       <c r="A476" s="46"/>
-      <c r="B476" s="77"/>
+      <c r="B476" s="75"/>
       <c r="C476" s="18"/>
     </row>
     <row r="477" spans="1:3" ht="12.75">
       <c r="A477" s="46"/>
-      <c r="B477" s="77"/>
+      <c r="B477" s="75"/>
       <c r="C477" s="18"/>
     </row>
     <row r="478" spans="1:3" ht="12.75">
       <c r="A478" s="46"/>
-      <c r="B478" s="77"/>
+      <c r="B478" s="75"/>
       <c r="C478" s="18"/>
     </row>
     <row r="479" spans="1:3" ht="12.75">
       <c r="A479" s="46"/>
-      <c r="B479" s="77"/>
+      <c r="B479" s="75"/>
       <c r="C479" s="18"/>
     </row>
     <row r="480" spans="1:3" ht="12.75">
       <c r="A480" s="46"/>
-      <c r="B480" s="77"/>
+      <c r="B480" s="75"/>
       <c r="C480" s="18"/>
     </row>
     <row r="481" spans="1:3" ht="12.75">
       <c r="A481" s="46"/>
-      <c r="B481" s="77"/>
+      <c r="B481" s="75"/>
       <c r="C481" s="18"/>
     </row>
     <row r="482" spans="1:3" ht="12.75">
       <c r="A482" s="46"/>
-      <c r="B482" s="77"/>
+      <c r="B482" s="75"/>
       <c r="C482" s="18"/>
     </row>
     <row r="483" spans="1:3" ht="12.75">
       <c r="A483" s="46"/>
-      <c r="B483" s="77"/>
+      <c r="B483" s="75"/>
       <c r="C483" s="18"/>
     </row>
     <row r="484" spans="1:3" ht="12.75">
       <c r="A484" s="46"/>
-      <c r="B484" s="77"/>
+      <c r="B484" s="75"/>
       <c r="C484" s="18"/>
     </row>
     <row r="485" spans="1:3" ht="12.75">
       <c r="A485" s="46"/>
-      <c r="B485" s="77"/>
+      <c r="B485" s="75"/>
       <c r="C485" s="18"/>
     </row>
     <row r="486" spans="1:3" ht="12.75">
       <c r="A486" s="46"/>
-      <c r="B486" s="77"/>
+      <c r="B486" s="75"/>
       <c r="C486" s="18"/>
     </row>
     <row r="487" spans="1:3" ht="12.75">
       <c r="A487" s="46"/>
-      <c r="B487" s="77"/>
+      <c r="B487" s="75"/>
       <c r="C487" s="18"/>
     </row>
     <row r="488" spans="1:3" ht="12.75">
       <c r="A488" s="46"/>
-      <c r="B488" s="77"/>
+      <c r="B488" s="75"/>
       <c r="C488" s="18"/>
     </row>
     <row r="489" spans="1:3" ht="12.75">
       <c r="A489" s="46"/>
-      <c r="B489" s="77"/>
+      <c r="B489" s="75"/>
       <c r="C489" s="18"/>
     </row>
     <row r="490" spans="1:3" ht="12.75">
       <c r="A490" s="46"/>
-      <c r="B490" s="77"/>
+      <c r="B490" s="75"/>
       <c r="C490" s="18"/>
     </row>
     <row r="491" spans="1:3" ht="12.75">
       <c r="A491" s="46"/>
-      <c r="B491" s="77"/>
+      <c r="B491" s="75"/>
       <c r="C491" s="18"/>
     </row>
     <row r="492" spans="1:3" ht="12.75">
       <c r="A492" s="46"/>
-      <c r="B492" s="77"/>
+      <c r="B492" s="75"/>
       <c r="C492" s="18"/>
     </row>
     <row r="493" spans="1:3" ht="12.75">
       <c r="A493" s="46"/>
-      <c r="B493" s="77"/>
+      <c r="B493" s="75"/>
       <c r="C493" s="18"/>
     </row>
     <row r="494" spans="1:3" ht="12.75">
       <c r="A494" s="46"/>
-      <c r="B494" s="77"/>
+      <c r="B494" s="75"/>
       <c r="C494" s="18"/>
     </row>
     <row r="495" spans="1:3" ht="12.75">
       <c r="A495" s="46"/>
-      <c r="B495" s="77"/>
+      <c r="B495" s="75"/>
       <c r="C495" s="18"/>
     </row>
     <row r="496" spans="1:3" ht="12.75">
       <c r="A496" s="46"/>
-      <c r="B496" s="77"/>
+      <c r="B496" s="75"/>
       <c r="C496" s="18"/>
     </row>
     <row r="497" spans="1:3" ht="12.75">
       <c r="A497" s="46"/>
-      <c r="B497" s="77"/>
+      <c r="B497" s="75"/>
       <c r="C497" s="18"/>
     </row>
     <row r="498" spans="1:3" ht="12.75">
       <c r="A498" s="46"/>
-      <c r="B498" s="77"/>
+      <c r="B498" s="75"/>
       <c r="C498" s="18"/>
     </row>
     <row r="499" spans="1:3" ht="12.75">
       <c r="A499" s="46"/>
-      <c r="B499" s="77"/>
+      <c r="B499" s="75"/>
       <c r="C499" s="18"/>
     </row>
     <row r="500" spans="1:3" ht="12.75">
       <c r="A500" s="46"/>
-      <c r="B500" s="77"/>
+      <c r="B500" s="75"/>
       <c r="C500" s="18"/>
     </row>
     <row r="501" spans="1:3" ht="12.75">
       <c r="A501" s="46"/>
-      <c r="B501" s="77"/>
+      <c r="B501" s="75"/>
       <c r="C501" s="18"/>
     </row>
     <row r="502" spans="1:3" ht="12.75">
       <c r="A502" s="46"/>
-      <c r="B502" s="77"/>
+      <c r="B502" s="75"/>
       <c r="C502" s="18"/>
     </row>
     <row r="503" spans="1:3" ht="12.75">
       <c r="A503" s="46"/>
-      <c r="B503" s="77"/>
+      <c r="B503" s="75"/>
       <c r="C503" s="18"/>
     </row>
     <row r="504" spans="1:3" ht="12.75">
       <c r="A504" s="46"/>
-      <c r="B504" s="77"/>
+      <c r="B504" s="75"/>
       <c r="C504" s="18"/>
     </row>
     <row r="505" spans="1:3" ht="12.75">
       <c r="A505" s="46"/>
-      <c r="B505" s="77"/>
+      <c r="B505" s="75"/>
       <c r="C505" s="18"/>
     </row>
     <row r="506" spans="1:3" ht="12.75">
       <c r="A506" s="46"/>
-      <c r="B506" s="77"/>
+      <c r="B506" s="75"/>
       <c r="C506" s="18"/>
     </row>
     <row r="507" spans="1:3" ht="12.75">
       <c r="A507" s="46"/>
-      <c r="B507" s="77"/>
+      <c r="B507" s="75"/>
       <c r="C507" s="18"/>
     </row>
     <row r="508" spans="1:3" ht="12.75">
       <c r="A508" s="46"/>
-      <c r="B508" s="77"/>
+      <c r="B508" s="75"/>
       <c r="C508" s="18"/>
     </row>
     <row r="509" spans="1:3" ht="12.75">
       <c r="A509" s="46"/>
-      <c r="B509" s="77"/>
+      <c r="B509" s="75"/>
       <c r="C509" s="18"/>
     </row>
     <row r="510" spans="1:3" ht="12.75">
       <c r="A510" s="46"/>
-      <c r="B510" s="77"/>
+      <c r="B510" s="75"/>
       <c r="C510" s="18"/>
     </row>
     <row r="511" spans="1:3" ht="12.75">
       <c r="A511" s="46"/>
-      <c r="B511" s="77"/>
+      <c r="B511" s="75"/>
       <c r="C511" s="18"/>
     </row>
     <row r="512" spans="1:3" ht="12.75">
       <c r="A512" s="46"/>
-      <c r="B512" s="77"/>
+      <c r="B512" s="75"/>
       <c r="C512" s="18"/>
     </row>
     <row r="513" spans="1:3" ht="12.75">
       <c r="A513" s="46"/>
-      <c r="B513" s="77"/>
+      <c r="B513" s="75"/>
       <c r="C513" s="18"/>
     </row>
     <row r="514" spans="1:3" ht="12.75">
       <c r="A514" s="46"/>
-      <c r="B514" s="77"/>
+      <c r="B514" s="75"/>
       <c r="C514" s="18"/>
     </row>
     <row r="515" spans="1:3" ht="12.75">
       <c r="A515" s="46"/>
-      <c r="B515" s="77"/>
+      <c r="B515" s="75"/>
       <c r="C515" s="18"/>
     </row>
     <row r="516" spans="1:3" ht="12.75">
       <c r="A516" s="46"/>
-      <c r="B516" s="77"/>
+      <c r="B516" s="75"/>
       <c r="C516" s="18"/>
     </row>
     <row r="517" spans="1:3" ht="12.75">
       <c r="A517" s="46"/>
-      <c r="B517" s="77"/>
+      <c r="B517" s="75"/>
       <c r="C517" s="18"/>
     </row>
     <row r="518" spans="1:3" ht="12.75">
       <c r="A518" s="46"/>
-      <c r="B518" s="77"/>
+      <c r="B518" s="75"/>
       <c r="C518" s="18"/>
     </row>
     <row r="519" spans="1:3" ht="12.75">
       <c r="A519" s="46"/>
-      <c r="B519" s="77"/>
+      <c r="B519" s="75"/>
       <c r="C519" s="18"/>
     </row>
     <row r="520" spans="1:3" ht="12.75">
       <c r="A520" s="46"/>
-      <c r="B520" s="77"/>
+      <c r="B520" s="75"/>
       <c r="C520" s="18"/>
     </row>
     <row r="521" spans="1:3" ht="12.75">
       <c r="A521" s="46"/>
-      <c r="B521" s="77"/>
+      <c r="B521" s="75"/>
       <c r="C521" s="18"/>
     </row>
     <row r="522" spans="1:3" ht="12.75">
       <c r="A522" s="46"/>
-      <c r="B522" s="77"/>
+      <c r="B522" s="75"/>
       <c r="C522" s="18"/>
     </row>
     <row r="523" spans="1:3" ht="12.75">
       <c r="A523" s="46"/>
-      <c r="B523" s="77"/>
+      <c r="B523" s="75"/>
       <c r="C523" s="18"/>
     </row>
     <row r="524" spans="1:3" ht="12.75">
       <c r="A524" s="46"/>
-      <c r="B524" s="77"/>
+      <c r="B524" s="75"/>
       <c r="C524" s="18"/>
     </row>
     <row r="525" spans="1:3" ht="12.75">
       <c r="A525" s="46"/>
-      <c r="B525" s="77"/>
+      <c r="B525" s="75"/>
       <c r="C525" s="18"/>
     </row>
     <row r="526" spans="1:3" ht="12.75">
       <c r="A526" s="46"/>
-      <c r="B526" s="77"/>
+      <c r="B526" s="75"/>
       <c r="C526" s="18"/>
     </row>
     <row r="527" spans="1:3" ht="12.75">
       <c r="A527" s="46"/>
-      <c r="B527" s="77"/>
+      <c r="B527" s="75"/>
       <c r="C527" s="18"/>
     </row>
     <row r="528" spans="1:3" ht="12.75">
       <c r="A528" s="46"/>
-      <c r="B528" s="77"/>
+      <c r="B528" s="75"/>
       <c r="C528" s="18"/>
     </row>
     <row r="529" spans="1:3" ht="12.75">
       <c r="A529" s="46"/>
-      <c r="B529" s="77"/>
+      <c r="B529" s="75"/>
       <c r="C529" s="18"/>
     </row>
     <row r="530" spans="1:3" ht="12.75">
       <c r="A530" s="46"/>
-      <c r="B530" s="77"/>
+      <c r="B530" s="75"/>
       <c r="C530" s="18"/>
     </row>
     <row r="531" spans="1:3" ht="12.75">
       <c r="A531" s="46"/>
-      <c r="B531" s="77"/>
+      <c r="B531" s="75"/>
       <c r="C531" s="18"/>
     </row>
     <row r="532" spans="1:3" ht="12.75">
       <c r="A532" s="46"/>
-      <c r="B532" s="77"/>
+      <c r="B532" s="75"/>
       <c r="C532" s="18"/>
     </row>
     <row r="533" spans="1:3" ht="12.75">
       <c r="A533" s="46"/>
-      <c r="B533" s="77"/>
+      <c r="B533" s="75"/>
       <c r="C533" s="18"/>
     </row>
     <row r="534" spans="1:3" ht="12.75">
       <c r="A534" s="46"/>
-      <c r="B534" s="77"/>
+      <c r="B534" s="75"/>
       <c r="C534" s="18"/>
     </row>
     <row r="535" spans="1:3" ht="12.75">
       <c r="A535" s="46"/>
-      <c r="B535" s="77"/>
+      <c r="B535" s="75"/>
       <c r="C535" s="18"/>
     </row>
     <row r="536" spans="1:3" ht="12.75">
       <c r="A536" s="46"/>
-      <c r="B536" s="77"/>
+      <c r="B536" s="75"/>
       <c r="C536" s="18"/>
     </row>
     <row r="537" spans="1:3" ht="12.75">
       <c r="A537" s="46"/>
-      <c r="B537" s="77"/>
+      <c r="B537" s="75"/>
       <c r="C537" s="18"/>
     </row>
     <row r="538" spans="1:3" ht="12.75">
       <c r="A538" s="46"/>
-      <c r="B538" s="77"/>
+      <c r="B538" s="75"/>
       <c r="C538" s="18"/>
     </row>
     <row r="539" spans="1:3" ht="12.75">
       <c r="A539" s="46"/>
-      <c r="B539" s="77"/>
+      <c r="B539" s="75"/>
       <c r="C539" s="18"/>
     </row>
     <row r="540" spans="1:3" ht="12.75">
       <c r="A540" s="46"/>
-      <c r="B540" s="77"/>
+      <c r="B540" s="75"/>
       <c r="C540" s="18"/>
     </row>
     <row r="541" spans="1:3" ht="12.75">
       <c r="A541" s="46"/>
-      <c r="B541" s="77"/>
+      <c r="B541" s="75"/>
       <c r="C541" s="18"/>
     </row>
     <row r="542" spans="1:3" ht="12.75">
       <c r="A542" s="46"/>
-      <c r="B542" s="77"/>
+      <c r="B542" s="75"/>
       <c r="C542" s="18"/>
     </row>
     <row r="543" spans="1:3" ht="12.75">
       <c r="A543" s="46"/>
-      <c r="B543" s="77"/>
+      <c r="B543" s="75"/>
       <c r="C543" s="18"/>
     </row>
     <row r="544" spans="1:3" ht="12.75">
       <c r="A544" s="46"/>
-      <c r="B544" s="77"/>
+      <c r="B544" s="75"/>
       <c r="C544" s="18"/>
     </row>
     <row r="545" spans="1:3" ht="12.75">
       <c r="A545" s="46"/>
-      <c r="B545" s="77"/>
+      <c r="B545" s="75"/>
       <c r="C545" s="18"/>
     </row>
     <row r="546" spans="1:3" ht="12.75">
       <c r="A546" s="46"/>
-      <c r="B546" s="77"/>
+      <c r="B546" s="75"/>
       <c r="C546" s="18"/>
     </row>
     <row r="547" spans="1:3" ht="12.75">
       <c r="A547" s="46"/>
-      <c r="B547" s="77"/>
+      <c r="B547" s="75"/>
       <c r="C547" s="18"/>
     </row>
     <row r="548" spans="1:3" ht="12.75">
       <c r="A548" s="46"/>
-      <c r="B548" s="77"/>
+      <c r="B548" s="75"/>
       <c r="C548" s="18"/>
     </row>
     <row r="549" spans="1:3" ht="12.75">
       <c r="A549" s="46"/>
-      <c r="B549" s="77"/>
+      <c r="B549" s="75"/>
       <c r="C549" s="18"/>
     </row>
     <row r="550" spans="1:3" ht="12.75">
       <c r="A550" s="46"/>
-      <c r="B550" s="77"/>
+      <c r="B550" s="75"/>
       <c r="C550" s="18"/>
     </row>
     <row r="551" spans="1:3" ht="12.75">
       <c r="A551" s="46"/>
-      <c r="B551" s="77"/>
+      <c r="B551" s="75"/>
       <c r="C551" s="18"/>
     </row>
     <row r="552" spans="1:3" ht="12.75">
       <c r="A552" s="46"/>
-      <c r="B552" s="77"/>
+      <c r="B552" s="75"/>
       <c r="C552" s="18"/>
     </row>
     <row r="553" spans="1:3" ht="12.75">
       <c r="A553" s="46"/>
-      <c r="B553" s="77"/>
+      <c r="B553" s="75"/>
       <c r="C553" s="18"/>
     </row>
     <row r="554" spans="1:3" ht="12.75">
       <c r="A554" s="46"/>
-      <c r="B554" s="77"/>
+      <c r="B554" s="75"/>
       <c r="C554" s="18"/>
     </row>
     <row r="555" spans="1:3" ht="12.75">
       <c r="A555" s="46"/>
-      <c r="B555" s="77"/>
+      <c r="B555" s="75"/>
       <c r="C555" s="18"/>
     </row>
     <row r="556" spans="1:3" ht="12.75">
       <c r="A556" s="46"/>
-      <c r="B556" s="77"/>
+      <c r="B556" s="75"/>
       <c r="C556" s="18"/>
     </row>
     <row r="557" spans="1:3" ht="12.75">
       <c r="A557" s="46"/>
-      <c r="B557" s="77"/>
+      <c r="B557" s="75"/>
       <c r="C557" s="18"/>
     </row>
     <row r="558" spans="1:3" ht="12.75">
       <c r="A558" s="46"/>
-      <c r="B558" s="77"/>
+      <c r="B558" s="75"/>
       <c r="C558" s="18"/>
     </row>
     <row r="559" spans="1:3" ht="12.75">
       <c r="A559" s="46"/>
-      <c r="B559" s="77"/>
+      <c r="B559" s="75"/>
       <c r="C559" s="18"/>
     </row>
     <row r="560" spans="1:3" ht="12.75">
       <c r="A560" s="46"/>
-      <c r="B560" s="77"/>
+      <c r="B560" s="75"/>
       <c r="C560" s="18"/>
     </row>
     <row r="561" spans="1:3" ht="12.75">
       <c r="A561" s="46"/>
-      <c r="B561" s="77"/>
+      <c r="B561" s="75"/>
       <c r="C561" s="18"/>
     </row>
     <row r="562" spans="1:3" ht="12.75">
       <c r="A562" s="46"/>
-      <c r="B562" s="77"/>
+      <c r="B562" s="75"/>
       <c r="C562" s="18"/>
     </row>
     <row r="563" spans="1:3" ht="12.75">
       <c r="A563" s="46"/>
-      <c r="B563" s="77"/>
+      <c r="B563" s="75"/>
       <c r="C563" s="18"/>
     </row>
     <row r="564" spans="1:3" ht="12.75">
       <c r="A564" s="46"/>
-      <c r="B564" s="77"/>
+      <c r="B564" s="75"/>
       <c r="C564" s="18"/>
     </row>
     <row r="565" spans="1:3" ht="12.75">
       <c r="A565" s="46"/>
-      <c r="B565" s="77"/>
+      <c r="B565" s="75"/>
       <c r="C565" s="18"/>
     </row>
     <row r="566" spans="1:3" ht="12.75">
       <c r="A566" s="46"/>
-      <c r="B566" s="77"/>
+      <c r="B566" s="75"/>
       <c r="C566" s="18"/>
     </row>
     <row r="567" spans="1:3" ht="12.75">
       <c r="A567" s="46"/>
-      <c r="B567" s="77"/>
+      <c r="B567" s="75"/>
       <c r="C567" s="18"/>
     </row>
     <row r="568" spans="1:3" ht="12.75">
       <c r="A568" s="46"/>
-      <c r="B568" s="77"/>
+      <c r="B568" s="75"/>
       <c r="C568" s="18"/>
     </row>
     <row r="569" spans="1:3" ht="12.75">
       <c r="A569" s="46"/>
-      <c r="B569" s="77"/>
+      <c r="B569" s="75"/>
       <c r="C569" s="18"/>
     </row>
     <row r="570" spans="1:3" ht="12.75">
       <c r="A570" s="46"/>
-      <c r="B570" s="77"/>
+      <c r="B570" s="75"/>
       <c r="C570" s="18"/>
     </row>
     <row r="571" spans="1:3" ht="12.75">
       <c r="A571" s="46"/>
-      <c r="B571" s="77"/>
+      <c r="B571" s="75"/>
       <c r="C571" s="18"/>
     </row>
     <row r="572" spans="1:3" ht="12.75">
       <c r="A572" s="46"/>
-      <c r="B572" s="77"/>
+      <c r="B572" s="75"/>
       <c r="C572" s="18"/>
     </row>
     <row r="573" spans="1:3" ht="12.75">
       <c r="A573" s="46"/>
-      <c r="B573" s="77"/>
+      <c r="B573" s="75"/>
       <c r="C573" s="18"/>
     </row>
     <row r="574" spans="1:3" ht="12.75">
       <c r="A574" s="46"/>
-      <c r="B574" s="77"/>
+      <c r="B574" s="75"/>
       <c r="C574" s="18"/>
     </row>
     <row r="575" spans="1:3" ht="12.75">
       <c r="A575" s="46"/>
-      <c r="B575" s="77"/>
+      <c r="B575" s="75"/>
       <c r="C575" s="18"/>
     </row>
     <row r="576" spans="1:3" ht="12.75">
       <c r="A576" s="46"/>
-      <c r="B576" s="77"/>
+      <c r="B576" s="75"/>
       <c r="C576" s="18"/>
     </row>
     <row r="577" spans="1:3" ht="12.75">
       <c r="A577" s="46"/>
-      <c r="B577" s="77"/>
+      <c r="B577" s="75"/>
       <c r="C577" s="18"/>
     </row>
     <row r="578" spans="1:3" ht="12.75">
       <c r="A578" s="46"/>
-      <c r="B578" s="77"/>
+      <c r="B578" s="75"/>
       <c r="C578" s="18"/>
     </row>
     <row r="579" spans="1:3" ht="12.75">
       <c r="A579" s="46"/>
-      <c r="B579" s="77"/>
+      <c r="B579" s="75"/>
       <c r="C579" s="18"/>
     </row>
     <row r="580" spans="1:3" ht="12.75">
       <c r="A580" s="46"/>
-      <c r="B580" s="77"/>
+      <c r="B580" s="75"/>
       <c r="C580" s="18"/>
     </row>
     <row r="581" spans="1:3" ht="12.75">
       <c r="A581" s="46"/>
-      <c r="B581" s="77"/>
+      <c r="B581" s="75"/>
       <c r="C581" s="18"/>
     </row>
     <row r="582" spans="1:3" ht="12.75">
       <c r="A582" s="46"/>
-      <c r="B582" s="77"/>
+      <c r="B582" s="75"/>
       <c r="C582" s="18"/>
     </row>
     <row r="583" spans="1:3" ht="12.75">
       <c r="A583" s="46"/>
-      <c r="B583" s="77"/>
+      <c r="B583" s="75"/>
       <c r="C583" s="18"/>
     </row>
     <row r="584" spans="1:3" ht="12.75">
       <c r="A584" s="46"/>
-      <c r="B584" s="77"/>
+      <c r="B584" s="75"/>
       <c r="C584" s="18"/>
     </row>
     <row r="585" spans="1:3" ht="12.75">
       <c r="A585" s="46"/>
-      <c r="B585" s="77"/>
+      <c r="B585" s="75"/>
       <c r="C585" s="18"/>
     </row>
     <row r="586" spans="1:3" ht="12.75">
       <c r="A586" s="46"/>
-      <c r="B586" s="77"/>
+      <c r="B586" s="75"/>
       <c r="C586" s="18"/>
     </row>
     <row r="587" spans="1:3" ht="12.75">
       <c r="A587" s="46"/>
-      <c r="B587" s="77"/>
+      <c r="B587" s="75"/>
       <c r="C587" s="18"/>
     </row>
     <row r="588" spans="1:3" ht="12.75">
       <c r="A588" s="46"/>
-      <c r="B588" s="77"/>
+      <c r="B588" s="75"/>
       <c r="C588" s="18"/>
     </row>
     <row r="589" spans="1:3" ht="12.75">
       <c r="A589" s="46"/>
-      <c r="B589" s="77"/>
+      <c r="B589" s="75"/>
       <c r="C589" s="18"/>
     </row>
     <row r="590" spans="1:3" ht="12.75">
       <c r="A590" s="46"/>
-      <c r="B590" s="77"/>
+      <c r="B590" s="75"/>
       <c r="C590" s="18"/>
     </row>
     <row r="591" spans="1:3" ht="12.75">
       <c r="A591" s="46"/>
-      <c r="B591" s="77"/>
+      <c r="B591" s="75"/>
       <c r="C591" s="18"/>
     </row>
     <row r="592" spans="1:3" ht="12.75">
       <c r="A592" s="46"/>
-      <c r="B592" s="77"/>
+      <c r="B592" s="75"/>
       <c r="C592" s="18"/>
     </row>
     <row r="593" spans="1:3" ht="12.75">
       <c r="A593" s="46"/>
-      <c r="B593" s="77"/>
+      <c r="B593" s="75"/>
       <c r="C593" s="18"/>
     </row>
     <row r="594" spans="1:3" ht="12.75">
       <c r="A594" s="46"/>
-      <c r="B594" s="77"/>
+      <c r="B594" s="75"/>
       <c r="C594" s="18"/>
     </row>
     <row r="595" spans="1:3" ht="12.75">
       <c r="A595" s="46"/>
-      <c r="B595" s="77"/>
+      <c r="B595" s="75"/>
       <c r="C595" s="18"/>
     </row>
     <row r="596" spans="1:3" ht="12.75">
       <c r="A596" s="46"/>
-      <c r="B596" s="77"/>
+      <c r="B596" s="75"/>
       <c r="C596" s="18"/>
     </row>
     <row r="597" spans="1:3" ht="12.75">
       <c r="A597" s="46"/>
-      <c r="B597" s="77"/>
+      <c r="B597" s="75"/>
       <c r="C597" s="18"/>
     </row>
     <row r="598" spans="1:3" ht="12.75">
       <c r="A598" s="46"/>
-      <c r="B598" s="77"/>
+      <c r="B598" s="75"/>
       <c r="C598" s="18"/>
     </row>
     <row r="599" spans="1:3" ht="12.75">
       <c r="A599" s="46"/>
-      <c r="B599" s="77"/>
+      <c r="B599" s="75"/>
       <c r="C599" s="18"/>
     </row>
     <row r="600" spans="1:3" ht="12.75">
       <c r="A600" s="46"/>
-      <c r="B600" s="77"/>
+      <c r="B600" s="75"/>
       <c r="C600" s="18"/>
     </row>
     <row r="601" spans="1:3" ht="12.75">
       <c r="A601" s="46"/>
-      <c r="B601" s="77"/>
+      <c r="B601" s="75"/>
       <c r="C601" s="18"/>
     </row>
     <row r="602" spans="1:3" ht="12.75">
       <c r="A602" s="46"/>
-      <c r="B602" s="77"/>
+      <c r="B602" s="75"/>
       <c r="C602" s="18"/>
     </row>
     <row r="603" spans="1:3" ht="12.75">
       <c r="A603" s="46"/>
-      <c r="B603" s="77"/>
+      <c r="B603" s="75"/>
       <c r="C603" s="18"/>
     </row>
     <row r="604" spans="1:3" ht="12.75">
       <c r="A604" s="46"/>
-      <c r="B604" s="77"/>
+      <c r="B604" s="75"/>
       <c r="C604" s="18"/>
     </row>
     <row r="605" spans="1:3" ht="12.75">
       <c r="A605" s="46"/>
-      <c r="B605" s="77"/>
+      <c r="B605" s="75"/>
       <c r="C605" s="18"/>
     </row>
     <row r="606" spans="1:3" ht="12.75">
       <c r="A606" s="46"/>
-      <c r="B606" s="77"/>
+      <c r="B606" s="75"/>
       <c r="C606" s="18"/>
     </row>
     <row r="607" spans="1:3" ht="12.75">
       <c r="A607" s="46"/>
-      <c r="B607" s="77"/>
+      <c r="B607" s="75"/>
       <c r="C607" s="18"/>
     </row>
     <row r="608" spans="1:3" ht="12.75">
       <c r="A608" s="46"/>
-      <c r="B608" s="77"/>
+      <c r="B608" s="75"/>
       <c r="C608" s="18"/>
     </row>
     <row r="609" spans="1:3" ht="12.75">
       <c r="A609" s="46"/>
-      <c r="B609" s="77"/>
+      <c r="B609" s="75"/>
       <c r="C609" s="18"/>
     </row>
     <row r="610" spans="1:3" ht="12.75">
       <c r="A610" s="46"/>
-      <c r="B610" s="77"/>
+      <c r="B610" s="75"/>
       <c r="C610" s="18"/>
     </row>
     <row r="611" spans="1:3" ht="12.75">
       <c r="A611" s="46"/>
-      <c r="B611" s="77"/>
+      <c r="B611" s="75"/>
       <c r="C611" s="18"/>
     </row>
     <row r="612" spans="1:3" ht="12.75">
       <c r="A612" s="46"/>
-      <c r="B612" s="77"/>
+      <c r="B612" s="75"/>
       <c r="C612" s="18"/>
     </row>
     <row r="613" spans="1:3" ht="12.75">
       <c r="A613" s="46"/>
-      <c r="B613" s="77"/>
+      <c r="B613" s="75"/>
       <c r="C613" s="18"/>
     </row>
     <row r="614" spans="1:3" ht="12.75">
       <c r="A614" s="46"/>
-      <c r="B614" s="77"/>
+      <c r="B614" s="75"/>
       <c r="C614" s="18"/>
     </row>
     <row r="615" spans="1:3" ht="12.75">
       <c r="A615" s="46"/>
-      <c r="B615" s="77"/>
+      <c r="B615" s="75"/>
       <c r="C615" s="18"/>
     </row>
     <row r="616" spans="1:3" ht="12.75">
       <c r="A616" s="46"/>
-      <c r="B616" s="77"/>
+      <c r="B616" s="75"/>
       <c r="C616" s="18"/>
     </row>
     <row r="617" spans="1:3" ht="12.75">
       <c r="A617" s="46"/>
-      <c r="B617" s="77"/>
+      <c r="B617" s="75"/>
       <c r="C617" s="18"/>
     </row>
     <row r="618" spans="1:3" ht="12.75">
       <c r="A618" s="46"/>
-      <c r="B618" s="77"/>
+      <c r="B618" s="75"/>
       <c r="C618" s="18"/>
     </row>
     <row r="619" spans="1:3" ht="12.75">
       <c r="A619" s="46"/>
-      <c r="B619" s="77"/>
+      <c r="B619" s="75"/>
       <c r="C619" s="18"/>
     </row>
     <row r="620" spans="1:3" ht="12.75">
       <c r="A620" s="46"/>
-      <c r="B620" s="77"/>
+      <c r="B620" s="75"/>
       <c r="C620" s="18"/>
     </row>
     <row r="621" spans="1:3" ht="12.75">
       <c r="A621" s="46"/>
-      <c r="B621" s="77"/>
+      <c r="B621" s="75"/>
       <c r="C621" s="18"/>
     </row>
     <row r="622" spans="1:3" ht="12.75">
       <c r="A622" s="46"/>
-      <c r="B622" s="77"/>
+      <c r="B622" s="75"/>
       <c r="C622" s="18"/>
     </row>
     <row r="623" spans="1:3" ht="12.75">
       <c r="A623" s="46"/>
-      <c r="B623" s="77"/>
+      <c r="B623" s="75"/>
       <c r="C623" s="18"/>
     </row>
     <row r="624" spans="1:3" ht="12.75">
       <c r="A624" s="46"/>
-      <c r="B624" s="77"/>
+      <c r="B624" s="75"/>
       <c r="C624" s="18"/>
     </row>
     <row r="625" spans="1:3" ht="12.75">
       <c r="A625" s="46"/>
-      <c r="B625" s="77"/>
+      <c r="B625" s="75"/>
       <c r="C625" s="18"/>
     </row>
     <row r="626" spans="1:3" ht="12.75">
       <c r="A626" s="46"/>
-      <c r="B626" s="77"/>
+      <c r="B626" s="75"/>
       <c r="C626" s="18"/>
     </row>
     <row r="627" spans="1:3" ht="12.75">
       <c r="A627" s="46"/>
-      <c r="B627" s="77"/>
+      <c r="B627" s="75"/>
       <c r="C627" s="18"/>
     </row>
     <row r="628" spans="1:3" ht="12.75">
       <c r="A628" s="46"/>
-      <c r="B628" s="77"/>
+      <c r="B628" s="75"/>
       <c r="C628" s="18"/>
     </row>
     <row r="629" spans="1:3" ht="12.75">
       <c r="A629" s="46"/>
-      <c r="B629" s="77"/>
+      <c r="B629" s="75"/>
       <c r="C629" s="18"/>
     </row>
     <row r="630" spans="1:3" ht="12.75">
       <c r="A630" s="46"/>
-      <c r="B630" s="77"/>
+      <c r="B630" s="75"/>
       <c r="C630" s="18"/>
     </row>
     <row r="631" spans="1:3" ht="12.75">
       <c r="A631" s="46"/>
-      <c r="B631" s="77"/>
+      <c r="B631" s="75"/>
       <c r="C631" s="18"/>
     </row>
     <row r="632" spans="1:3" ht="12.75">
       <c r="A632" s="46"/>
-      <c r="B632" s="77"/>
+      <c r="B632" s="75"/>
       <c r="C632" s="18"/>
     </row>
     <row r="633" spans="1:3" ht="12.75">
       <c r="A633" s="46"/>
-      <c r="B633" s="77"/>
+      <c r="B633" s="75"/>
       <c r="C633" s="18"/>
     </row>
     <row r="634" spans="1:3" ht="12.75">
       <c r="A634" s="46"/>
-      <c r="B634" s="77"/>
+      <c r="B634" s="75"/>
       <c r="C634" s="18"/>
     </row>
     <row r="635" spans="1:3" ht="12.75">
       <c r="A635" s="46"/>
-      <c r="B635" s="77"/>
+      <c r="B635" s="75"/>
       <c r="C635" s="18"/>
     </row>
     <row r="636" spans="1:3" ht="12.75">
       <c r="A636" s="46"/>
-      <c r="B636" s="77"/>
+      <c r="B636" s="75"/>
       <c r="C636" s="18"/>
     </row>
     <row r="637" spans="1:3" ht="12.75">
       <c r="A637" s="46"/>
-      <c r="B637" s="77"/>
+      <c r="B637" s="75"/>
       <c r="C637" s="18"/>
     </row>
     <row r="638" spans="1:3" ht="12.75">
       <c r="A638" s="46"/>
-      <c r="B638" s="77"/>
+      <c r="B638" s="75"/>
       <c r="C638" s="18"/>
     </row>
     <row r="639" spans="1:3" ht="12.75">
       <c r="A639" s="46"/>
-      <c r="B639" s="77"/>
+      <c r="B639" s="75"/>
       <c r="C639" s="18"/>
     </row>
     <row r="640" spans="1:3" ht="12.75">
       <c r="A640" s="46"/>
-      <c r="B640" s="77"/>
+      <c r="B640" s="75"/>
       <c r="C640" s="18"/>
     </row>
     <row r="641" spans="1:3" ht="12.75">
       <c r="A641" s="46"/>
-      <c r="B641" s="77"/>
+      <c r="B641" s="75"/>
       <c r="C641" s="18"/>
     </row>
     <row r="642" spans="1:3" ht="12.75">
       <c r="A642" s="46"/>
-      <c r="B642" s="77"/>
+      <c r="B642" s="75"/>
       <c r="C642" s="18"/>
     </row>
     <row r="643" spans="1:3" ht="12.75">
       <c r="A643" s="46"/>
-      <c r="B643" s="77"/>
+      <c r="B643" s="75"/>
       <c r="C643" s="18"/>
     </row>
     <row r="644" spans="1:3" ht="12.75">
       <c r="A644" s="46"/>
-      <c r="B644" s="77"/>
+      <c r="B644" s="75"/>
       <c r="C644" s="18"/>
     </row>
     <row r="645" spans="1:3" ht="12.75">
       <c r="A645" s="46"/>
-      <c r="B645" s="77"/>
+      <c r="B645" s="75"/>
       <c r="C645" s="18"/>
     </row>
     <row r="646" spans="1:3" ht="12.75">
       <c r="A646" s="46"/>
-      <c r="B646" s="77"/>
+      <c r="B646" s="75"/>
       <c r="C646" s="18"/>
     </row>
     <row r="647" spans="1:3" ht="12.75">
       <c r="A647" s="46"/>
-      <c r="B647" s="77"/>
+      <c r="B647" s="75"/>
       <c r="C647" s="18"/>
     </row>
     <row r="648" spans="1:3" ht="12.75">
       <c r="A648" s="46"/>
-      <c r="B648" s="77"/>
+      <c r="B648" s="75"/>
       <c r="C648" s="18"/>
     </row>
     <row r="649" spans="1:3" ht="12.75">
       <c r="A649" s="46"/>
-      <c r="B649" s="77"/>
+      <c r="B649" s="75"/>
       <c r="C649" s="18"/>
     </row>
     <row r="650" spans="1:3" ht="12.75">
       <c r="A650" s="46"/>
-      <c r="B650" s="77"/>
+      <c r="B650" s="75"/>
       <c r="C650" s="18"/>
     </row>
     <row r="651" spans="1:3" ht="12.75">
       <c r="A651" s="46"/>
-      <c r="B651" s="77"/>
+      <c r="B651" s="75"/>
       <c r="C651" s="18"/>
     </row>
     <row r="652" spans="1:3" ht="12.75">
       <c r="A652" s="46"/>
-      <c r="B652" s="77"/>
+      <c r="B652" s="75"/>
       <c r="C652" s="18"/>
     </row>
     <row r="653" spans="1:3" ht="12.75">
       <c r="A653" s="46"/>
-      <c r="B653" s="77"/>
+      <c r="B653" s="75"/>
       <c r="C653" s="18"/>
     </row>
     <row r="654" spans="1:3" ht="12.75">
       <c r="A654" s="46"/>
-      <c r="B654" s="77"/>
+      <c r="B654" s="75"/>
       <c r="C654" s="18"/>
     </row>
     <row r="655" spans="1:3" ht="12.75">
       <c r="A655" s="46"/>
-      <c r="B655" s="77"/>
+      <c r="B655" s="75"/>
       <c r="C655" s="18"/>
     </row>
     <row r="656" spans="1:3" ht="12.75">
       <c r="A656" s="46"/>
-      <c r="B656" s="77"/>
+      <c r="B656" s="75"/>
       <c r="C656" s="18"/>
     </row>
     <row r="657" spans="1:3" ht="12.75">
       <c r="A657" s="46"/>
-      <c r="B657" s="77"/>
+      <c r="B657" s="75"/>
       <c r="C657" s="18"/>
     </row>
     <row r="658" spans="1:3" ht="12.75">
       <c r="A658" s="46"/>
-      <c r="B658" s="77"/>
+      <c r="B658" s="75"/>
       <c r="C658" s="18"/>
     </row>
     <row r="659" spans="1:3" ht="12.75">
       <c r="A659" s="46"/>
-      <c r="B659" s="77"/>
+      <c r="B659" s="75"/>
       <c r="C659" s="18"/>
     </row>
     <row r="660" spans="1:3" ht="12.75">
       <c r="A660" s="46"/>
-      <c r="B660" s="77"/>
+      <c r="B660" s="75"/>
       <c r="C660" s="18"/>
     </row>
     <row r="661" spans="1:3" ht="12.75">
       <c r="A661" s="46"/>
-      <c r="B661" s="77"/>
+      <c r="B661" s="75"/>
       <c r="C661" s="18"/>
     </row>
     <row r="662" spans="1:3" ht="12.75">
       <c r="A662" s="46"/>
-      <c r="B662" s="77"/>
+      <c r="B662" s="75"/>
       <c r="C662" s="18"/>
     </row>
     <row r="663" spans="1:3" ht="12.75">
       <c r="A663" s="46"/>
-      <c r="B663" s="77"/>
+      <c r="B663" s="75"/>
       <c r="C663" s="18"/>
     </row>
     <row r="664" spans="1:3" ht="12.75">
       <c r="A664" s="46"/>
-      <c r="B664" s="77"/>
+      <c r="B664" s="75"/>
       <c r="C664" s="18"/>
     </row>
     <row r="665" spans="1:3" ht="12.75">
       <c r="A665" s="46"/>
-      <c r="B665" s="77"/>
+      <c r="B665" s="75"/>
       <c r="C665" s="18"/>
     </row>
     <row r="666" spans="1:3" ht="12.75">
       <c r="A666" s="46"/>
-      <c r="B666" s="77"/>
+      <c r="B666" s="75"/>
       <c r="C666" s="18"/>
     </row>
     <row r="667" spans="1:3" ht="12.75">
       <c r="A667" s="46"/>
-      <c r="B667" s="77"/>
+      <c r="B667" s="75"/>
       <c r="C667" s="18"/>
     </row>
     <row r="668" spans="1:3" ht="12.75">
       <c r="A668" s="46"/>
-      <c r="B668" s="77"/>
+      <c r="B668" s="75"/>
       <c r="C668" s="18"/>
     </row>
     <row r="669" spans="1:3" ht="12.75">
       <c r="A669" s="46"/>
-      <c r="B669" s="77"/>
+      <c r="B669" s="75"/>
       <c r="C669" s="18"/>
     </row>
     <row r="670" spans="1:3" ht="12.75">
       <c r="A670" s="46"/>
-      <c r="B670" s="77"/>
+      <c r="B670" s="75"/>
       <c r="C670" s="18"/>
     </row>
     <row r="671" spans="1:3" ht="12.75">
       <c r="A671" s="46"/>
-      <c r="B671" s="77"/>
+      <c r="B671" s="75"/>
       <c r="C671" s="18"/>
     </row>
     <row r="672" spans="1:3" ht="12.75">
       <c r="A672" s="46"/>
-      <c r="B672" s="77"/>
+      <c r="B672" s="75"/>
       <c r="C672" s="18"/>
     </row>
     <row r="673" spans="1:3" ht="12.75">
       <c r="A673" s="46"/>
-      <c r="B673" s="77"/>
+      <c r="B673" s="75"/>
       <c r="C673" s="18"/>
     </row>
     <row r="674" spans="1:3" ht="12.75">
       <c r="A674" s="46"/>
-      <c r="B674" s="77"/>
+      <c r="B674" s="75"/>
       <c r="C674" s="18"/>
     </row>
     <row r="675" spans="1:3" ht="12.75">
       <c r="A675" s="46"/>
-      <c r="B675" s="77"/>
+      <c r="B675" s="75"/>
       <c r="C675" s="18"/>
     </row>
     <row r="676" spans="1:3" ht="12.75">
       <c r="A676" s="46"/>
-      <c r="B676" s="77"/>
+      <c r="B676" s="75"/>
       <c r="C676" s="18"/>
     </row>
     <row r="677" spans="1:3" ht="12.75">
       <c r="A677" s="46"/>
-      <c r="B677" s="77"/>
+      <c r="B677" s="75"/>
       <c r="C677" s="18"/>
     </row>
     <row r="678" spans="1:3" ht="12.75">
       <c r="A678" s="46"/>
-      <c r="B678" s="77"/>
+      <c r="B678" s="75"/>
       <c r="C678" s="18"/>
     </row>
     <row r="679" spans="1:3" ht="12.75">
       <c r="A679" s="46"/>
-      <c r="B679" s="77"/>
+      <c r="B679" s="75"/>
       <c r="C679" s="18"/>
     </row>
     <row r="680" spans="1:3" ht="12.75">
       <c r="A680" s="46"/>
-      <c r="B680" s="77"/>
+      <c r="B680" s="75"/>
       <c r="C680" s="18"/>
     </row>
     <row r="681" spans="1:3" ht="12.75">
       <c r="A681" s="46"/>
-      <c r="B681" s="77"/>
+      <c r="B681" s="75"/>
       <c r="C681" s="18"/>
     </row>
     <row r="682" spans="1:3" ht="12.75">
       <c r="A682" s="46"/>
-      <c r="B682" s="77"/>
+      <c r="B682" s="75"/>
       <c r="C682" s="18"/>
     </row>
     <row r="683" spans="1:3" ht="12.75">
       <c r="A683" s="46"/>
-      <c r="B683" s="77"/>
+      <c r="B683" s="75"/>
       <c r="C683" s="18"/>
     </row>
     <row r="684" spans="1:3" ht="12.75">
       <c r="A684" s="46"/>
-      <c r="B684" s="77"/>
+      <c r="B684" s="75"/>
       <c r="C684" s="18"/>
     </row>
     <row r="685" spans="1:3" ht="12.75">
       <c r="A685" s="46"/>
-      <c r="B685" s="77"/>
+      <c r="B685" s="75"/>
       <c r="C685" s="18"/>
     </row>
     <row r="686" spans="1:3" ht="12.75">
       <c r="A686" s="46"/>
-      <c r="B686" s="77"/>
+      <c r="B686" s="75"/>
       <c r="C686" s="18"/>
     </row>
     <row r="687" spans="1:3" ht="12.75">
       <c r="A687" s="46"/>
-      <c r="B687" s="77"/>
+      <c r="B687" s="75"/>
       <c r="C687" s="18"/>
     </row>
     <row r="688" spans="1:3" ht="12.75">
       <c r="A688" s="46"/>
-      <c r="B688" s="77"/>
+      <c r="B688" s="75"/>
       <c r="C688" s="18"/>
     </row>
     <row r="689" spans="1:3" ht="12.75">
       <c r="A689" s="46"/>
-      <c r="B689" s="77"/>
+      <c r="B689" s="75"/>
       <c r="C689" s="18"/>
     </row>
     <row r="690" spans="1:3" ht="12.75">
       <c r="A690" s="46"/>
-      <c r="B690" s="77"/>
+      <c r="B690" s="75"/>
       <c r="C690" s="18"/>
     </row>
     <row r="691" spans="1:3" ht="12.75">
       <c r="A691" s="46"/>
-      <c r="B691" s="77"/>
+      <c r="B691" s="75"/>
       <c r="C691" s="18"/>
     </row>
     <row r="692" spans="1:3" ht="12.75">
       <c r="A692" s="46"/>
-      <c r="B692" s="77"/>
+      <c r="B692" s="75"/>
       <c r="C692" s="18"/>
     </row>
     <row r="693" spans="1:3" ht="12.75">
       <c r="A693" s="46"/>
-      <c r="B693" s="77"/>
+      <c r="B693" s="75"/>
       <c r="C693" s="18"/>
     </row>
     <row r="694" spans="1:3" ht="12.75">
       <c r="A694" s="46"/>
-      <c r="B694" s="77"/>
+      <c r="B694" s="75"/>
       <c r="C694" s="18"/>
     </row>
     <row r="695" spans="1:3" ht="12.75">
       <c r="A695" s="46"/>
-      <c r="B695" s="77"/>
+      <c r="B695" s="75"/>
       <c r="C695" s="18"/>
     </row>
     <row r="696" spans="1:3" ht="12.75">
       <c r="A696" s="46"/>
-      <c r="B696" s="77"/>
+      <c r="B696" s="75"/>
       <c r="C696" s="18"/>
     </row>
     <row r="697" spans="1:3" ht="12.75">
       <c r="A697" s="46"/>
-      <c r="B697" s="77"/>
+      <c r="B697" s="75"/>
       <c r="C697" s="18"/>
     </row>
     <row r="698" spans="1:3" ht="12.75">
       <c r="A698" s="46"/>
-      <c r="B698" s="77"/>
+      <c r="B698" s="75"/>
       <c r="C698" s="18"/>
     </row>
     <row r="699" spans="1:3" ht="12.75">
       <c r="A699" s="46"/>
-      <c r="B699" s="77"/>
+      <c r="B699" s="75"/>
       <c r="C699" s="18"/>
     </row>
     <row r="700" spans="1:3" ht="12.75">
       <c r="A700" s="46"/>
-      <c r="B700" s="77"/>
+      <c r="B700" s="75"/>
       <c r="C700" s="18"/>
     </row>
     <row r="701" spans="1:3" ht="12.75">
       <c r="A701" s="46"/>
-      <c r="B701" s="77"/>
+      <c r="B701" s="75"/>
       <c r="C701" s="18"/>
     </row>
     <row r="702" spans="1:3" ht="12.75">
       <c r="A702" s="46"/>
-      <c r="B702" s="77"/>
+      <c r="B702" s="75"/>
       <c r="C702" s="18"/>
     </row>
     <row r="703" spans="1:3" ht="12.75">
       <c r="A703" s="46"/>
-      <c r="B703" s="77"/>
+      <c r="B703" s="75"/>
       <c r="C703" s="18"/>
     </row>
     <row r="704" spans="1:3" ht="12.75">
       <c r="A704" s="46"/>
-      <c r="B704" s="77"/>
+      <c r="B704" s="75"/>
       <c r="C704" s="18"/>
     </row>
     <row r="705" spans="1:3" ht="12.75">
       <c r="A705" s="46"/>
-      <c r="B705" s="77"/>
+      <c r="B705" s="75"/>
       <c r="C705" s="18"/>
     </row>
     <row r="706" spans="1:3" ht="12.75">
       <c r="A706" s="46"/>
-      <c r="B706" s="77"/>
+      <c r="B706" s="75"/>
       <c r="C706" s="18"/>
     </row>
     <row r="707" spans="1:3" ht="12.75">
       <c r="A707" s="46"/>
-      <c r="B707" s="77"/>
+      <c r="B707" s="75"/>
       <c r="C707" s="18"/>
     </row>
     <row r="708" spans="1:3" ht="12.75">
       <c r="A708" s="46"/>
-      <c r="B708" s="77"/>
+      <c r="B708" s="75"/>
       <c r="C708" s="18"/>
     </row>
     <row r="709" spans="1:3" ht="12.75">
       <c r="A709" s="46"/>
-      <c r="B709" s="77"/>
+      <c r="B709" s="75"/>
       <c r="C709" s="18"/>
     </row>
     <row r="710" spans="1:3" ht="12.75">
       <c r="A710" s="46"/>
-      <c r="B710" s="77"/>
+      <c r="B710" s="75"/>
       <c r="C710" s="18"/>
     </row>
     <row r="711" spans="1:3" ht="12.75">
       <c r="A711" s="46"/>
-      <c r="B711" s="77"/>
+      <c r="B711" s="75"/>
       <c r="C711" s="18"/>
     </row>
     <row r="712" spans="1:3" ht="12.75">
       <c r="A712" s="46"/>
-      <c r="B712" s="77"/>
+      <c r="B712" s="75"/>
       <c r="C712" s="18"/>
     </row>
     <row r="713" spans="1:3" ht="12.75">
       <c r="A713" s="46"/>
-      <c r="B713" s="77"/>
+      <c r="B713" s="75"/>
       <c r="C713" s="18"/>
     </row>
     <row r="714" spans="1:3" ht="12.75">
       <c r="A714" s="46"/>
-      <c r="B714" s="77"/>
+      <c r="B714" s="75"/>
       <c r="C714" s="18"/>
     </row>
     <row r="715" spans="1:3" ht="12.75">
       <c r="A715" s="46"/>
-      <c r="B715" s="77"/>
+      <c r="B715" s="75"/>
       <c r="C715" s="18"/>
     </row>
     <row r="716" spans="1:3" ht="12.75">
       <c r="A716" s="46"/>
-      <c r="B716" s="77"/>
+      <c r="B716" s="75"/>
       <c r="C716" s="18"/>
     </row>
     <row r="717" spans="1:3" ht="12.75">
       <c r="A717" s="46"/>
-      <c r="B717" s="77"/>
+      <c r="B717" s="75"/>
       <c r="C717" s="18"/>
     </row>
     <row r="718" spans="1:3" ht="12.75">
       <c r="A718" s="46"/>
-      <c r="B718" s="77"/>
+      <c r="B718" s="75"/>
       <c r="C718" s="18"/>
     </row>
     <row r="719" spans="1:3" ht="12.75">
       <c r="A719" s="46"/>
-      <c r="B719" s="77"/>
+      <c r="B719" s="75"/>
       <c r="C719" s="18"/>
     </row>
     <row r="720" spans="1:3" ht="12.75">
       <c r="A720" s="46"/>
-      <c r="B720" s="77"/>
+      <c r="B720" s="75"/>
       <c r="C720" s="18"/>
     </row>
     <row r="721" spans="1:3" ht="12.75">
       <c r="A721" s="46"/>
-      <c r="B721" s="77"/>
+      <c r="B721" s="75"/>
       <c r="C721" s="18"/>
     </row>
     <row r="722" spans="1:3" ht="12.75">
       <c r="A722" s="46"/>
-      <c r="B722" s="77"/>
+      <c r="B722" s="75"/>
       <c r="C722" s="18"/>
     </row>
     <row r="723" spans="1:3" ht="12.75">
       <c r="A723" s="46"/>
-      <c r="B723" s="77"/>
+      <c r="B723" s="75"/>
       <c r="C723" s="18"/>
     </row>
     <row r="724" spans="1:3" ht="12.75">
       <c r="A724" s="46"/>
-      <c r="B724" s="77"/>
+      <c r="B724" s="75"/>
       <c r="C724" s="18"/>
     </row>
     <row r="725" spans="1:3" ht="12.75">
       <c r="A725" s="46"/>
-      <c r="B725" s="77"/>
+      <c r="B725" s="75"/>
       <c r="C725" s="18"/>
     </row>
     <row r="726" spans="1:3" ht="12.75">
       <c r="A726" s="46"/>
-      <c r="B726" s="77"/>
+      <c r="B726" s="75"/>
       <c r="C726" s="18"/>
     </row>
     <row r="727" spans="1:3" ht="12.75">
       <c r="A727" s="46"/>
-      <c r="B727" s="77"/>
+      <c r="B727" s="75"/>
       <c r="C727" s="18"/>
     </row>
     <row r="728" spans="1:3" ht="12.75">
       <c r="A728" s="46"/>
-      <c r="B728" s="77"/>
+      <c r="B728" s="75"/>
       <c r="C728" s="18"/>
     </row>
     <row r="729" spans="1:3" ht="12.75">
       <c r="A729" s="46"/>
-      <c r="B729" s="77"/>
+      <c r="B729" s="75"/>
       <c r="C729" s="18"/>
     </row>
     <row r="730" spans="1:3" ht="12.75">
       <c r="A730" s="46"/>
-      <c r="B730" s="77"/>
+      <c r="B730" s="75"/>
       <c r="C730" s="18"/>
     </row>
     <row r="731" spans="1:3" ht="12.75">
       <c r="A731" s="46"/>
-      <c r="B731" s="77"/>
+      <c r="B731" s="75"/>
       <c r="C731" s="18"/>
     </row>
     <row r="732" spans="1:3" ht="12.75">
       <c r="A732" s="46"/>
-      <c r="B732" s="77"/>
+      <c r="B732" s="75"/>
       <c r="C732" s="18"/>
     </row>
     <row r="733" spans="1:3" ht="12.75">
       <c r="A733" s="46"/>
-      <c r="B733" s="77"/>
+      <c r="B733" s="75"/>
       <c r="C733" s="18"/>
     </row>
     <row r="734" spans="1:3" ht="12.75">
       <c r="A734" s="46"/>
-      <c r="B734" s="77"/>
+      <c r="B734" s="75"/>
       <c r="C734" s="18"/>
     </row>
     <row r="735" spans="1:3" ht="12.75">
       <c r="A735" s="46"/>
-      <c r="B735" s="77"/>
+      <c r="B735" s="75"/>
       <c r="C735" s="18"/>
     </row>
     <row r="736" spans="1:3" ht="12.75">
       <c r="A736" s="46"/>
-      <c r="B736" s="77"/>
+      <c r="B736" s="75"/>
       <c r="C736" s="18"/>
     </row>
     <row r="737" spans="1:3" ht="12.75">
       <c r="A737" s="46"/>
-      <c r="B737" s="77"/>
+      <c r="B737" s="75"/>
       <c r="C737" s="18"/>
     </row>
     <row r="738" spans="1:3" ht="12.75">
       <c r="A738" s="46"/>
-      <c r="B738" s="77"/>
+      <c r="B738" s="75"/>
       <c r="C738" s="18"/>
     </row>
     <row r="739" spans="1:3" ht="12.75">
       <c r="A739" s="46"/>
-      <c r="B739" s="77"/>
+      <c r="B739" s="75"/>
       <c r="C739" s="18"/>
     </row>
     <row r="740" spans="1:3" ht="12.75">
       <c r="A740" s="46"/>
-      <c r="B740" s="77"/>
+      <c r="B740" s="75"/>
       <c r="C740" s="18"/>
     </row>
     <row r="741" spans="1:3" ht="12.75">
       <c r="A741" s="46"/>
-      <c r="B741" s="77"/>
+      <c r="B741" s="75"/>
       <c r="C741" s="18"/>
     </row>
     <row r="742" spans="1:3" ht="12.75">
       <c r="A742" s="46"/>
-      <c r="B742" s="77"/>
+      <c r="B742" s="75"/>
       <c r="C742" s="18"/>
     </row>
     <row r="743" spans="1:3" ht="12.75">
       <c r="A743" s="46"/>
-      <c r="B743" s="77"/>
+      <c r="B743" s="75"/>
       <c r="C743" s="18"/>
     </row>
     <row r="744" spans="1:3" ht="12.75">
       <c r="A744" s="46"/>
-      <c r="B744" s="77"/>
+      <c r="B744" s="75"/>
       <c r="C744" s="18"/>
     </row>
     <row r="745" spans="1:3" ht="12.75">
       <c r="A745" s="46"/>
-      <c r="B745" s="77"/>
+      <c r="B745" s="75"/>
       <c r="C745" s="18"/>
     </row>
     <row r="746" spans="1:3" ht="12.75">
       <c r="A746" s="46"/>
-      <c r="B746" s="77"/>
+      <c r="B746" s="75"/>
       <c r="C746" s="18"/>
     </row>
     <row r="747" spans="1:3" ht="12.75">
       <c r="A747" s="46"/>
-      <c r="B747" s="77"/>
+      <c r="B747" s="75"/>
       <c r="C747" s="18"/>
     </row>
     <row r="748" spans="1:3" ht="12.75">
       <c r="A748" s="46"/>
-      <c r="B748" s="77"/>
+      <c r="B748" s="75"/>
       <c r="C748" s="18"/>
     </row>
     <row r="749" spans="1:3" ht="12.75">
       <c r="A749" s="46"/>
-      <c r="B749" s="77"/>
+      <c r="B749" s="75"/>
       <c r="C749" s="18"/>
     </row>
     <row r="750" spans="1:3" ht="12.75">
       <c r="A750" s="46"/>
-      <c r="B750" s="77"/>
+      <c r="B750" s="75"/>
       <c r="C750" s="18"/>
     </row>
     <row r="751" spans="1:3" ht="12.75">
       <c r="A751" s="46"/>
-      <c r="B751" s="77"/>
+      <c r="B751" s="75"/>
       <c r="C751" s="18"/>
     </row>
     <row r="752" spans="1:3" ht="12.75">
       <c r="A752" s="46"/>
-      <c r="B752" s="77"/>
+      <c r="B752" s="75"/>
       <c r="C752" s="18"/>
     </row>
     <row r="753" spans="1:3" ht="12.75">
       <c r="A753" s="46"/>
-      <c r="B753" s="77"/>
+      <c r="B753" s="75"/>
       <c r="C753" s="18"/>
     </row>
     <row r="754" spans="1:3" ht="12.75">
       <c r="A754" s="46"/>
-      <c r="B754" s="77"/>
+      <c r="B754" s="75"/>
       <c r="C754" s="18"/>
     </row>
     <row r="755" spans="1:3" ht="12.75">
       <c r="A755" s="46"/>
-      <c r="B755" s="77"/>
+      <c r="B755" s="75"/>
       <c r="C755" s="18"/>
     </row>
     <row r="756" spans="1:3" ht="12.75">
       <c r="A756" s="46"/>
-      <c r="B756" s="77"/>
+      <c r="B756" s="75"/>
       <c r="C756" s="18"/>
     </row>
     <row r="757" spans="1:3" ht="12.75">
       <c r="A757" s="46"/>
-      <c r="B757" s="77"/>
+      <c r="B757" s="75"/>
       <c r="C757" s="18"/>
     </row>
     <row r="758" spans="1:3" ht="12.75">
       <c r="A758" s="46"/>
-      <c r="B758" s="77"/>
+      <c r="B758" s="75"/>
       <c r="C758" s="18"/>
     </row>
     <row r="759" spans="1:3" ht="12.75">
       <c r="A759" s="46"/>
-      <c r="B759" s="77"/>
+      <c r="B759" s="75"/>
       <c r="C759" s="18"/>
     </row>
     <row r="760" spans="1:3" ht="12.75">
       <c r="A760" s="46"/>
-      <c r="B760" s="77"/>
+      <c r="B760" s="75"/>
       <c r="C760" s="18"/>
     </row>
     <row r="761" spans="1:3" ht="12.75">
       <c r="A761" s="46"/>
-      <c r="B761" s="77"/>
+      <c r="B761" s="75"/>
       <c r="C761" s="18"/>
     </row>
     <row r="762" spans="1:3" ht="12.75">
       <c r="A762" s="46"/>
-      <c r="B762" s="77"/>
+      <c r="B762" s="75"/>
       <c r="C762" s="18"/>
     </row>
     <row r="763" spans="1:3" ht="12.75">
       <c r="A763" s="46"/>
-      <c r="B763" s="77"/>
+      <c r="B763" s="75"/>
       <c r="C763" s="18"/>
     </row>
     <row r="764" spans="1:3" ht="12.75">
       <c r="A764" s="46"/>
-      <c r="B764" s="77"/>
+      <c r="B764" s="75"/>
       <c r="C764" s="18"/>
     </row>
     <row r="765" spans="1:3" ht="12.75">
       <c r="A765" s="46"/>
-      <c r="B765" s="77"/>
+      <c r="B765" s="75"/>
       <c r="C765" s="18"/>
     </row>
     <row r="766" spans="1:3" ht="12.75">
       <c r="A766" s="46"/>
-      <c r="B766" s="77"/>
+      <c r="B766" s="75"/>
       <c r="C766" s="18"/>
     </row>
     <row r="767" spans="1:3" ht="12.75">
       <c r="A767" s="46"/>
-      <c r="B767" s="77"/>
+      <c r="B767" s="75"/>
       <c r="C767" s="18"/>
     </row>
     <row r="768" spans="1:3" ht="12.75">
       <c r="A768" s="46"/>
-      <c r="B768" s="77"/>
+      <c r="B768" s="75"/>
       <c r="C768" s="18"/>
     </row>
     <row r="769" spans="1:3" ht="12.75">
       <c r="A769" s="46"/>
-      <c r="B769" s="77"/>
+      <c r="B769" s="75"/>
       <c r="C769" s="18"/>
     </row>
     <row r="770" spans="1:3" ht="12.75">
       <c r="A770" s="46"/>
-      <c r="B770" s="77"/>
+      <c r="B770" s="75"/>
       <c r="C770" s="18"/>
     </row>
     <row r="771" spans="1:3" ht="12.75">
       <c r="A771" s="46"/>
-      <c r="B771" s="77"/>
+      <c r="B771" s="75"/>
       <c r="C771" s="18"/>
     </row>
     <row r="772" spans="1:3" ht="12.75">
       <c r="A772" s="46"/>
-      <c r="B772" s="77"/>
+      <c r="B772" s="75"/>
       <c r="C772" s="18"/>
     </row>
     <row r="773" spans="1:3" ht="12.75">
       <c r="A773" s="46"/>
-      <c r="B773" s="77"/>
+      <c r="B773" s="75"/>
       <c r="C773" s="18"/>
     </row>
     <row r="774" spans="1:3" ht="12.75">
       <c r="A774" s="46"/>
-      <c r="B774" s="77"/>
+      <c r="B774" s="75"/>
       <c r="C774" s="18"/>
     </row>
     <row r="775" spans="1:3" ht="12.75">
       <c r="A775" s="46"/>
-      <c r="B775" s="77"/>
+      <c r="B775" s="75"/>
       <c r="C775" s="18"/>
     </row>
     <row r="776" spans="1:3" ht="12.75">
       <c r="A776" s="46"/>
-      <c r="B776" s="77"/>
+      <c r="B776" s="75"/>
       <c r="C776" s="18"/>
     </row>
     <row r="777" spans="1:3" ht="12.75">
       <c r="A777" s="46"/>
-      <c r="B777" s="77"/>
+      <c r="B777" s="75"/>
       <c r="C777" s="18"/>
     </row>
     <row r="778" spans="1:3" ht="12.75">
       <c r="A778" s="46"/>
-      <c r="B778" s="77"/>
+      <c r="B778" s="75"/>
       <c r="C778" s="18"/>
     </row>
     <row r="779" spans="1:3" ht="12.75">
       <c r="A779" s="46"/>
-      <c r="B779" s="77"/>
+      <c r="B779" s="75"/>
       <c r="C779" s="18"/>
     </row>
     <row r="780" spans="1:3" ht="12.75">
       <c r="A780" s="46"/>
-      <c r="B780" s="77"/>
+      <c r="B780" s="75"/>
       <c r="C780" s="18"/>
     </row>
     <row r="781" spans="1:3" ht="12.75">
       <c r="A781" s="46"/>
-      <c r="B781" s="77"/>
+      <c r="B781" s="75"/>
       <c r="C781" s="18"/>
     </row>
     <row r="782" spans="1:3" ht="12.75">
       <c r="A782" s="46"/>
-      <c r="B782" s="77"/>
+      <c r="B782" s="75"/>
       <c r="C782" s="18"/>
     </row>
     <row r="783" spans="1:3" ht="12.75">
       <c r="A783" s="46"/>
-      <c r="B783" s="77"/>
+      <c r="B783" s="75"/>
       <c r="C783" s="18"/>
     </row>
     <row r="784" spans="1:3" ht="12.75">
       <c r="A784" s="46"/>
-      <c r="B784" s="77"/>
+      <c r="B784" s="75"/>
       <c r="C784" s="18"/>
     </row>
     <row r="785" spans="1:3" ht="12.75">
       <c r="A785" s="46"/>
-      <c r="B785" s="77"/>
+      <c r="B785" s="75"/>
       <c r="C785" s="18"/>
     </row>
     <row r="786" spans="1:3" ht="12.75">
       <c r="A786" s="46"/>
-      <c r="B786" s="77"/>
+      <c r="B786" s="75"/>
       <c r="C786" s="18"/>
     </row>
     <row r="787" spans="1:3" ht="12.75">
       <c r="A787" s="46"/>
-      <c r="B787" s="77"/>
+      <c r="B787" s="75"/>
       <c r="C787" s="18"/>
     </row>
     <row r="788" spans="1:3" ht="12.75">
       <c r="A788" s="46"/>
-      <c r="B788" s="77"/>
+      <c r="B788" s="75"/>
       <c r="C788" s="18"/>
     </row>
     <row r="789" spans="1:3" ht="12.75">
       <c r="A789" s="46"/>
-      <c r="B789" s="77"/>
+      <c r="B789" s="75"/>
       <c r="C789" s="18"/>
     </row>
     <row r="790" spans="1:3" ht="12.75">
       <c r="A790" s="46"/>
-      <c r="B790" s="77"/>
+      <c r="B790" s="75"/>
       <c r="C790" s="18"/>
     </row>
     <row r="791" spans="1:3" ht="12.75">
       <c r="A791" s="46"/>
-      <c r="B791" s="77"/>
+      <c r="B791" s="75"/>
       <c r="C791" s="18"/>
     </row>
     <row r="792" spans="1:3" ht="12.75">
       <c r="A792" s="46"/>
-      <c r="B792" s="77"/>
+      <c r="B792" s="75"/>
       <c r="C792" s="18"/>
     </row>
     <row r="793" spans="1:3" ht="12.75">
       <c r="A793" s="46"/>
-      <c r="B793" s="77"/>
+      <c r="B793" s="75"/>
       <c r="C793" s="18"/>
     </row>
     <row r="794" spans="1:3" ht="12.75">
       <c r="A794" s="46"/>
-      <c r="B794" s="77"/>
+      <c r="B794" s="75"/>
       <c r="C794" s="18"/>
     </row>
     <row r="795" spans="1:3" ht="12.75">
       <c r="A795" s="46"/>
-      <c r="B795" s="77"/>
+      <c r="B795" s="75"/>
       <c r="C795" s="18"/>
     </row>
     <row r="796" spans="1:3" ht="12.75">
       <c r="A796" s="46"/>
-      <c r="B796" s="77"/>
+      <c r="B796" s="75"/>
       <c r="C796" s="18"/>
     </row>
     <row r="797" spans="1:3" ht="12.75">
       <c r="A797" s="46"/>
-      <c r="B797" s="77"/>
+      <c r="B797" s="75"/>
       <c r="C797" s="18"/>
     </row>
     <row r="798" spans="1:3" ht="12.75">
       <c r="A798" s="46"/>
-      <c r="B798" s="77"/>
+      <c r="B798" s="75"/>
       <c r="C798" s="18"/>
     </row>
     <row r="799" spans="1:3" ht="12.75">
       <c r="A799" s="46"/>
-      <c r="B799" s="77"/>
+      <c r="B799" s="75"/>
       <c r="C799" s="18"/>
     </row>
     <row r="800" spans="1:3" ht="12.75">
       <c r="A800" s="46"/>
-      <c r="B800" s="77"/>
+      <c r="B800" s="75"/>
       <c r="C800" s="18"/>
     </row>
     <row r="801" spans="1:3" ht="12.75">
       <c r="A801" s="46"/>
-      <c r="B801" s="77"/>
+      <c r="B801" s="75"/>
       <c r="C801" s="18"/>
     </row>
     <row r="802" spans="1:3" ht="12.75">
       <c r="A802" s="46"/>
-      <c r="B802" s="77"/>
+      <c r="B802" s="75"/>
       <c r="C802" s="18"/>
     </row>
     <row r="803" spans="1:3" ht="12.75">
       <c r="A803" s="46"/>
-      <c r="B803" s="77"/>
+      <c r="B803" s="75"/>
       <c r="C803" s="18"/>
     </row>
     <row r="804" spans="1:3" ht="12.75">
       <c r="A804" s="46"/>
-      <c r="B804" s="77"/>
+      <c r="B804" s="75"/>
       <c r="C804" s="18"/>
     </row>
     <row r="805" spans="1:3" ht="12.75">
       <c r="A805" s="46"/>
-      <c r="B805" s="77"/>
+      <c r="B805" s="75"/>
       <c r="C805" s="18"/>
     </row>
     <row r="806" spans="1:3" ht="12.75">
       <c r="A806" s="46"/>
-      <c r="B806" s="77"/>
+      <c r="B806" s="75"/>
       <c r="C806" s="18"/>
     </row>
     <row r="807" spans="1:3" ht="12.75">
       <c r="A807" s="46"/>
-      <c r="B807" s="77"/>
+      <c r="B807" s="75"/>
       <c r="C807" s="18"/>
     </row>
     <row r="808" spans="1:3" ht="12.75">
       <c r="A808" s="46"/>
-      <c r="B808" s="77"/>
+      <c r="B808" s="75"/>
       <c r="C808" s="18"/>
     </row>
     <row r="809" spans="1:3" ht="12.75">
       <c r="A809" s="46"/>
-      <c r="B809" s="77"/>
+      <c r="B809" s="75"/>
       <c r="C809" s="18"/>
     </row>
     <row r="810" spans="1:3" ht="12.75">
       <c r="A810" s="46"/>
-      <c r="B810" s="77"/>
+      <c r="B810" s="75"/>
       <c r="C810" s="18"/>
     </row>
     <row r="811" spans="1:3" ht="12.75">
       <c r="A811" s="46"/>
-      <c r="B811" s="77"/>
+      <c r="B811" s="75"/>
       <c r="C811" s="18"/>
     </row>
     <row r="812" spans="1:3" ht="12.75">
       <c r="A812" s="46"/>
-      <c r="B812" s="77"/>
+      <c r="B812" s="75"/>
       <c r="C812" s="18"/>
     </row>
     <row r="813" spans="1:3" ht="12.75">
       <c r="A813" s="46"/>
-      <c r="B813" s="77"/>
+      <c r="B813" s="75"/>
       <c r="C813" s="18"/>
     </row>
     <row r="814" spans="1:3" ht="12.75">
       <c r="A814" s="46"/>
-      <c r="B814" s="77"/>
+      <c r="B814" s="75"/>
       <c r="C814" s="18"/>
     </row>
     <row r="815" spans="1:3" ht="12.75">
       <c r="A815" s="46"/>
-      <c r="B815" s="77"/>
+      <c r="B815" s="75"/>
       <c r="C815" s="18"/>
     </row>
     <row r="816" spans="1:3" ht="12.75">
       <c r="A816" s="46"/>
-      <c r="B816" s="77"/>
+      <c r="B816" s="75"/>
       <c r="C816" s="18"/>
     </row>
     <row r="817" spans="1:3" ht="12.75">
       <c r="A817" s="46"/>
-      <c r="B817" s="77"/>
+      <c r="B817" s="75"/>
       <c r="C817" s="18"/>
     </row>
     <row r="818" spans="1:3" ht="12.75">
       <c r="A818" s="46"/>
-      <c r="B818" s="77"/>
+      <c r="B818" s="75"/>
       <c r="C818" s="18"/>
     </row>
     <row r="819" spans="1:3" ht="12.75">
       <c r="A819" s="46"/>
-      <c r="B819" s="77"/>
+      <c r="B819" s="75"/>
       <c r="C819" s="18"/>
     </row>
     <row r="820" spans="1:3" ht="12.75">
       <c r="A820" s="46"/>
-      <c r="B820" s="77"/>
+      <c r="B820" s="75"/>
       <c r="C820" s="18"/>
     </row>
     <row r="821" spans="1:3" ht="12.75">
       <c r="A821" s="46"/>
-      <c r="B821" s="77"/>
+      <c r="B821" s="75"/>
       <c r="C821" s="18"/>
     </row>
     <row r="822" spans="1:3" ht="12.75">
       <c r="A822" s="46"/>
-      <c r="B822" s="77"/>
+      <c r="B822" s="75"/>
       <c r="C822" s="18"/>
     </row>
     <row r="823" spans="1:3" ht="12.75">
       <c r="A823" s="46"/>
-      <c r="B823" s="77"/>
+      <c r="B823" s="75"/>
       <c r="C823" s="18"/>
     </row>
     <row r="824" spans="1:3" ht="12.75">
       <c r="A824" s="46"/>
-      <c r="B824" s="77"/>
+      <c r="B824" s="75"/>
       <c r="C824" s="18"/>
     </row>
     <row r="825" spans="1:3" ht="12.75">
       <c r="A825" s="46"/>
-      <c r="B825" s="77"/>
+      <c r="B825" s="75"/>
       <c r="C825" s="18"/>
     </row>
     <row r="826" spans="1:3" ht="12.75">
       <c r="A826" s="46"/>
-      <c r="B826" s="77"/>
+      <c r="B826" s="75"/>
       <c r="C826" s="18"/>
     </row>
     <row r="827" spans="1:3" ht="12.75">
       <c r="A827" s="46"/>
-      <c r="B827" s="77"/>
+      <c r="B827" s="75"/>
       <c r="C827" s="18"/>
     </row>
     <row r="828" spans="1:3" ht="12.75">
       <c r="A828" s="46"/>
-      <c r="B828" s="77"/>
+      <c r="B828" s="75"/>
       <c r="C828" s="18"/>
     </row>
     <row r="829" spans="1:3" ht="12.75">
       <c r="A829" s="46"/>
-      <c r="B829" s="77"/>
+      <c r="B829" s="75"/>
       <c r="C829" s="18"/>
     </row>
     <row r="830" spans="1:3" ht="12.75">
       <c r="A830" s="46"/>
-      <c r="B830" s="77"/>
+      <c r="B830" s="75"/>
       <c r="C830" s="18"/>
     </row>
     <row r="831" spans="1:3" ht="12.75">
       <c r="A831" s="46"/>
-      <c r="B831" s="77"/>
+      <c r="B831" s="75"/>
       <c r="C831" s="18"/>
     </row>
     <row r="832" spans="1:3" ht="12.75">
       <c r="A832" s="46"/>
-      <c r="B832" s="77"/>
+      <c r="B832" s="75"/>
       <c r="C832" s="18"/>
     </row>
     <row r="833" spans="1:3" ht="12.75">
       <c r="A833" s="46"/>
-      <c r="B833" s="77"/>
+      <c r="B833" s="75"/>
       <c r="C833" s="18"/>
     </row>
     <row r="834" spans="1:3" ht="12.75">
       <c r="A834" s="46"/>
-      <c r="B834" s="77"/>
+      <c r="B834" s="75"/>
       <c r="C834" s="18"/>
     </row>
     <row r="835" spans="1:3" ht="12.75">
       <c r="A835" s="46"/>
-      <c r="B835" s="77"/>
+      <c r="B835" s="75"/>
       <c r="C835" s="18"/>
     </row>
     <row r="836" spans="1:3" ht="12.75">
       <c r="A836" s="46"/>
-      <c r="B836" s="77"/>
+      <c r="B836" s="75"/>
       <c r="C836" s="18"/>
     </row>
     <row r="837" spans="1:3" ht="12.75">
       <c r="A837" s="46"/>
-      <c r="B837" s="77"/>
+      <c r="B837" s="75"/>
       <c r="C837" s="18"/>
     </row>
     <row r="838" spans="1:3" ht="12.75">
       <c r="A838" s="46"/>
-      <c r="B838" s="77"/>
+      <c r="B838" s="75"/>
       <c r="C838" s="18"/>
     </row>
     <row r="839" spans="1:3" ht="12.75">
       <c r="A839" s="46"/>
-      <c r="B839" s="77"/>
+      <c r="B839" s="75"/>
       <c r="C839" s="18"/>
     </row>
     <row r="840" spans="1:3" ht="12.75">
       <c r="A840" s="46"/>
-      <c r="B840" s="77"/>
+      <c r="B840" s="75"/>
       <c r="C840" s="18"/>
     </row>
     <row r="841" spans="1:3" ht="12.75">
       <c r="A841" s="46"/>
-      <c r="B841" s="77"/>
+      <c r="B841" s="75"/>
       <c r="C841" s="18"/>
     </row>
     <row r="842" spans="1:3" ht="12.75">
       <c r="A842" s="46"/>
-      <c r="B842" s="77"/>
+      <c r="B842" s="75"/>
       <c r="C842" s="18"/>
     </row>
     <row r="843" spans="1:3" ht="12.75">
       <c r="A843" s="46"/>
-      <c r="B843" s="77"/>
+      <c r="B843" s="75"/>
       <c r="C843" s="18"/>
     </row>
     <row r="844" spans="1:3" ht="12.75">
       <c r="A844" s="46"/>
-      <c r="B844" s="77"/>
+      <c r="B844" s="75"/>
       <c r="C844" s="18"/>
     </row>
     <row r="845" spans="1:3" ht="12.75">
       <c r="A845" s="46"/>
-      <c r="B845" s="77"/>
+      <c r="B845" s="75"/>
       <c r="C845" s="18"/>
     </row>
     <row r="846" spans="1:3" ht="12.75">
       <c r="A846" s="46"/>
-      <c r="B846" s="77"/>
+      <c r="B846" s="75"/>
       <c r="C846" s="18"/>
     </row>
     <row r="847" spans="1:3" ht="12.75">
       <c r="A847" s="46"/>
-      <c r="B847" s="77"/>
+      <c r="B847" s="75"/>
       <c r="C847" s="18"/>
     </row>
     <row r="848" spans="1:3" ht="12.75">
       <c r="A848" s="46"/>
-      <c r="B848" s="77"/>
+      <c r="B848" s="75"/>
       <c r="C848" s="18"/>
     </row>
     <row r="849" spans="1:3" ht="12.75">
       <c r="A849" s="46"/>
-      <c r="B849" s="77"/>
+      <c r="B849" s="75"/>
       <c r="C849" s="18"/>
     </row>
     <row r="850" spans="1:3" ht="12.75">
       <c r="A850" s="46"/>
-      <c r="B850" s="77"/>
+      <c r="B850" s="75"/>
       <c r="C850" s="18"/>
     </row>
     <row r="851" spans="1:3" ht="12.75">
       <c r="A851" s="46"/>
-      <c r="B851" s="77"/>
+      <c r="B851" s="75"/>
       <c r="C851" s="18"/>
     </row>
     <row r="852" spans="1:3" ht="12.75">
       <c r="A852" s="46"/>
-      <c r="B852" s="77"/>
+      <c r="B852" s="75"/>
       <c r="C852" s="18"/>
     </row>
     <row r="853" spans="1:3" ht="12.75">
       <c r="A853" s="46"/>
-      <c r="B853" s="77"/>
+      <c r="B853" s="75"/>
       <c r="C853" s="18"/>
     </row>
     <row r="854" spans="1:3" ht="12.75">
       <c r="A854" s="46"/>
-      <c r="B854" s="77"/>
+      <c r="B854" s="75"/>
       <c r="C854" s="18"/>
     </row>
     <row r="855" spans="1:3" ht="12.75">
       <c r="A855" s="46"/>
-      <c r="B855" s="77"/>
+      <c r="B855" s="75"/>
       <c r="C855" s="18"/>
     </row>
     <row r="856" spans="1:3" ht="12.75">
       <c r="A856" s="46"/>
-      <c r="B856" s="77"/>
+      <c r="B856" s="75"/>
       <c r="C856" s="18"/>
     </row>
     <row r="857" spans="1:3" ht="12.75">
       <c r="A857" s="46"/>
-      <c r="B857" s="77"/>
+      <c r="B857" s="75"/>
       <c r="C857" s="18"/>
     </row>
     <row r="858" spans="1:3" ht="12.75">
       <c r="A858" s="46"/>
-      <c r="B858" s="77"/>
+      <c r="B858" s="75"/>
       <c r="C858" s="18"/>
     </row>
     <row r="859" spans="1:3" ht="12.75">
       <c r="A859" s="46"/>
-      <c r="B859" s="77"/>
+      <c r="B859" s="75"/>
       <c r="C859" s="18"/>
     </row>
     <row r="860" spans="1:3" ht="12.75">
       <c r="A860" s="46"/>
-      <c r="B860" s="77"/>
+      <c r="B860" s="75"/>
       <c r="C860" s="18"/>
     </row>
     <row r="861" spans="1:3" ht="12.75">
       <c r="A861" s="46"/>
-      <c r="B861" s="77"/>
+      <c r="B861" s="75"/>
       <c r="C861" s="18"/>
     </row>
     <row r="862" spans="1:3" ht="12.75">
       <c r="A862" s="46"/>
-      <c r="B862" s="77"/>
+      <c r="B862" s="75"/>
       <c r="C862" s="18"/>
     </row>
     <row r="863" spans="1:3" ht="12.75">
       <c r="A863" s="46"/>
-      <c r="B863" s="77"/>
+      <c r="B863" s="75"/>
       <c r="C863" s="18"/>
     </row>
     <row r="864" spans="1:3" ht="12.75">
       <c r="A864" s="46"/>
-      <c r="B864" s="77"/>
+      <c r="B864" s="75"/>
       <c r="C864" s="18"/>
     </row>
     <row r="865" spans="1:3" ht="12.75">
       <c r="A865" s="46"/>
-      <c r="B865" s="77"/>
+      <c r="B865" s="75"/>
       <c r="C865" s="18"/>
     </row>
     <row r="866" spans="1:3" ht="12.75">
       <c r="A866" s="46"/>
-      <c r="B866" s="77"/>
+      <c r="B866" s="75"/>
       <c r="C866" s="18"/>
     </row>
     <row r="867" spans="1:3" ht="12.75">
       <c r="A867" s="46"/>
-      <c r="B867" s="77"/>
+      <c r="B867" s="75"/>
       <c r="C867" s="18"/>
     </row>
     <row r="868" spans="1:3" ht="12.75">
       <c r="A868" s="46"/>
-      <c r="B868" s="77"/>
+      <c r="B868" s="75"/>
       <c r="C868" s="18"/>
     </row>
     <row r="869" spans="1:3" ht="12.75">
       <c r="A869" s="46"/>
-      <c r="B869" s="77"/>
+      <c r="B869" s="75"/>
       <c r="C869" s="18"/>
     </row>
     <row r="870" spans="1:3" ht="12.75">
       <c r="A870" s="46"/>
-      <c r="B870" s="77"/>
+      <c r="B870" s="75"/>
       <c r="C870" s="18"/>
     </row>
     <row r="871" spans="1:3" ht="12.75">
       <c r="A871" s="46"/>
-      <c r="B871" s="77"/>
+      <c r="B871" s="75"/>
       <c r="C871" s="18"/>
     </row>
     <row r="872" spans="1:3" ht="12.75">
       <c r="A872" s="46"/>
-      <c r="B872" s="77"/>
+      <c r="B872" s="75"/>
       <c r="C872" s="18"/>
     </row>
     <row r="873" spans="1:3" ht="12.75">
       <c r="A873" s="46"/>
-      <c r="B873" s="77"/>
+      <c r="B873" s="75"/>
       <c r="C873" s="18"/>
     </row>
     <row r="874" spans="1:3" ht="12.75">
       <c r="A874" s="46"/>
-      <c r="B874" s="77"/>
+      <c r="B874" s="75"/>
       <c r="C874" s="18"/>
     </row>
     <row r="875" spans="1:3" ht="12.75">
       <c r="A875" s="46"/>
-      <c r="B875" s="77"/>
+      <c r="B875" s="75"/>
       <c r="C875" s="18"/>
     </row>
     <row r="876" spans="1:3" ht="12.75">
       <c r="A876" s="46"/>
-      <c r="B876" s="77"/>
+      <c r="B876" s="75"/>
       <c r="C876" s="18"/>
     </row>
     <row r="877" spans="1:3" ht="12.75">
       <c r="A877" s="46"/>
-      <c r="B877" s="77"/>
+      <c r="B877" s="75"/>
       <c r="C877" s="18"/>
     </row>
     <row r="878" spans="1:3" ht="12.75">
       <c r="A878" s="46"/>
-      <c r="B878" s="77"/>
+      <c r="B878" s="75"/>
       <c r="C878" s="18"/>
     </row>
     <row r="879" spans="1:3" ht="12.75">
       <c r="A879" s="46"/>
-      <c r="B879" s="77"/>
+      <c r="B879" s="75"/>
       <c r="C879" s="18"/>
     </row>
     <row r="880" spans="1:3" ht="12.75">
       <c r="A880" s="46"/>
-      <c r="B880" s="77"/>
+      <c r="B880" s="75"/>
       <c r="C880" s="18"/>
     </row>
     <row r="881" spans="1:3" ht="12.75">
       <c r="A881" s="46"/>
-      <c r="B881" s="77"/>
+      <c r="B881" s="75"/>
       <c r="C881" s="18"/>
     </row>
     <row r="882" spans="1:3" ht="12.75">
       <c r="A882" s="46"/>
-      <c r="B882" s="77"/>
+      <c r="B882" s="75"/>
       <c r="C882" s="18"/>
     </row>
     <row r="883" spans="1:3" ht="12.75">
       <c r="A883" s="46"/>
-      <c r="B883" s="77"/>
+      <c r="B883" s="75"/>
       <c r="C883" s="18"/>
     </row>
     <row r="884" spans="1:3" ht="12.75">
       <c r="A884" s="46"/>
-      <c r="B884" s="77"/>
+      <c r="B884" s="75"/>
       <c r="C884" s="18"/>
     </row>
     <row r="885" spans="1:3" ht="12.75">
       <c r="A885" s="46"/>
-      <c r="B885" s="77"/>
+      <c r="B885" s="75"/>
       <c r="C885" s="18"/>
     </row>
     <row r="886" spans="1:3" ht="12.75">
       <c r="A886" s="46"/>
-      <c r="B886" s="77"/>
+      <c r="B886" s="75"/>
       <c r="C886" s="18"/>
     </row>
     <row r="887" spans="1:3" ht="12.75">
       <c r="A887" s="46"/>
-      <c r="B887" s="77"/>
+      <c r="B887" s="75"/>
       <c r="C887" s="18"/>
     </row>
     <row r="888" spans="1:3" ht="12.75">
       <c r="A888" s="46"/>
-      <c r="B888" s="77"/>
+      <c r="B888" s="75"/>
       <c r="C888" s="18"/>
     </row>
     <row r="889" spans="1:3" ht="12.75">
       <c r="A889" s="46"/>
-      <c r="B889" s="77"/>
+      <c r="B889" s="75"/>
       <c r="C889" s="18"/>
     </row>
     <row r="890" spans="1:3" ht="12.75">
       <c r="A890" s="46"/>
-      <c r="B890" s="77"/>
+      <c r="B890" s="75"/>
       <c r="C890" s="18"/>
     </row>
     <row r="891" spans="1:3" ht="12.75">
       <c r="A891" s="46"/>
-      <c r="B891" s="77"/>
+      <c r="B891" s="75"/>
       <c r="C891" s="18"/>
     </row>
     <row r="892" spans="1:3" ht="12.75">
       <c r="A892" s="46"/>
-      <c r="B892" s="77"/>
+      <c r="B892" s="75"/>
       <c r="C892" s="18"/>
     </row>
     <row r="893" spans="1:3" ht="12.75">
       <c r="A893" s="46"/>
-      <c r="B893" s="77"/>
+      <c r="B893" s="75"/>
       <c r="C893" s="18"/>
     </row>
     <row r="894" spans="1:3" ht="12.75">
       <c r="A894" s="46"/>
-      <c r="B894" s="77"/>
+      <c r="B894" s="75"/>
       <c r="C894" s="18"/>
     </row>
     <row r="895" spans="1:3" ht="12.75">
       <c r="A895" s="46"/>
-      <c r="B895" s="77"/>
+      <c r="B895" s="75"/>
       <c r="C895" s="18"/>
     </row>
     <row r="896" spans="1:3" ht="12.75">
       <c r="A896" s="46"/>
-      <c r="B896" s="77"/>
+      <c r="B896" s="75"/>
       <c r="C896" s="18"/>
     </row>
     <row r="897" spans="1:3" ht="12.75">
       <c r="A897" s="46"/>
-      <c r="B897" s="77"/>
+      <c r="B897" s="75"/>
       <c r="C897" s="18"/>
     </row>
     <row r="898" spans="1:3" ht="12.75">
       <c r="A898" s="46"/>
-      <c r="B898" s="77"/>
+      <c r="B898" s="75"/>
       <c r="C898" s="18"/>
     </row>
     <row r="899" spans="1:3" ht="12.75">
       <c r="A899" s="46"/>
-      <c r="B899" s="77"/>
+      <c r="B899" s="75"/>
       <c r="C899" s="18"/>
     </row>
     <row r="900" spans="1:3" ht="12.75">
       <c r="A900" s="46"/>
-      <c r="B900" s="77"/>
+      <c r="B900" s="75"/>
       <c r="C900" s="18"/>
     </row>
     <row r="901" spans="1:3" ht="12.75">
       <c r="A901" s="46"/>
-      <c r="B901" s="77"/>
+      <c r="B901" s="75"/>
       <c r="C901" s="18"/>
     </row>
     <row r="902" spans="1:3" ht="12.75">
       <c r="A902" s="46"/>
-      <c r="B902" s="77"/>
+      <c r="B902" s="75"/>
       <c r="C902" s="18"/>
     </row>
     <row r="903" spans="1:3" ht="12.75">
       <c r="A903" s="46"/>
-      <c r="B903" s="77"/>
+      <c r="B903" s="75"/>
       <c r="C903" s="18"/>
     </row>
     <row r="904" spans="1:3" ht="12.75">
       <c r="A904" s="46"/>
-      <c r="B904" s="77"/>
+      <c r="B904" s="75"/>
       <c r="C904" s="18"/>
     </row>
     <row r="905" spans="1:3" ht="12.75">
       <c r="A905" s="46"/>
-      <c r="B905" s="77"/>
+      <c r="B905" s="75"/>
       <c r="C905" s="18"/>
     </row>
     <row r="906" spans="1:3" ht="12.75">
       <c r="A906" s="46"/>
-      <c r="B906" s="77"/>
+      <c r="B906" s="75"/>
       <c r="C906" s="18"/>
     </row>
     <row r="907" spans="1:3" ht="12.75">
       <c r="A907" s="46"/>
-      <c r="B907" s="77"/>
+      <c r="B907" s="75"/>
       <c r="C907" s="18"/>
     </row>
     <row r="908" spans="1:3" ht="12.75">
       <c r="A908" s="46"/>
-      <c r="B908" s="77"/>
+      <c r="B908" s="75"/>
       <c r="C908" s="18"/>
     </row>
     <row r="909" spans="1:3" ht="12.75">
       <c r="A909" s="46"/>
-      <c r="B909" s="77"/>
+      <c r="B909" s="75"/>
       <c r="C909" s="18"/>
     </row>
     <row r="910" spans="1:3" ht="12.75">
       <c r="A910" s="46"/>
-      <c r="B910" s="77"/>
+      <c r="B910" s="75"/>
       <c r="C910" s="18"/>
     </row>
     <row r="911" spans="1:3" ht="12.75">
       <c r="A911" s="46"/>
-      <c r="B911" s="77"/>
+      <c r="B911" s="75"/>
       <c r="C911" s="18"/>
     </row>
     <row r="912" spans="1:3" ht="12.75">
       <c r="A912" s="46"/>
-      <c r="B912" s="77"/>
+      <c r="B912" s="75"/>
       <c r="C912" s="18"/>
     </row>
     <row r="913" spans="1:3" ht="12.75">
       <c r="A913" s="46"/>
-      <c r="B913" s="77"/>
+      <c r="B913" s="75"/>
       <c r="C913" s="18"/>
     </row>
     <row r="914" spans="1:3" ht="12.75">
       <c r="A914" s="46"/>
-      <c r="B914" s="77"/>
+      <c r="B914" s="75"/>
       <c r="C914" s="18"/>
     </row>
     <row r="915" spans="1:3" ht="12.75">
       <c r="A915" s="46"/>
-      <c r="B915" s="77"/>
+      <c r="B915" s="75"/>
       <c r="C915" s="18"/>
     </row>
     <row r="916" spans="1:3" ht="12.75">
       <c r="A916" s="46"/>
-      <c r="B916" s="77"/>
+      <c r="B916" s="75"/>
       <c r="C916" s="18"/>
     </row>
     <row r="917" spans="1:3" ht="12.75">
       <c r="A917" s="46"/>
-      <c r="B917" s="77"/>
+      <c r="B917" s="75"/>
       <c r="C917" s="18"/>
     </row>
     <row r="918" spans="1:3" ht="12.75">
       <c r="A918" s="46"/>
-      <c r="B918" s="77"/>
+      <c r="B918" s="75"/>
       <c r="C918" s="18"/>
     </row>
     <row r="919" spans="1:3" ht="12.75">
       <c r="A919" s="46"/>
-      <c r="B919" s="77"/>
+      <c r="B919" s="75"/>
       <c r="C919" s="18"/>
     </row>
     <row r="920" spans="1:3" ht="12.75">
       <c r="A920" s="46"/>
-      <c r="B920" s="77"/>
+      <c r="B920" s="75"/>
       <c r="C920" s="18"/>
     </row>
     <row r="921" spans="1:3" ht="12.75">
       <c r="A921" s="46"/>
-      <c r="B921" s="77"/>
+      <c r="B921" s="75"/>
       <c r="C921" s="18"/>
     </row>
     <row r="922" spans="1:3" ht="12.75">
       <c r="A922" s="46"/>
-      <c r="B922" s="77"/>
+      <c r="B922" s="75"/>
       <c r="C922" s="18"/>
     </row>
     <row r="923" spans="1:3" ht="12.75">
       <c r="A923" s="46"/>
-      <c r="B923" s="77"/>
+      <c r="B923" s="75"/>
       <c r="C923" s="18"/>
     </row>
     <row r="924" spans="1:3" ht="12.75">
       <c r="A924" s="46"/>
-      <c r="B924" s="77"/>
+      <c r="B924" s="75"/>
       <c r="C924" s="18"/>
     </row>
     <row r="925" spans="1:3" ht="12.75">
       <c r="A925" s="46"/>
-      <c r="B925" s="77"/>
+      <c r="B925" s="75"/>
       <c r="C925" s="18"/>
     </row>
     <row r="926" spans="1:3" ht="12.75">
       <c r="A926" s="46"/>
-      <c r="B926" s="77"/>
+      <c r="B926" s="75"/>
       <c r="C926" s="18"/>
     </row>
     <row r="927" spans="1:3" ht="12.75">
       <c r="A927" s="46"/>
-      <c r="B927" s="77"/>
+      <c r="B927" s="75"/>
       <c r="C927" s="18"/>
     </row>
     <row r="928" spans="1:3" ht="12.75">
       <c r="A928" s="46"/>
-      <c r="B928" s="77"/>
+      <c r="B928" s="75"/>
       <c r="C928" s="18"/>
     </row>
     <row r="929" spans="1:3" ht="12.75">
       <c r="A929" s="46"/>
-      <c r="B929" s="77"/>
+      <c r="B929" s="75"/>
       <c r="C929" s="18"/>
     </row>
     <row r="930" spans="1:3" ht="12.75">
       <c r="A930" s="46"/>
-      <c r="B930" s="77"/>
+      <c r="B930" s="75"/>
       <c r="C930" s="18"/>
     </row>
     <row r="931" spans="1:3" ht="12.75">
       <c r="A931" s="46"/>
-      <c r="B931" s="77"/>
+      <c r="B931" s="75"/>
       <c r="C931" s="18"/>
     </row>
     <row r="932" spans="1:3" ht="12.75">
       <c r="A932" s="46"/>
-      <c r="B932" s="77"/>
+      <c r="B932" s="75"/>
       <c r="C932" s="18"/>
     </row>
     <row r="933" spans="1:3" ht="12.75">
       <c r="A933" s="46"/>
-      <c r="B933" s="77"/>
+      <c r="B933" s="75"/>
       <c r="C933" s="18"/>
     </row>
     <row r="934" spans="1:3" ht="12.75">
       <c r="A934" s="46"/>
-      <c r="B934" s="77"/>
+      <c r="B934" s="75"/>
       <c r="C934" s="18"/>
     </row>
     <row r="935" spans="1:3" ht="12.75">
       <c r="A935" s="46"/>
-      <c r="B935" s="77"/>
+      <c r="B935" s="75"/>
       <c r="C935" s="18"/>
     </row>
     <row r="936" spans="1:3" ht="12.75">
       <c r="A936" s="46"/>
-      <c r="B936" s="77"/>
+      <c r="B936" s="75"/>
       <c r="C936" s="18"/>
     </row>
     <row r="937" spans="1:3" ht="12.75">
       <c r="A937" s="46"/>
-      <c r="B937" s="77"/>
+      <c r="B937" s="75"/>
       <c r="C937" s="18"/>
     </row>
     <row r="938" spans="1:3" ht="12.75">
       <c r="A938" s="46"/>
-      <c r="B938" s="77"/>
+      <c r="B938" s="75"/>
       <c r="C938" s="18"/>
     </row>
     <row r="939" spans="1:3" ht="12.75">
       <c r="A939" s="46"/>
-      <c r="B939" s="77"/>
+      <c r="B939" s="75"/>
       <c r="C939" s="18"/>
     </row>
     <row r="940" spans="1:3" ht="12.75">
       <c r="A940" s="46"/>
-      <c r="B940" s="77"/>
+      <c r="B940" s="75"/>
       <c r="C940" s="18"/>
     </row>
     <row r="941" spans="1:3" ht="12.75">
       <c r="A941" s="46"/>
-      <c r="B941" s="77"/>
+      <c r="B941" s="75"/>
       <c r="C941" s="18"/>
     </row>
     <row r="942" spans="1:3" ht="12.75">
       <c r="A942" s="46"/>
-      <c r="B942" s="77"/>
+      <c r="B942" s="75"/>
       <c r="C942" s="18"/>
     </row>
     <row r="943" spans="1:3" ht="12.75">
       <c r="A943" s="46"/>
-      <c r="B943" s="77"/>
+      <c r="B943" s="75"/>
       <c r="C943" s="18"/>
     </row>
     <row r="944" spans="1:3" ht="12.75">
       <c r="A944" s="46"/>
-      <c r="B944" s="77"/>
+      <c r="B944" s="75"/>
       <c r="C944" s="18"/>
     </row>
     <row r="945" spans="1:3" ht="12.75">
       <c r="A945" s="46"/>
-      <c r="B945" s="77"/>
+      <c r="B945" s="75"/>
       <c r="C945" s="18"/>
     </row>
     <row r="946" spans="1:3" ht="12.75">
       <c r="A946" s="46"/>
-      <c r="B946" s="77"/>
+      <c r="B946" s="75"/>
       <c r="C946" s="18"/>
     </row>
     <row r="947" spans="1:3" ht="12.75">
       <c r="A947" s="46"/>
-      <c r="B947" s="77"/>
+      <c r="B947" s="75"/>
       <c r="C947" s="18"/>
     </row>
     <row r="948" spans="1:3" ht="12.75">
       <c r="A948" s="46"/>
-      <c r="B948" s="77"/>
+      <c r="B948" s="75"/>
       <c r="C948" s="18"/>
     </row>
     <row r="949" spans="1:3" ht="12.75">
       <c r="A949" s="46"/>
-      <c r="B949" s="77"/>
+      <c r="B949" s="75"/>
       <c r="C949" s="18"/>
     </row>
     <row r="950" spans="1:3" ht="12.75">
       <c r="A950" s="46"/>
-      <c r="B950" s="77"/>
+      <c r="B950" s="75"/>
       <c r="C950" s="18"/>
     </row>
     <row r="951" spans="1:3" ht="12.75">
       <c r="A951" s="46"/>
-      <c r="B951" s="77"/>
+      <c r="B951" s="75"/>
       <c r="C951" s="18"/>
     </row>
     <row r="952" spans="1:3" ht="12.75">
       <c r="A952" s="46"/>
-      <c r="B952" s="77"/>
+      <c r="B952" s="75"/>
       <c r="C952" s="18"/>
     </row>
     <row r="953" spans="1:3" ht="12.75">
       <c r="A953" s="46"/>
-      <c r="B953" s="77"/>
+      <c r="B953" s="75"/>
       <c r="C953" s="18"/>
     </row>
     <row r="954" spans="1:3" ht="12.75">
       <c r="A954" s="46"/>
-      <c r="B954" s="77"/>
+      <c r="B954" s="75"/>
       <c r="C954" s="18"/>
     </row>
     <row r="955" spans="1:3" ht="12.75">
       <c r="A955" s="46"/>
-      <c r="B955" s="77"/>
+      <c r="B955" s="75"/>
       <c r="C955" s="18"/>
     </row>
     <row r="956" spans="1:3" ht="12.75">
       <c r="A956" s="46"/>
-      <c r="B956" s="77"/>
+      <c r="B956" s="75"/>
       <c r="C956" s="18"/>
     </row>
     <row r="957" spans="1:3" ht="12.75">
       <c r="A957" s="46"/>
-      <c r="B957" s="77"/>
+      <c r="B957" s="75"/>
       <c r="C957" s="18"/>
     </row>
     <row r="958" spans="1:3" ht="12.75">
       <c r="A958" s="46"/>
-      <c r="B958" s="77"/>
+      <c r="B958" s="75"/>
       <c r="C958" s="18"/>
     </row>
     <row r="959" spans="1:3" ht="12.75">
       <c r="A959" s="46"/>
-      <c r="B959" s="77"/>
+      <c r="B959" s="75"/>
       <c r="C959" s="18"/>
     </row>
     <row r="960" spans="1:3" ht="12.75">
       <c r="A960" s="46"/>
-      <c r="B960" s="77"/>
+      <c r="B960" s="75"/>
       <c r="C960" s="18"/>
     </row>
     <row r="961" spans="1:3" ht="12.75">
       <c r="A961" s="46"/>
-      <c r="B961" s="77"/>
+      <c r="B961" s="75"/>
       <c r="C961" s="18"/>
     </row>
     <row r="962" spans="1:3" ht="12.75">
       <c r="A962" s="46"/>
-      <c r="B962" s="77"/>
+      <c r="B962" s="75"/>
       <c r="C962" s="18"/>
     </row>
     <row r="963" spans="1:3" ht="12.75">
       <c r="A963" s="46"/>
-      <c r="B963" s="77"/>
+      <c r="B963" s="75"/>
       <c r="C963" s="18"/>
     </row>
     <row r="964" spans="1:3" ht="12.75">
       <c r="A964" s="46"/>
-      <c r="B964" s="77"/>
+      <c r="B964" s="75"/>
       <c r="C964" s="18"/>
     </row>
     <row r="965" spans="1:3" ht="12.75">
       <c r="A965" s="46"/>
-      <c r="B965" s="77"/>
+      <c r="B965" s="75"/>
       <c r="C965" s="18"/>
     </row>
     <row r="966" spans="1:3" ht="12.75">
       <c r="A966" s="46"/>
-      <c r="B966" s="77"/>
+      <c r="B966" s="75"/>
       <c r="C966" s="18"/>
     </row>
     <row r="967" spans="1:3" ht="12.75">
       <c r="A967" s="46"/>
-      <c r="B967" s="77"/>
+      <c r="B967" s="75"/>
       <c r="C967" s="18"/>
     </row>
     <row r="968" spans="1:3" ht="12.75">
       <c r="A968" s="46"/>
-      <c r="B968" s="77"/>
+      <c r="B968" s="75"/>
       <c r="C968" s="18"/>
     </row>
     <row r="969" spans="1:3" ht="12.75">
       <c r="A969" s="46"/>
-      <c r="B969" s="77"/>
+      <c r="B969" s="75"/>
       <c r="C969" s="18"/>
     </row>
     <row r="970" spans="1:3" ht="12.75">
       <c r="A970" s="46"/>
-      <c r="B970" s="77"/>
+      <c r="B970" s="75"/>
       <c r="C970" s="18"/>
     </row>
     <row r="971" spans="1:3" ht="12.75">
       <c r="A971" s="46"/>
-      <c r="B971" s="77"/>
+      <c r="B971" s="75"/>
       <c r="C971" s="18"/>
     </row>
     <row r="972" spans="1:3" ht="12.75">
       <c r="A972" s="46"/>
-      <c r="B972" s="77"/>
+      <c r="B972" s="75"/>
       <c r="C972" s="18"/>
     </row>
     <row r="973" spans="1:3" ht="12.75">
       <c r="A973" s="46"/>
-      <c r="B973" s="77"/>
+      <c r="B973" s="75"/>
       <c r="C973" s="18"/>
     </row>
     <row r="974" spans="1:3" ht="12.75">
       <c r="A974" s="46"/>
-      <c r="B974" s="77"/>
+      <c r="B974" s="75"/>
       <c r="C974" s="18"/>
     </row>
     <row r="975" spans="1:3" ht="12.75">
       <c r="A975" s="46"/>
-      <c r="B975" s="77"/>
+      <c r="B975" s="75"/>
       <c r="C975" s="18"/>
     </row>
     <row r="976" spans="1:3" ht="12.75">
       <c r="A976" s="46"/>
-      <c r="B976" s="77"/>
+      <c r="B976" s="75"/>
       <c r="C976" s="18"/>
     </row>
     <row r="977" spans="1:3" ht="12.75">
       <c r="A977" s="46"/>
-      <c r="B977" s="77"/>
+      <c r="B977" s="75"/>
       <c r="C977" s="18"/>
     </row>
     <row r="978" spans="1:3" ht="12.75">
       <c r="A978" s="46"/>
-      <c r="B978" s="77"/>
+      <c r="B978" s="75"/>
       <c r="C978" s="18"/>
     </row>
     <row r="979" spans="1:3" ht="12.75">
       <c r="A979" s="46"/>
-      <c r="B979" s="77"/>
+      <c r="B979" s="75"/>
       <c r="C979" s="18"/>
     </row>
     <row r="980" spans="1:3" ht="12.75">
       <c r="A980" s="46"/>
-      <c r="B980" s="77"/>
+      <c r="B980" s="75"/>
       <c r="C980" s="18"/>
     </row>
     <row r="981" spans="1:3" ht="12.75">
       <c r="A981" s="46"/>
-      <c r="B981" s="77"/>
+      <c r="B981" s="75"/>
       <c r="C981" s="18"/>
     </row>
     <row r="982" spans="1:3" ht="12.75">
       <c r="A982" s="46"/>
-      <c r="B982" s="77"/>
+      <c r="B982" s="75"/>
       <c r="C982" s="18"/>
     </row>
     <row r="983" spans="1:3" ht="12.75">
       <c r="A983" s="46"/>
-      <c r="B983" s="77"/>
+      <c r="B983" s="75"/>
       <c r="C983" s="18"/>
     </row>
     <row r="984" spans="1:3" ht="12.75">
       <c r="A984" s="46"/>
-      <c r="B984" s="77"/>
+      <c r="B984" s="75"/>
       <c r="C984" s="18"/>
     </row>
     <row r="985" spans="1:3" ht="12.75">
       <c r="A985" s="46"/>
-      <c r="B985" s="77"/>
+      <c r="B985" s="75"/>
       <c r="C985" s="18"/>
     </row>
     <row r="986" spans="1:3" ht="12.75">
       <c r="A986" s="46"/>
-      <c r="B986" s="77"/>
+      <c r="B986" s="75"/>
       <c r="C986" s="18"/>
     </row>
     <row r="987" spans="1:3" ht="12.75">
       <c r="A987" s="46"/>
-      <c r="B987" s="77"/>
+      <c r="B987" s="75"/>
       <c r="C987" s="18"/>
     </row>
     <row r="988" spans="1:3" ht="12.75">
       <c r="A988" s="46"/>
-      <c r="B988" s="77"/>
+      <c r="B988" s="75"/>
       <c r="C988" s="18"/>
     </row>
     <row r="989" spans="1:3" ht="12.75">
       <c r="A989" s="46"/>
-      <c r="B989" s="77"/>
+      <c r="B989" s="75"/>
       <c r="C989" s="18"/>
     </row>
     <row r="990" spans="1:3" ht="12.75">
       <c r="A990" s="46"/>
-      <c r="B990" s="77"/>
+      <c r="B990" s="75"/>
       <c r="C990" s="18"/>
     </row>
     <row r="991" spans="1:3" ht="12.75">
       <c r="A991" s="46"/>
-      <c r="B991" s="77"/>
+      <c r="B991" s="75"/>
       <c r="C991" s="18"/>
     </row>
     <row r="992" spans="1:3" ht="12.75">
       <c r="A992" s="46"/>
-      <c r="B992" s="77"/>
+      <c r="B992" s="75"/>
       <c r="C992" s="18"/>
     </row>
     <row r="993" spans="1:3" ht="12.75">
       <c r="A993" s="46"/>
-      <c r="B993" s="77"/>
+      <c r="B993" s="75"/>
       <c r="C993" s="18"/>
     </row>
     <row r="994" spans="1:3" ht="12.75">
       <c r="A994" s="46"/>
-      <c r="B994" s="77"/>
+      <c r="B994" s="75"/>
       <c r="C994" s="18"/>
     </row>
     <row r="995" spans="1:3" ht="12.75">
       <c r="A995" s="46"/>
-      <c r="B995" s="77"/>
+      <c r="B995" s="75"/>
       <c r="C995" s="18"/>
     </row>
     <row r="996" spans="1:3" ht="12.75">
       <c r="A996" s="46"/>
-      <c r="B996" s="77"/>
+      <c r="B996" s="75"/>
       <c r="C996" s="18"/>
     </row>
     <row r="997" spans="1:3" ht="12.75">
       <c r="A997" s="46"/>
-      <c r="B997" s="77"/>
+      <c r="B997" s="75"/>
       <c r="C997" s="18"/>
     </row>
     <row r="998" spans="1:3" ht="12.75">
       <c r="A998" s="46"/>
-      <c r="B998" s="77"/>
+      <c r="B998" s="75"/>
       <c r="C998" s="18"/>
     </row>
     <row r="999" spans="1:3" ht="12.75">
       <c r="A999" s="46"/>
-      <c r="B999" s="77"/>
+      <c r="B999" s="75"/>
       <c r="C999" s="18"/>
     </row>
     <row r="1000" spans="1:3" ht="12.75">
       <c r="A1000" s="46"/>
-      <c r="B1000" s="77"/>
+      <c r="B1000" s="75"/>
       <c r="C1000" s="18"/>
     </row>
   </sheetData>

--- a/src/schema/tools/controlledFromGooglesheet/ECRR Controlled Vocabularies.xlsx
+++ b/src/schema/tools/controlledFromGooglesheet/ECRR Controlled Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\GithubC\earthcube\jsonld_forms\src\schema\tools\controlledFromGooglesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B82B326-A5F5-461E-A0E8-03A974A4475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A774032-5729-4339-8BB1-096E9E0DE0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="2355" windowWidth="26820" windowHeight="13620" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="2400" windowWidth="26820" windowHeight="13620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Licenses" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,6 @@
     <definedName name="Usage">Usage!$A$2:$A$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3113,7 +3112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3386,6 +3385,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3999,7 +4002,9 @@
   </sheetPr>
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4695,11 +4700,11 @@
         <v>654</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15">
+    <row r="86" spans="1:2" ht="12.75">
       <c r="A86" s="77" t="s">
         <v>655</v>
       </c>
-      <c r="B86" s="78" t="s">
+      <c r="B86" s="106" t="s">
         <v>656</v>
       </c>
     </row>
@@ -5088,7 +5093,9 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5121,7 +5128,7 @@
       <c r="A3" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="97" t="s">
         <v>708</v>
       </c>
     </row>
@@ -5837,7 +5844,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75">
+    <row r="23" spans="1:5" ht="15">
       <c r="A23" s="5" t="s">
         <v>836</v>
       </c>
@@ -42252,7 +42259,9 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -42367,6 +42376,7 @@
     <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -42377,8 +42387,8 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -42425,7 +42435,7 @@
       <c r="B3" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="107" t="s">
         <v>383</v>
       </c>
       <c r="D3" s="103" t="s">

--- a/src/schema/tools/controlledFromGooglesheet/ECRR Controlled Vocabularies.xlsx
+++ b/src/schema/tools/controlledFromGooglesheet/ECRR Controlled Vocabularies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\GithubC\earthcube\jsonld_forms\src\schema\tools\controlledFromGooglesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A774032-5729-4339-8BB1-096E9E0DE0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17362455-E82F-4196-81F9-A311EC6F2B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="2400" windowWidth="26820" windowHeight="13620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="3660" windowWidth="24615" windowHeight="13620" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Licenses" sheetId="1" r:id="rId1"/>
@@ -42259,7 +42259,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
@@ -42387,8 +42387,8 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
